--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -23,14 +23,14 @@
     <definedName name="hostoccupation">'cv_sample'!$BU$1:$BU$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BY$1:$BY$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$BN$1:$BN$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="medicalhistoryperformed">'cv_sample'!$AW$1:$AW$2</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$CW$1:$CW$5</definedName>
     <definedName name="oxygenationstatusofsample">'cv_sample'!$AY$1:$AY$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$CT$1:$CT$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="smoker">'cv_sample'!$CD$1:$CD$3</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="881">
   <si>
     <t>alias</t>
   </si>
@@ -463,6 +463,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -562,6 +574,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -679,6 +709,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -686,6 +719,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -3201,10 +3237,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3245,10 +3281,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3275,7 +3311,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3295,7 +3331,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3312,7 +3348,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3329,7 +3365,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3346,7 +3382,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3363,7 +3399,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3380,7 +3416,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3397,7 +3433,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3414,7 +3450,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3431,7 +3467,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3445,7 +3481,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3459,7 +3495,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3473,7 +3509,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3487,7 +3523,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3497,8 +3533,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3508,8 +3547,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3519,8 +3561,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3530,8 +3575,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3542,7 +3590,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3553,7 +3601,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3564,7 +3612,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3575,7 +3623,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3586,7 +3634,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3597,7 +3645,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3608,7 +3656,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3619,7 +3667,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3630,7 +3678,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3641,7 +3689,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3652,7 +3700,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3663,7 +3711,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3674,7 +3722,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3685,7 +3733,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3693,7 +3741,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3701,7 +3749,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3709,7 +3757,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3717,7 +3765,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3725,7 +3773,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3733,7 +3781,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3741,7 +3789,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3749,7 +3797,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3757,7 +3805,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3765,176 +3813,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3959,27 +4047,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4002,122 +4090,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4144,618 +4232,618 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:103" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -4817,1881 +4905,1881 @@
   <sheetData>
     <row r="1" spans="28:101">
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AF1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AJ1" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AW1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AX1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AY1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BF1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="BN1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BU1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="BY1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="CD1" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="CS1" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="CT1" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="CW1" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="28:101">
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AF2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AJ2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AW2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AX2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AY2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BF2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="BN2" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BU2" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="BY2" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="CD2" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="CS2" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="CT2" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="CW2" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3" spans="28:101">
       <c r="AB3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AF3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AJ3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="BN3" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BU3" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="BY3" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="CD3" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="CS3" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="CT3" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="CW3" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4" spans="28:101">
       <c r="AF4" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AJ4" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="BN4" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BU4" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="BY4" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="CS4" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="CT4" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="CW4" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" spans="28:101">
       <c r="AF5" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AJ5" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="BN5" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BU5" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="BY5" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="CS5" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="CT5" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="CW5" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="28:101">
       <c r="AJ6" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="BN6" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BU6" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="BY6" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="CS6" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="CT6" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="28:101">
       <c r="AJ7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="BN7" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BU7" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="BY7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CS7" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="CT7" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="28:101">
       <c r="AJ8" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="BN8" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BU8" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="BY8" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CS8" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="28:101">
       <c r="AJ9" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="BN9" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BU9" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="BY9" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="CS9" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="28:101">
       <c r="AJ10" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="BN10" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BU10" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="BY10" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="CS10" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="11" spans="28:101">
       <c r="AJ11" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="BN11" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BU11" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="BY11" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="CS11" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="28:101">
       <c r="AJ12" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="BN12" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BU12" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="BY12" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="CS12" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13" spans="28:101">
       <c r="AJ13" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="BN13" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BU13" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="BY13" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="CS13" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14" spans="28:101">
       <c r="AJ14" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="BN14" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="BU14" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="BY14" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="CS14" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="15" spans="28:101">
       <c r="AJ15" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="BN15" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="BU15" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="BY15" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="CS15" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" spans="28:101">
       <c r="AJ16" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="BN16" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="BU16" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="BY16" t="s">
         <v>116</v>
       </c>
       <c r="CS16" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="36:97">
       <c r="AJ17" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="BN17" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="BU17" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="BY17" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="CS17" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="36:97">
       <c r="AJ18" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="BN18" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="BU18" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="CS18" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="36:97">
       <c r="AJ19" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="BN19" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="BU19" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="CS19" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="36:97">
       <c r="AJ20" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="BN20" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="BU20" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="CS20" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="36:97">
       <c r="AJ21" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="BN21" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="BU21" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="CS21" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" spans="36:97">
       <c r="AJ22" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="BN22" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="BU22" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="CS22" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="36:97">
       <c r="AJ23" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="BU23" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="CS23" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="24" spans="36:97">
       <c r="AJ24" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="BU24" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="CS24" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="36:97">
       <c r="AJ25" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="BU25" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="CS25" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26" spans="36:97">
       <c r="AJ26" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="BU26" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="CS26" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="27" spans="36:97">
       <c r="AJ27" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="BU27" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="CS27" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="28" spans="36:97">
       <c r="AJ28" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="BU28" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="CS28" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="29" spans="36:97">
       <c r="AJ29" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="BU29" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="CS29" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="30" spans="36:97">
       <c r="AJ30" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="BU30" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="CS30" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="31" spans="36:97">
       <c r="AJ31" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="BU31" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="36:97">
       <c r="AJ32" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="BU32" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="36:73">
       <c r="AJ33" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="BU33" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="36:73">
       <c r="AJ34" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="BU34" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="36:73">
       <c r="AJ35" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="BU35" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="36:73">
       <c r="AJ36" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="BU36" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="36:73">
       <c r="AJ37" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="BU37" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="36:73">
       <c r="AJ38" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="BU38" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="36:73">
       <c r="AJ39" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="BU39" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="36:73">
       <c r="AJ40" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="BU40" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="36:73">
       <c r="AJ41" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="BU41" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
     </row>
     <row r="42" spans="36:73">
       <c r="AJ42" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="BU42" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="36:73">
       <c r="AJ43" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="BU43" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="36:73">
       <c r="AJ44" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="BU44" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="36:73">
       <c r="AJ45" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="BU45" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="36:73">
       <c r="AJ46" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="BU46" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="36:73">
       <c r="AJ47" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="BU47" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="36:73">
       <c r="AJ48" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="BU48" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="36:36">
       <c r="AJ49" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="36:36">
       <c r="AJ51" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="36:36">
       <c r="AJ52" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="36:36">
       <c r="AJ53" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="36:36">
       <c r="AJ54" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="36:36">
       <c r="AJ55" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="36:36">
       <c r="AJ56" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="36:36">
       <c r="AJ57" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="36:36">
       <c r="AJ58" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="36:36">
       <c r="AJ59" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="36:36">
       <c r="AJ60" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="36:36">
       <c r="AJ61" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="36:36">
       <c r="AJ62" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="36:36">
       <c r="AJ63" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="36:36">
       <c r="AJ64" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -892,8 +892,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1922,15 +1921,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1984,8 +1981,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>host body product</t>
@@ -2036,15 +2032,13 @@
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2188,8 +2182,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees Units: 
-                    </t>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
     <t>host body site</t>
@@ -2207,15 +2200,13 @@
     <t>host height</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The height of subject Units: 
-                    </t>
+    <t>(Optional) The height of subject (Units: mm)</t>
   </si>
   <si>
     <t>host body-mass index</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Body mass index, calculated as weight/(height)squared Units: 
-                    </t>
+    <t>(Optional) Body mass index, calculated as weight/(height)squared (Units: kg/m2)</t>
   </si>
   <si>
     <t>ethnicity</t>
@@ -2377,8 +2368,7 @@
     <t>host total mass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total mass of the host at collection, the unit depends on host Units: 
-                    </t>
+    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
     <t>host phenotype</t>
@@ -2390,8 +2380,7 @@
     <t>host body temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Core body temperature of the host when sample was collected Units: 
-                    </t>
+    <t>(Optional) Core body temperature of the host when sample was collected (Units: ºC)</t>
   </si>
   <si>
     <t>female</t>
@@ -2427,15 +2416,13 @@
     <t>temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of the sample at time of sampling Units: 
-                    </t>
+    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>ex-smoker</t>
@@ -2459,8 +2446,7 @@
     <t>weight loss in last three months</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Specification of weight loss in the last three months, if yes should be further specified to include amount of weight loss Units: 
-                    </t>
+    <t>(Optional) Specification of weight loss in the last three months, if yes should be further specified to include amount of weight loss (Units: kg)</t>
   </si>
   <si>
     <t>travel outside the country in last six months</t>
@@ -2520,8 +2506,7 @@
     <t>host pulse</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Resting pulse, measured as beats per minute Units: 
-                    </t>
+    <t>(Optional) Resting pulse, measured as beats per minute (Units: bpm)</t>
   </si>
   <si>
     <t>amniotic fluid/color</t>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -112,7 +112,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="890">
   <si>
     <t>alias</t>
   </si>
@@ -1366,12 +1366,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2708,12 +2708,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4233,7 +4227,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DD2"/>
+  <dimension ref="A1:DC2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4242,7 +4236,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108">
+    <row r="1" spans="1:107">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4564,11 +4558,8 @@
       <c r="DC1" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="DD1" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="2" spans="1:108" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:107" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4889,9 +4880,6 @@
       </c>
       <c r="DC2" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="DD2" s="2" t="s">
-        <v>891</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="891">
   <si>
     <t>alias</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4244,642 +4247,642 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -4941,364 +4944,364 @@
   <sheetData>
     <row r="1" spans="5:70">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AS1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="BA1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BH1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BL1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BR1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="5:70">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AS2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BA2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BH2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BL2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BR2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="5:70">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BA3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BH3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BL3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BR3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="5:70">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="BA4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BH4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BL4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="5:70">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BA5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH5" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BL5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="5:70">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BA6" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH6" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BL6" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="5:70">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="BA7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BL7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="5:70">
       <c r="E8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="BA8" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BL8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="5:70">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="BA9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH9" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BL9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="5:70">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BA10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BL10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="5:70">
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BA11" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH11" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BL11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="5:70">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="BA12" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH12" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BL12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="5:70">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="BA13" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BL13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="5:70">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BA14" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BH14" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BL14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15" spans="5:70">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BA15" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BH15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BL15" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="5:70">
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="BA16" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BH16" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BL16" t="s">
         <v>116</v>
@@ -5306,1521 +5309,1521 @@
     </row>
     <row r="17" spans="5:64">
       <c r="E17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="BA17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BH17" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BL17" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="18" spans="5:64">
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="BA18" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BH18" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="5:64">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="BA19" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BH19" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="5:64">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="BA20" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH20" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="5:64">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="BA21" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH21" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="5:64">
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="BA22" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH22" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="5:64">
       <c r="E23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="BH23" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="5:64">
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BH24" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="5:64">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BH25" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="5:64">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BH26" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="5:64">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BH27" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="5:64">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BH28" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="5:64">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BH29" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="5:64">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BH30" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="5:64">
       <c r="AG31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BH31" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32" spans="5:64">
       <c r="AG32" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BH32" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="33:60">
       <c r="AG33" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BH33" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="34" spans="33:60">
       <c r="AG34" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BH34" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="33:60">
       <c r="AG35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BH35" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="36" spans="33:60">
       <c r="AG36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BH36" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" spans="33:60">
       <c r="AG37" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BH37" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="38" spans="33:60">
       <c r="AG38" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BH38" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="39" spans="33:60">
       <c r="AG39" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BH39" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="33:60">
       <c r="AG40" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BH40" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="33:60">
       <c r="AG41" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BH41" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="33:60">
       <c r="AG42" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BH42" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="33:60">
       <c r="AG43" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BH43" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="33:60">
       <c r="AG44" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BH44" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="33:60">
       <c r="AG45" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BH45" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="33:60">
       <c r="AG46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BH46" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="33:60">
       <c r="AG47" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BH47" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="33:60">
       <c r="AG48" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BH48" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="33:33">
       <c r="AG49" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="33:33">
       <c r="AG50" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="33:33">
       <c r="AG51" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="33:33">
       <c r="AG52" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="33:33">
       <c r="AG53" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="33:33">
       <c r="AG54" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="33:33">
       <c r="AG55" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="33:33">
       <c r="AG56" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="33:33">
       <c r="AG57" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="33:33">
       <c r="AG58" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="33:33">
       <c r="AG59" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="33:33">
       <c r="AG60" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="33:33">
       <c r="AG61" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="33:33">
       <c r="AG62" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="33:33">
       <c r="AG63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="33:33">
       <c r="AG64" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="33:33">
       <c r="AG65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="33:33">
       <c r="AG66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="33:33">
       <c r="AG67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="33:33">
       <c r="AG68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="33:33">
       <c r="AG69" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="33:33">
       <c r="AG70" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="33:33">
       <c r="AG71" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="33:33">
       <c r="AG72" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="33:33">
       <c r="AG73" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="33:33">
       <c r="AG74" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="33:33">
       <c r="AG75" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="33:33">
       <c r="AG76" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="33:33">
       <c r="AG77" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="33:33">
       <c r="AG78" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="33:33">
       <c r="AG79" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="33:33">
       <c r="AG80" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="33:33">
       <c r="AG81" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="33:33">
       <c r="AG82" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="33:33">
       <c r="AG83" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="33:33">
       <c r="AG84" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="33:33">
       <c r="AG85" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" spans="33:33">
       <c r="AG86" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87" spans="33:33">
       <c r="AG87" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="33:33">
       <c r="AG88" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89" spans="33:33">
       <c r="AG89" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="33:33">
       <c r="AG90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="33:33">
       <c r="AG91" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="33:33">
       <c r="AG92" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="33:33">
       <c r="AG93" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="33:33">
       <c r="AG94" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="95" spans="33:33">
       <c r="AG95" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="33:33">
       <c r="AG96" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="33:33">
       <c r="AG97" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="33:33">
       <c r="AG98" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99" spans="33:33">
       <c r="AG99" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="33:33">
       <c r="AG100" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="33:33">
       <c r="AG101" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="33:33">
       <c r="AG103" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="104" spans="33:33">
       <c r="AG104" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="33:33">
       <c r="AG105" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="33:33">
       <c r="AG106" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="33:33">
       <c r="AG107" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="33:33">
       <c r="AG108" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="33:33">
       <c r="AG109" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="110" spans="33:33">
       <c r="AG110" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" spans="33:33">
       <c r="AG111" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="112" spans="33:33">
       <c r="AG112" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" spans="33:33">
       <c r="AG113" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="33:33">
       <c r="AG114" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="33:33">
       <c r="AG115" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="33:33">
       <c r="AG116" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="117" spans="33:33">
       <c r="AG117" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="33:33">
       <c r="AG118" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="119" spans="33:33">
       <c r="AG119" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="120" spans="33:33">
       <c r="AG120" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="33:33">
       <c r="AG121" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="122" spans="33:33">
       <c r="AG122" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="33:33">
       <c r="AG123" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="124" spans="33:33">
       <c r="AG124" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="33:33">
       <c r="AG125" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="126" spans="33:33">
       <c r="AG126" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="33:33">
       <c r="AG127" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="33:33">
       <c r="AG128" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="33:33">
       <c r="AG129" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="130" spans="33:33">
       <c r="AG130" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="131" spans="33:33">
       <c r="AG131" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="132" spans="33:33">
       <c r="AG132" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="133" spans="33:33">
       <c r="AG133" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="33:33">
       <c r="AG134" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="33:33">
       <c r="AG135" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="33:33">
       <c r="AG136" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="137" spans="33:33">
       <c r="AG137" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" spans="33:33">
       <c r="AG138" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="139" spans="33:33">
       <c r="AG139" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="140" spans="33:33">
       <c r="AG140" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="141" spans="33:33">
       <c r="AG141" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="142" spans="33:33">
       <c r="AG142" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="143" spans="33:33">
       <c r="AG143" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="33:33">
       <c r="AG144" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="145" spans="33:33">
       <c r="AG145" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="146" spans="33:33">
       <c r="AG146" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="33:33">
       <c r="AG147" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" spans="33:33">
       <c r="AG148" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="33:33">
       <c r="AG149" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="33:33">
       <c r="AG150" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="151" spans="33:33">
       <c r="AG151" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="152" spans="33:33">
       <c r="AG152" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="153" spans="33:33">
       <c r="AG153" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="154" spans="33:33">
       <c r="AG154" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="155" spans="33:33">
       <c r="AG155" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="156" spans="33:33">
       <c r="AG156" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="157" spans="33:33">
       <c r="AG157" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="158" spans="33:33">
       <c r="AG158" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="159" spans="33:33">
       <c r="AG159" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="160" spans="33:33">
       <c r="AG160" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="161" spans="33:33">
       <c r="AG161" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="162" spans="33:33">
       <c r="AG162" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="163" spans="33:33">
       <c r="AG163" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="164" spans="33:33">
       <c r="AG164" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="165" spans="33:33">
       <c r="AG165" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="166" spans="33:33">
       <c r="AG166" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="167" spans="33:33">
       <c r="AG167" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="168" spans="33:33">
       <c r="AG168" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="169" spans="33:33">
       <c r="AG169" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="170" spans="33:33">
       <c r="AG170" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="171" spans="33:33">
       <c r="AG171" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="172" spans="33:33">
       <c r="AG172" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="33:33">
       <c r="AG173" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="174" spans="33:33">
       <c r="AG174" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" spans="33:33">
       <c r="AG175" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="176" spans="33:33">
       <c r="AG176" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="177" spans="33:33">
       <c r="AG177" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="178" spans="33:33">
       <c r="AG178" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="33:33">
       <c r="AG179" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="180" spans="33:33">
       <c r="AG180" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="181" spans="33:33">
       <c r="AG181" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="182" spans="33:33">
       <c r="AG182" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="183" spans="33:33">
       <c r="AG183" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="184" spans="33:33">
       <c r="AG184" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="185" spans="33:33">
       <c r="AG185" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="33:33">
       <c r="AG186" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="33:33">
       <c r="AG187" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="33:33">
       <c r="AG188" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="33:33">
       <c r="AG189" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="190" spans="33:33">
       <c r="AG190" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="191" spans="33:33">
       <c r="AG191" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="33:33">
       <c r="AG192" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="193" spans="33:33">
       <c r="AG193" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="194" spans="33:33">
       <c r="AG194" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="33:33">
       <c r="AG195" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="33:33">
       <c r="AG196" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="197" spans="33:33">
       <c r="AG197" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="198" spans="33:33">
       <c r="AG198" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="199" spans="33:33">
       <c r="AG199" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="200" spans="33:33">
       <c r="AG200" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="201" spans="33:33">
       <c r="AG201" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="202" spans="33:33">
       <c r="AG202" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="203" spans="33:33">
       <c r="AG203" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="33:33">
       <c r="AG204" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="205" spans="33:33">
       <c r="AG205" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="33:33">
       <c r="AG206" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="207" spans="33:33">
       <c r="AG207" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="208" spans="33:33">
       <c r="AG208" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="209" spans="33:33">
       <c r="AG209" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="210" spans="33:33">
       <c r="AG210" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="211" spans="33:33">
       <c r="AG211" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="212" spans="33:33">
       <c r="AG212" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="213" spans="33:33">
       <c r="AG213" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="214" spans="33:33">
       <c r="AG214" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="215" spans="33:33">
       <c r="AG215" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="216" spans="33:33">
       <c r="AG216" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="217" spans="33:33">
       <c r="AG217" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="218" spans="33:33">
       <c r="AG218" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="219" spans="33:33">
       <c r="AG219" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="220" spans="33:33">
       <c r="AG220" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="221" spans="33:33">
       <c r="AG221" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="222" spans="33:33">
       <c r="AG222" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="223" spans="33:33">
       <c r="AG223" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="224" spans="33:33">
       <c r="AG224" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="225" spans="33:33">
       <c r="AG225" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="226" spans="33:33">
       <c r="AG226" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="227" spans="33:33">
       <c r="AG227" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="228" spans="33:33">
       <c r="AG228" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="229" spans="33:33">
       <c r="AG229" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="230" spans="33:33">
       <c r="AG230" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="231" spans="33:33">
       <c r="AG231" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="232" spans="33:33">
       <c r="AG232" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="233" spans="33:33">
       <c r="AG233" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="234" spans="33:33">
       <c r="AG234" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="235" spans="33:33">
       <c r="AG235" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="236" spans="33:33">
       <c r="AG236" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="237" spans="33:33">
       <c r="AG237" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="238" spans="33:33">
       <c r="AG238" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="239" spans="33:33">
       <c r="AG239" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="240" spans="33:33">
       <c r="AG240" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="241" spans="33:33">
       <c r="AG241" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="242" spans="33:33">
       <c r="AG242" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="243" spans="33:33">
       <c r="AG243" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="244" spans="33:33">
       <c r="AG244" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="245" spans="33:33">
       <c r="AG245" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="246" spans="33:33">
       <c r="AG246" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="247" spans="33:33">
       <c r="AG247" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="248" spans="33:33">
       <c r="AG248" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="249" spans="33:33">
       <c r="AG249" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="250" spans="33:33">
       <c r="AG250" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="251" spans="33:33">
       <c r="AG251" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="252" spans="33:33">
       <c r="AG252" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="253" spans="33:33">
       <c r="AG253" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="254" spans="33:33">
       <c r="AG254" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="255" spans="33:33">
       <c r="AG255" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="256" spans="33:33">
       <c r="AG256" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="257" spans="33:33">
       <c r="AG257" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="258" spans="33:33">
       <c r="AG258" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="259" spans="33:33">
       <c r="AG259" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="260" spans="33:33">
       <c r="AG260" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="261" spans="33:33">
       <c r="AG261" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="262" spans="33:33">
       <c r="AG262" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="263" spans="33:33">
       <c r="AG263" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="264" spans="33:33">
       <c r="AG264" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="265" spans="33:33">
       <c r="AG265" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="266" spans="33:33">
       <c r="AG266" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="267" spans="33:33">
       <c r="AG267" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="268" spans="33:33">
       <c r="AG268" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="269" spans="33:33">
       <c r="AG269" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="270" spans="33:33">
       <c r="AG270" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="271" spans="33:33">
       <c r="AG271" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="272" spans="33:33">
       <c r="AG272" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="273" spans="33:33">
       <c r="AG273" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="274" spans="33:33">
       <c r="AG274" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="275" spans="33:33">
       <c r="AG275" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="276" spans="33:33">
       <c r="AG276" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="277" spans="33:33">
       <c r="AG277" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="278" spans="33:33">
       <c r="AG278" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="279" spans="33:33">
       <c r="AG279" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="280" spans="33:33">
       <c r="AG280" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="281" spans="33:33">
       <c r="AG281" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="282" spans="33:33">
       <c r="AG282" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="283" spans="33:33">
       <c r="AG283" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="284" spans="33:33">
       <c r="AG284" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="285" spans="33:33">
       <c r="AG285" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="286" spans="33:33">
       <c r="AG286" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="287" spans="33:33">
       <c r="AG287" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="288" spans="33:33">
       <c r="AG288" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -124,7 +124,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -142,7 +142,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AG$1:$AG$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
     <definedName name="hostHIVstatus">'cv_sample'!$AS$1:$AS$2</definedName>
     <definedName name="hostoccupation">'cv_sample'!$BH$1:$BH$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BL$1:$BL$17</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="892">
   <si>
     <t>alias</t>
   </si>
@@ -1177,6 +1177,66 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -2005,6 +2065,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2045,66 +2108,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>nose/mouth/teeth/throat disorder</t>
@@ -4337,229 +4340,229 @@
         <v>375</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>671</v>
+        <v>383</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>673</v>
+        <v>385</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>675</v>
+        <v>387</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>677</v>
+        <v>389</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>679</v>
+        <v>391</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>681</v>
+        <v>393</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>683</v>
+        <v>395</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="150" customHeight="1">
@@ -4660,229 +4663,229 @@
         <v>376</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>672</v>
+        <v>384</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>676</v>
+        <v>388</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>678</v>
+        <v>390</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>680</v>
+        <v>392</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>682</v>
+        <v>394</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>684</v>
+        <v>396</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
   </sheetData>
@@ -4911,7 +4914,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
@@ -4936,7 +4939,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BR288"/>
+  <dimension ref="E1:BR289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4967,23 +4970,23 @@
       <c r="AA1" t="s">
         <v>362</v>
       </c>
-      <c r="AG1" t="s">
-        <v>377</v>
+      <c r="AQ1" t="s">
+        <v>397</v>
       </c>
       <c r="AS1" t="s">
         <v>336</v>
       </c>
       <c r="BA1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BH1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BL1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BR1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="5:70">
@@ -5011,23 +5014,23 @@
       <c r="AA2" t="s">
         <v>363</v>
       </c>
-      <c r="AG2" t="s">
-        <v>378</v>
+      <c r="AQ2" t="s">
+        <v>398</v>
       </c>
       <c r="AS2" t="s">
         <v>337</v>
       </c>
       <c r="BA2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BH2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BL2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BR2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="5:70">
@@ -5046,20 +5049,20 @@
       <c r="AA3" t="s">
         <v>364</v>
       </c>
-      <c r="AG3" t="s">
-        <v>379</v>
+      <c r="AQ3" t="s">
+        <v>399</v>
       </c>
       <c r="BA3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BH3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BL3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BR3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="5:70">
@@ -5075,17 +5078,17 @@
       <c r="R4" t="s">
         <v>343</v>
       </c>
-      <c r="AG4" t="s">
-        <v>380</v>
+      <c r="AQ4" t="s">
+        <v>400</v>
       </c>
       <c r="BA4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BL4" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="5:70">
@@ -5101,17 +5104,17 @@
       <c r="R5" t="s">
         <v>337</v>
       </c>
-      <c r="AG5" t="s">
-        <v>381</v>
+      <c r="AQ5" t="s">
+        <v>401</v>
       </c>
       <c r="BA5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BL5" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="5:70">
@@ -5121,17 +5124,17 @@
       <c r="H6" t="s">
         <v>312</v>
       </c>
-      <c r="AG6" t="s">
-        <v>382</v>
+      <c r="AQ6" t="s">
+        <v>402</v>
       </c>
       <c r="BA6" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH6" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BL6" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="5:70">
@@ -5141,167 +5144,167 @@
       <c r="H7" t="s">
         <v>313</v>
       </c>
-      <c r="AG7" t="s">
-        <v>383</v>
+      <c r="AQ7" t="s">
+        <v>403</v>
       </c>
       <c r="BA7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BL7" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="5:70">
       <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="AG8" t="s">
-        <v>384</v>
+      <c r="AQ8" t="s">
+        <v>404</v>
       </c>
       <c r="BA8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH8" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BL8" t="s">
-        <v>657</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="5:70">
       <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="AG9" t="s">
-        <v>385</v>
+      <c r="AQ9" t="s">
+        <v>405</v>
       </c>
       <c r="BA9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH9" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BL9" t="s">
-        <v>658</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="5:70">
       <c r="E10" t="s">
         <v>275</v>
       </c>
-      <c r="AG10" t="s">
-        <v>386</v>
+      <c r="AQ10" t="s">
+        <v>406</v>
       </c>
       <c r="BA10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BL10" t="s">
-        <v>659</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="5:70">
       <c r="E11" t="s">
         <v>276</v>
       </c>
-      <c r="AG11" t="s">
-        <v>387</v>
+      <c r="AQ11" t="s">
+        <v>407</v>
       </c>
       <c r="BA11" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH11" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BL11" t="s">
-        <v>660</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="5:70">
       <c r="E12" t="s">
         <v>277</v>
       </c>
-      <c r="AG12" t="s">
-        <v>388</v>
+      <c r="AQ12" t="s">
+        <v>408</v>
       </c>
       <c r="BA12" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BL12" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="13" spans="5:70">
       <c r="E13" t="s">
         <v>278</v>
       </c>
-      <c r="AG13" t="s">
-        <v>389</v>
+      <c r="AQ13" t="s">
+        <v>409</v>
       </c>
       <c r="BA13" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BH13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BL13" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="5:70">
       <c r="E14" t="s">
         <v>279</v>
       </c>
-      <c r="AG14" t="s">
-        <v>390</v>
+      <c r="AQ14" t="s">
+        <v>410</v>
       </c>
       <c r="BA14" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BH14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BL14" t="s">
-        <v>662</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="5:70">
       <c r="E15" t="s">
         <v>280</v>
       </c>
-      <c r="AG15" t="s">
-        <v>391</v>
+      <c r="AQ15" t="s">
+        <v>411</v>
       </c>
       <c r="BA15" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BH15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BL15" t="s">
-        <v>663</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="5:70">
       <c r="E16" t="s">
         <v>281</v>
       </c>
-      <c r="AG16" t="s">
-        <v>392</v>
+      <c r="AQ16" t="s">
+        <v>412</v>
       </c>
       <c r="BA16" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BH16" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BL16" t="s">
         <v>116</v>
@@ -5311,1519 +5314,1524 @@
       <c r="E17" t="s">
         <v>282</v>
       </c>
-      <c r="AG17" t="s">
-        <v>393</v>
+      <c r="AQ17" t="s">
+        <v>413</v>
       </c>
       <c r="BA17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BH17" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BL17" t="s">
-        <v>664</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="5:64">
       <c r="E18" t="s">
         <v>283</v>
       </c>
-      <c r="AG18" t="s">
-        <v>394</v>
+      <c r="AQ18" t="s">
+        <v>414</v>
       </c>
       <c r="BA18" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BH18" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="5:64">
       <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="AG19" t="s">
-        <v>395</v>
+      <c r="AQ19" t="s">
+        <v>415</v>
       </c>
       <c r="BA19" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH19" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="5:64">
       <c r="E20" t="s">
         <v>285</v>
       </c>
-      <c r="AG20" t="s">
-        <v>396</v>
+      <c r="AQ20" t="s">
+        <v>416</v>
       </c>
       <c r="BA20" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH20" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="5:64">
       <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="AG21" t="s">
-        <v>397</v>
+      <c r="AQ21" t="s">
+        <v>417</v>
       </c>
       <c r="BA21" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH21" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="5:64">
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="AG22" t="s">
-        <v>398</v>
+      <c r="AQ22" t="s">
+        <v>418</v>
       </c>
       <c r="BA22" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH22" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="5:64">
       <c r="E23" t="s">
         <v>288</v>
       </c>
-      <c r="AG23" t="s">
-        <v>399</v>
+      <c r="AQ23" t="s">
+        <v>419</v>
       </c>
       <c r="BH23" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="5:64">
       <c r="E24" t="s">
         <v>289</v>
       </c>
-      <c r="AG24" t="s">
-        <v>400</v>
+      <c r="AQ24" t="s">
+        <v>420</v>
       </c>
       <c r="BH24" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="5:64">
       <c r="E25" t="s">
         <v>290</v>
       </c>
-      <c r="AG25" t="s">
-        <v>401</v>
+      <c r="AQ25" t="s">
+        <v>421</v>
       </c>
       <c r="BH25" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="5:64">
       <c r="E26" t="s">
         <v>291</v>
       </c>
-      <c r="AG26" t="s">
-        <v>402</v>
+      <c r="AQ26" t="s">
+        <v>422</v>
       </c>
       <c r="BH26" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="27" spans="5:64">
       <c r="E27" t="s">
         <v>292</v>
       </c>
-      <c r="AG27" t="s">
-        <v>403</v>
+      <c r="AQ27" t="s">
+        <v>423</v>
       </c>
       <c r="BH27" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="28" spans="5:64">
       <c r="E28" t="s">
         <v>293</v>
       </c>
-      <c r="AG28" t="s">
-        <v>404</v>
+      <c r="AQ28" t="s">
+        <v>424</v>
       </c>
       <c r="BH28" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="5:64">
       <c r="E29" t="s">
         <v>294</v>
       </c>
-      <c r="AG29" t="s">
-        <v>405</v>
+      <c r="AQ29" t="s">
+        <v>425</v>
       </c>
       <c r="BH29" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="5:64">
       <c r="E30" t="s">
         <v>295</v>
       </c>
-      <c r="AG30" t="s">
-        <v>406</v>
+      <c r="AQ30" t="s">
+        <v>426</v>
       </c>
       <c r="BH30" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="5:64">
-      <c r="AG31" t="s">
-        <v>407</v>
+      <c r="AQ31" t="s">
+        <v>427</v>
       </c>
       <c r="BH31" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="5:64">
-      <c r="AG32" t="s">
-        <v>408</v>
+      <c r="AQ32" t="s">
+        <v>428</v>
       </c>
       <c r="BH32" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="33" spans="33:60">
-      <c r="AG33" t="s">
-        <v>409</v>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="33" spans="43:60">
+      <c r="AQ33" t="s">
+        <v>429</v>
       </c>
       <c r="BH33" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="34" spans="33:60">
-      <c r="AG34" t="s">
-        <v>410</v>
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="43:60">
+      <c r="AQ34" t="s">
+        <v>430</v>
       </c>
       <c r="BH34" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="35" spans="33:60">
-      <c r="AG35" t="s">
-        <v>411</v>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="43:60">
+      <c r="AQ35" t="s">
+        <v>431</v>
       </c>
       <c r="BH35" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="36" spans="33:60">
-      <c r="AG36" t="s">
-        <v>412</v>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="36" spans="43:60">
+      <c r="AQ36" t="s">
+        <v>432</v>
       </c>
       <c r="BH36" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="37" spans="33:60">
-      <c r="AG37" t="s">
-        <v>413</v>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="37" spans="43:60">
+      <c r="AQ37" t="s">
+        <v>433</v>
       </c>
       <c r="BH37" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="38" spans="33:60">
-      <c r="AG38" t="s">
-        <v>414</v>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="38" spans="43:60">
+      <c r="AQ38" t="s">
+        <v>434</v>
       </c>
       <c r="BH38" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="39" spans="33:60">
-      <c r="AG39" t="s">
-        <v>415</v>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="39" spans="43:60">
+      <c r="AQ39" t="s">
+        <v>435</v>
       </c>
       <c r="BH39" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="40" spans="33:60">
-      <c r="AG40" t="s">
-        <v>416</v>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="40" spans="43:60">
+      <c r="AQ40" t="s">
+        <v>436</v>
       </c>
       <c r="BH40" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="41" spans="33:60">
-      <c r="AG41" t="s">
-        <v>417</v>
+        <v>781</v>
+      </c>
+    </row>
+    <row r="41" spans="43:60">
+      <c r="AQ41" t="s">
+        <v>437</v>
       </c>
       <c r="BH41" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="42" spans="33:60">
-      <c r="AG42" t="s">
-        <v>418</v>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="42" spans="43:60">
+      <c r="AQ42" t="s">
+        <v>438</v>
       </c>
       <c r="BH42" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="43" spans="33:60">
-      <c r="AG43" t="s">
-        <v>419</v>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="43" spans="43:60">
+      <c r="AQ43" t="s">
+        <v>439</v>
       </c>
       <c r="BH43" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="44" spans="33:60">
-      <c r="AG44" t="s">
-        <v>420</v>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="44" spans="43:60">
+      <c r="AQ44" t="s">
+        <v>440</v>
       </c>
       <c r="BH44" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="45" spans="33:60">
-      <c r="AG45" t="s">
-        <v>421</v>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="45" spans="43:60">
+      <c r="AQ45" t="s">
+        <v>441</v>
       </c>
       <c r="BH45" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="46" spans="33:60">
-      <c r="AG46" t="s">
-        <v>422</v>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="46" spans="43:60">
+      <c r="AQ46" t="s">
+        <v>442</v>
       </c>
       <c r="BH46" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="47" spans="33:60">
-      <c r="AG47" t="s">
-        <v>423</v>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="47" spans="43:60">
+      <c r="AQ47" t="s">
+        <v>443</v>
       </c>
       <c r="BH47" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="48" spans="33:60">
-      <c r="AG48" t="s">
-        <v>424</v>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="48" spans="43:60">
+      <c r="AQ48" t="s">
+        <v>444</v>
       </c>
       <c r="BH48" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="49" spans="33:33">
-      <c r="AG49" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="50" spans="33:33">
-      <c r="AG50" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="33:33">
-      <c r="AG51" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="52" spans="33:33">
-      <c r="AG52" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="53" spans="33:33">
-      <c r="AG53" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="54" spans="33:33">
-      <c r="AG54" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="55" spans="33:33">
-      <c r="AG55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="56" spans="33:33">
-      <c r="AG56" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="57" spans="33:33">
-      <c r="AG57" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="58" spans="33:33">
-      <c r="AG58" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="59" spans="33:33">
-      <c r="AG59" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="60" spans="33:33">
-      <c r="AG60" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="61" spans="33:33">
-      <c r="AG61" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="62" spans="33:33">
-      <c r="AG62" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="63" spans="33:33">
-      <c r="AG63" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="64" spans="33:33">
-      <c r="AG64" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" spans="33:33">
-      <c r="AG65" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="33:33">
-      <c r="AG66" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" spans="33:33">
-      <c r="AG67" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="68" spans="33:33">
-      <c r="AG68" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="69" spans="33:33">
-      <c r="AG69" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="43:43">
+      <c r="AQ49" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="33:33">
-      <c r="AG70" t="s">
+    <row r="50" spans="43:43">
+      <c r="AQ50" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="71" spans="33:33">
-      <c r="AG71" t="s">
+    <row r="51" spans="43:43">
+      <c r="AQ51" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="72" spans="33:33">
-      <c r="AG72" t="s">
+    <row r="52" spans="43:43">
+      <c r="AQ52" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="33:33">
-      <c r="AG73" t="s">
+    <row r="53" spans="43:43">
+      <c r="AQ53" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="33:33">
-      <c r="AG74" t="s">
+    <row r="54" spans="43:43">
+      <c r="AQ54" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="75" spans="33:33">
-      <c r="AG75" t="s">
+    <row r="55" spans="43:43">
+      <c r="AQ55" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="76" spans="33:33">
-      <c r="AG76" t="s">
+    <row r="56" spans="43:43">
+      <c r="AQ56" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="77" spans="33:33">
-      <c r="AG77" t="s">
+    <row r="57" spans="43:43">
+      <c r="AQ57" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="78" spans="33:33">
-      <c r="AG78" t="s">
+    <row r="58" spans="43:43">
+      <c r="AQ58" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="79" spans="33:33">
-      <c r="AG79" t="s">
+    <row r="59" spans="43:43">
+      <c r="AQ59" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="80" spans="33:33">
-      <c r="AG80" t="s">
+    <row r="60" spans="43:43">
+      <c r="AQ60" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="81" spans="33:33">
-      <c r="AG81" t="s">
+    <row r="61" spans="43:43">
+      <c r="AQ61" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="82" spans="33:33">
-      <c r="AG82" t="s">
+    <row r="62" spans="43:43">
+      <c r="AQ62" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="83" spans="33:33">
-      <c r="AG83" t="s">
+    <row r="63" spans="43:43">
+      <c r="AQ63" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="84" spans="33:33">
-      <c r="AG84" t="s">
+    <row r="64" spans="43:43">
+      <c r="AQ64" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="33:33">
-      <c r="AG85" t="s">
+    <row r="65" spans="43:43">
+      <c r="AQ65" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="86" spans="33:33">
-      <c r="AG86" t="s">
+    <row r="66" spans="43:43">
+      <c r="AQ66" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="33:33">
-      <c r="AG87" t="s">
+    <row r="67" spans="43:43">
+      <c r="AQ67" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="88" spans="33:33">
-      <c r="AG88" t="s">
+    <row r="68" spans="43:43">
+      <c r="AQ68" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="89" spans="33:33">
-      <c r="AG89" t="s">
+    <row r="69" spans="43:43">
+      <c r="AQ69" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="90" spans="33:33">
-      <c r="AG90" t="s">
+    <row r="70" spans="43:43">
+      <c r="AQ70" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="91" spans="33:33">
-      <c r="AG91" t="s">
+    <row r="71" spans="43:43">
+      <c r="AQ71" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="92" spans="33:33">
-      <c r="AG92" t="s">
+    <row r="72" spans="43:43">
+      <c r="AQ72" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="93" spans="33:33">
-      <c r="AG93" t="s">
+    <row r="73" spans="43:43">
+      <c r="AQ73" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="94" spans="33:33">
-      <c r="AG94" t="s">
+    <row r="74" spans="43:43">
+      <c r="AQ74" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="95" spans="33:33">
-      <c r="AG95" t="s">
+    <row r="75" spans="43:43">
+      <c r="AQ75" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="96" spans="33:33">
-      <c r="AG96" t="s">
+    <row r="76" spans="43:43">
+      <c r="AQ76" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="97" spans="33:33">
-      <c r="AG97" t="s">
+    <row r="77" spans="43:43">
+      <c r="AQ77" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="98" spans="33:33">
-      <c r="AG98" t="s">
+    <row r="78" spans="43:43">
+      <c r="AQ78" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="99" spans="33:33">
-      <c r="AG99" t="s">
+    <row r="79" spans="43:43">
+      <c r="AQ79" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="100" spans="33:33">
-      <c r="AG100" t="s">
+    <row r="80" spans="43:43">
+      <c r="AQ80" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="101" spans="33:33">
-      <c r="AG101" t="s">
+    <row r="81" spans="43:43">
+      <c r="AQ81" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="102" spans="33:33">
-      <c r="AG102" t="s">
+    <row r="82" spans="43:43">
+      <c r="AQ82" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="103" spans="33:33">
-      <c r="AG103" t="s">
+    <row r="83" spans="43:43">
+      <c r="AQ83" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="104" spans="33:33">
-      <c r="AG104" t="s">
+    <row r="84" spans="43:43">
+      <c r="AQ84" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="105" spans="33:33">
-      <c r="AG105" t="s">
+    <row r="85" spans="43:43">
+      <c r="AQ85" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="106" spans="33:33">
-      <c r="AG106" t="s">
+    <row r="86" spans="43:43">
+      <c r="AQ86" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="33:33">
-      <c r="AG107" t="s">
+    <row r="87" spans="43:43">
+      <c r="AQ87" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="108" spans="33:33">
-      <c r="AG108" t="s">
+    <row r="88" spans="43:43">
+      <c r="AQ88" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="109" spans="33:33">
-      <c r="AG109" t="s">
+    <row r="89" spans="43:43">
+      <c r="AQ89" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="110" spans="33:33">
-      <c r="AG110" t="s">
+    <row r="90" spans="43:43">
+      <c r="AQ90" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="111" spans="33:33">
-      <c r="AG111" t="s">
+    <row r="91" spans="43:43">
+      <c r="AQ91" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="112" spans="33:33">
-      <c r="AG112" t="s">
+    <row r="92" spans="43:43">
+      <c r="AQ92" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="113" spans="33:33">
-      <c r="AG113" t="s">
+    <row r="93" spans="43:43">
+      <c r="AQ93" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="114" spans="33:33">
-      <c r="AG114" t="s">
+    <row r="94" spans="43:43">
+      <c r="AQ94" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="115" spans="33:33">
-      <c r="AG115" t="s">
+    <row r="95" spans="43:43">
+      <c r="AQ95" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="116" spans="33:33">
-      <c r="AG116" t="s">
+    <row r="96" spans="43:43">
+      <c r="AQ96" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="117" spans="33:33">
-      <c r="AG117" t="s">
+    <row r="97" spans="43:43">
+      <c r="AQ97" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="118" spans="33:33">
-      <c r="AG118" t="s">
+    <row r="98" spans="43:43">
+      <c r="AQ98" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="119" spans="33:33">
-      <c r="AG119" t="s">
+    <row r="99" spans="43:43">
+      <c r="AQ99" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="120" spans="33:33">
-      <c r="AG120" t="s">
+    <row r="100" spans="43:43">
+      <c r="AQ100" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="121" spans="33:33">
-      <c r="AG121" t="s">
+    <row r="101" spans="43:43">
+      <c r="AQ101" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="122" spans="33:33">
-      <c r="AG122" t="s">
+    <row r="102" spans="43:43">
+      <c r="AQ102" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="123" spans="33:33">
-      <c r="AG123" t="s">
+    <row r="103" spans="43:43">
+      <c r="AQ103" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="124" spans="33:33">
-      <c r="AG124" t="s">
+    <row r="104" spans="43:43">
+      <c r="AQ104" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="33:33">
-      <c r="AG125" t="s">
+    <row r="105" spans="43:43">
+      <c r="AQ105" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="126" spans="33:33">
-      <c r="AG126" t="s">
+    <row r="106" spans="43:43">
+      <c r="AQ106" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="127" spans="33:33">
-      <c r="AG127" t="s">
+    <row r="107" spans="43:43">
+      <c r="AQ107" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="128" spans="33:33">
-      <c r="AG128" t="s">
+    <row r="108" spans="43:43">
+      <c r="AQ108" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="129" spans="33:33">
-      <c r="AG129" t="s">
+    <row r="109" spans="43:43">
+      <c r="AQ109" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="130" spans="33:33">
-      <c r="AG130" t="s">
+    <row r="110" spans="43:43">
+      <c r="AQ110" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="131" spans="33:33">
-      <c r="AG131" t="s">
+    <row r="111" spans="43:43">
+      <c r="AQ111" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="132" spans="33:33">
-      <c r="AG132" t="s">
+    <row r="112" spans="43:43">
+      <c r="AQ112" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="133" spans="33:33">
-      <c r="AG133" t="s">
+    <row r="113" spans="43:43">
+      <c r="AQ113" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="134" spans="33:33">
-      <c r="AG134" t="s">
+    <row r="114" spans="43:43">
+      <c r="AQ114" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="135" spans="33:33">
-      <c r="AG135" t="s">
+    <row r="115" spans="43:43">
+      <c r="AQ115" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="136" spans="33:33">
-      <c r="AG136" t="s">
+    <row r="116" spans="43:43">
+      <c r="AQ116" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="137" spans="33:33">
-      <c r="AG137" t="s">
+    <row r="117" spans="43:43">
+      <c r="AQ117" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="138" spans="33:33">
-      <c r="AG138" t="s">
+    <row r="118" spans="43:43">
+      <c r="AQ118" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="139" spans="33:33">
-      <c r="AG139" t="s">
+    <row r="119" spans="43:43">
+      <c r="AQ119" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="140" spans="33:33">
-      <c r="AG140" t="s">
+    <row r="120" spans="43:43">
+      <c r="AQ120" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="141" spans="33:33">
-      <c r="AG141" t="s">
+    <row r="121" spans="43:43">
+      <c r="AQ121" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="142" spans="33:33">
-      <c r="AG142" t="s">
+    <row r="122" spans="43:43">
+      <c r="AQ122" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="143" spans="33:33">
-      <c r="AG143" t="s">
+    <row r="123" spans="43:43">
+      <c r="AQ123" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="144" spans="33:33">
-      <c r="AG144" t="s">
+    <row r="124" spans="43:43">
+      <c r="AQ124" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="145" spans="33:33">
-      <c r="AG145" t="s">
+    <row r="125" spans="43:43">
+      <c r="AQ125" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="146" spans="33:33">
-      <c r="AG146" t="s">
+    <row r="126" spans="43:43">
+      <c r="AQ126" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="33:33">
-      <c r="AG147" t="s">
+    <row r="127" spans="43:43">
+      <c r="AQ127" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="148" spans="33:33">
-      <c r="AG148" t="s">
+    <row r="128" spans="43:43">
+      <c r="AQ128" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="149" spans="33:33">
-      <c r="AG149" t="s">
+    <row r="129" spans="43:43">
+      <c r="AQ129" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="150" spans="33:33">
-      <c r="AG150" t="s">
+    <row r="130" spans="43:43">
+      <c r="AQ130" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="151" spans="33:33">
-      <c r="AG151" t="s">
+    <row r="131" spans="43:43">
+      <c r="AQ131" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="152" spans="33:33">
-      <c r="AG152" t="s">
+    <row r="132" spans="43:43">
+      <c r="AQ132" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="153" spans="33:33">
-      <c r="AG153" t="s">
+    <row r="133" spans="43:43">
+      <c r="AQ133" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="154" spans="33:33">
-      <c r="AG154" t="s">
+    <row r="134" spans="43:43">
+      <c r="AQ134" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="155" spans="33:33">
-      <c r="AG155" t="s">
+    <row r="135" spans="43:43">
+      <c r="AQ135" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="156" spans="33:33">
-      <c r="AG156" t="s">
+    <row r="136" spans="43:43">
+      <c r="AQ136" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="33:33">
-      <c r="AG157" t="s">
+    <row r="137" spans="43:43">
+      <c r="AQ137" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="158" spans="33:33">
-      <c r="AG158" t="s">
+    <row r="138" spans="43:43">
+      <c r="AQ138" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="159" spans="33:33">
-      <c r="AG159" t="s">
+    <row r="139" spans="43:43">
+      <c r="AQ139" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="160" spans="33:33">
-      <c r="AG160" t="s">
+    <row r="140" spans="43:43">
+      <c r="AQ140" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="161" spans="33:33">
-      <c r="AG161" t="s">
+    <row r="141" spans="43:43">
+      <c r="AQ141" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="162" spans="33:33">
-      <c r="AG162" t="s">
+    <row r="142" spans="43:43">
+      <c r="AQ142" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="163" spans="33:33">
-      <c r="AG163" t="s">
+    <row r="143" spans="43:43">
+      <c r="AQ143" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="164" spans="33:33">
-      <c r="AG164" t="s">
+    <row r="144" spans="43:43">
+      <c r="AQ144" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="165" spans="33:33">
-      <c r="AG165" t="s">
+    <row r="145" spans="43:43">
+      <c r="AQ145" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="166" spans="33:33">
-      <c r="AG166" t="s">
+    <row r="146" spans="43:43">
+      <c r="AQ146" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="167" spans="33:33">
-      <c r="AG167" t="s">
+    <row r="147" spans="43:43">
+      <c r="AQ147" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="168" spans="33:33">
-      <c r="AG168" t="s">
+    <row r="148" spans="43:43">
+      <c r="AQ148" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="169" spans="33:33">
-      <c r="AG169" t="s">
+    <row r="149" spans="43:43">
+      <c r="AQ149" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="170" spans="33:33">
-      <c r="AG170" t="s">
+    <row r="150" spans="43:43">
+      <c r="AQ150" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="171" spans="33:33">
-      <c r="AG171" t="s">
+    <row r="151" spans="43:43">
+      <c r="AQ151" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="172" spans="33:33">
-      <c r="AG172" t="s">
+    <row r="152" spans="43:43">
+      <c r="AQ152" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="173" spans="33:33">
-      <c r="AG173" t="s">
+    <row r="153" spans="43:43">
+      <c r="AQ153" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="174" spans="33:33">
-      <c r="AG174" t="s">
+    <row r="154" spans="43:43">
+      <c r="AQ154" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="175" spans="33:33">
-      <c r="AG175" t="s">
+    <row r="155" spans="43:43">
+      <c r="AQ155" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="176" spans="33:33">
-      <c r="AG176" t="s">
+    <row r="156" spans="43:43">
+      <c r="AQ156" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="177" spans="33:33">
-      <c r="AG177" t="s">
+    <row r="157" spans="43:43">
+      <c r="AQ157" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="178" spans="33:33">
-      <c r="AG178" t="s">
+    <row r="158" spans="43:43">
+      <c r="AQ158" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="179" spans="33:33">
-      <c r="AG179" t="s">
+    <row r="159" spans="43:43">
+      <c r="AQ159" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="180" spans="33:33">
-      <c r="AG180" t="s">
+    <row r="160" spans="43:43">
+      <c r="AQ160" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="181" spans="33:33">
-      <c r="AG181" t="s">
+    <row r="161" spans="43:43">
+      <c r="AQ161" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="182" spans="33:33">
-      <c r="AG182" t="s">
+    <row r="162" spans="43:43">
+      <c r="AQ162" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="183" spans="33:33">
-      <c r="AG183" t="s">
+    <row r="163" spans="43:43">
+      <c r="AQ163" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="184" spans="33:33">
-      <c r="AG184" t="s">
+    <row r="164" spans="43:43">
+      <c r="AQ164" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="185" spans="33:33">
-      <c r="AG185" t="s">
+    <row r="165" spans="43:43">
+      <c r="AQ165" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="186" spans="33:33">
-      <c r="AG186" t="s">
+    <row r="166" spans="43:43">
+      <c r="AQ166" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="187" spans="33:33">
-      <c r="AG187" t="s">
+    <row r="167" spans="43:43">
+      <c r="AQ167" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="188" spans="33:33">
-      <c r="AG188" t="s">
+    <row r="168" spans="43:43">
+      <c r="AQ168" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="189" spans="33:33">
-      <c r="AG189" t="s">
+    <row r="169" spans="43:43">
+      <c r="AQ169" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="190" spans="33:33">
-      <c r="AG190" t="s">
+    <row r="170" spans="43:43">
+      <c r="AQ170" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="191" spans="33:33">
-      <c r="AG191" t="s">
+    <row r="171" spans="43:43">
+      <c r="AQ171" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="192" spans="33:33">
-      <c r="AG192" t="s">
+    <row r="172" spans="43:43">
+      <c r="AQ172" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="193" spans="33:33">
-      <c r="AG193" t="s">
+    <row r="173" spans="43:43">
+      <c r="AQ173" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="194" spans="33:33">
-      <c r="AG194" t="s">
+    <row r="174" spans="43:43">
+      <c r="AQ174" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="195" spans="33:33">
-      <c r="AG195" t="s">
+    <row r="175" spans="43:43">
+      <c r="AQ175" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="196" spans="33:33">
-      <c r="AG196" t="s">
+    <row r="176" spans="43:43">
+      <c r="AQ176" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="197" spans="33:33">
-      <c r="AG197" t="s">
+    <row r="177" spans="43:43">
+      <c r="AQ177" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="198" spans="33:33">
-      <c r="AG198" t="s">
+    <row r="178" spans="43:43">
+      <c r="AQ178" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="199" spans="33:33">
-      <c r="AG199" t="s">
+    <row r="179" spans="43:43">
+      <c r="AQ179" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="200" spans="33:33">
-      <c r="AG200" t="s">
+    <row r="180" spans="43:43">
+      <c r="AQ180" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="201" spans="33:33">
-      <c r="AG201" t="s">
+    <row r="181" spans="43:43">
+      <c r="AQ181" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="202" spans="33:33">
-      <c r="AG202" t="s">
+    <row r="182" spans="43:43">
+      <c r="AQ182" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="203" spans="33:33">
-      <c r="AG203" t="s">
+    <row r="183" spans="43:43">
+      <c r="AQ183" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="204" spans="33:33">
-      <c r="AG204" t="s">
+    <row r="184" spans="43:43">
+      <c r="AQ184" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="205" spans="33:33">
-      <c r="AG205" t="s">
+    <row r="185" spans="43:43">
+      <c r="AQ185" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="206" spans="33:33">
-      <c r="AG206" t="s">
+    <row r="186" spans="43:43">
+      <c r="AQ186" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="207" spans="33:33">
-      <c r="AG207" t="s">
+    <row r="187" spans="43:43">
+      <c r="AQ187" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="208" spans="33:33">
-      <c r="AG208" t="s">
+    <row r="188" spans="43:43">
+      <c r="AQ188" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="209" spans="33:33">
-      <c r="AG209" t="s">
+    <row r="189" spans="43:43">
+      <c r="AQ189" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="210" spans="33:33">
-      <c r="AG210" t="s">
+    <row r="190" spans="43:43">
+      <c r="AQ190" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="33:33">
-      <c r="AG211" t="s">
+    <row r="191" spans="43:43">
+      <c r="AQ191" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="212" spans="33:33">
-      <c r="AG212" t="s">
+    <row r="192" spans="43:43">
+      <c r="AQ192" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="213" spans="33:33">
-      <c r="AG213" t="s">
+    <row r="193" spans="43:43">
+      <c r="AQ193" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="214" spans="33:33">
-      <c r="AG214" t="s">
+    <row r="194" spans="43:43">
+      <c r="AQ194" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="215" spans="33:33">
-      <c r="AG215" t="s">
+    <row r="195" spans="43:43">
+      <c r="AQ195" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="216" spans="33:33">
-      <c r="AG216" t="s">
+    <row r="196" spans="43:43">
+      <c r="AQ196" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="217" spans="33:33">
-      <c r="AG217" t="s">
+    <row r="197" spans="43:43">
+      <c r="AQ197" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="218" spans="33:33">
-      <c r="AG218" t="s">
+    <row r="198" spans="43:43">
+      <c r="AQ198" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="219" spans="33:33">
-      <c r="AG219" t="s">
+    <row r="199" spans="43:43">
+      <c r="AQ199" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="220" spans="33:33">
-      <c r="AG220" t="s">
+    <row r="200" spans="43:43">
+      <c r="AQ200" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="221" spans="33:33">
-      <c r="AG221" t="s">
+    <row r="201" spans="43:43">
+      <c r="AQ201" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="222" spans="33:33">
-      <c r="AG222" t="s">
+    <row r="202" spans="43:43">
+      <c r="AQ202" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="223" spans="33:33">
-      <c r="AG223" t="s">
+    <row r="203" spans="43:43">
+      <c r="AQ203" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="224" spans="33:33">
-      <c r="AG224" t="s">
+    <row r="204" spans="43:43">
+      <c r="AQ204" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="225" spans="33:33">
-      <c r="AG225" t="s">
+    <row r="205" spans="43:43">
+      <c r="AQ205" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="226" spans="33:33">
-      <c r="AG226" t="s">
+    <row r="206" spans="43:43">
+      <c r="AQ206" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="227" spans="33:33">
-      <c r="AG227" t="s">
+    <row r="207" spans="43:43">
+      <c r="AQ207" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="228" spans="33:33">
-      <c r="AG228" t="s">
+    <row r="208" spans="43:43">
+      <c r="AQ208" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="229" spans="33:33">
-      <c r="AG229" t="s">
+    <row r="209" spans="43:43">
+      <c r="AQ209" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="230" spans="33:33">
-      <c r="AG230" t="s">
+    <row r="210" spans="43:43">
+      <c r="AQ210" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="231" spans="33:33">
-      <c r="AG231" t="s">
+    <row r="211" spans="43:43">
+      <c r="AQ211" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="232" spans="33:33">
-      <c r="AG232" t="s">
+    <row r="212" spans="43:43">
+      <c r="AQ212" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="233" spans="33:33">
-      <c r="AG233" t="s">
+    <row r="213" spans="43:43">
+      <c r="AQ213" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="234" spans="33:33">
-      <c r="AG234" t="s">
+    <row r="214" spans="43:43">
+      <c r="AQ214" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="235" spans="33:33">
-      <c r="AG235" t="s">
+    <row r="215" spans="43:43">
+      <c r="AQ215" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="236" spans="33:33">
-      <c r="AG236" t="s">
+    <row r="216" spans="43:43">
+      <c r="AQ216" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="237" spans="33:33">
-      <c r="AG237" t="s">
+    <row r="217" spans="43:43">
+      <c r="AQ217" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="238" spans="33:33">
-      <c r="AG238" t="s">
+    <row r="218" spans="43:43">
+      <c r="AQ218" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="239" spans="33:33">
-      <c r="AG239" t="s">
+    <row r="219" spans="43:43">
+      <c r="AQ219" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="240" spans="33:33">
-      <c r="AG240" t="s">
+    <row r="220" spans="43:43">
+      <c r="AQ220" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="241" spans="33:33">
-      <c r="AG241" t="s">
+    <row r="221" spans="43:43">
+      <c r="AQ221" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="242" spans="33:33">
-      <c r="AG242" t="s">
+    <row r="222" spans="43:43">
+      <c r="AQ222" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="243" spans="33:33">
-      <c r="AG243" t="s">
+    <row r="223" spans="43:43">
+      <c r="AQ223" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="244" spans="33:33">
-      <c r="AG244" t="s">
+    <row r="224" spans="43:43">
+      <c r="AQ224" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="245" spans="33:33">
-      <c r="AG245" t="s">
+    <row r="225" spans="43:43">
+      <c r="AQ225" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="246" spans="33:33">
-      <c r="AG246" t="s">
+    <row r="226" spans="43:43">
+      <c r="AQ226" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="247" spans="33:33">
-      <c r="AG247" t="s">
+    <row r="227" spans="43:43">
+      <c r="AQ227" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="248" spans="33:33">
-      <c r="AG248" t="s">
+    <row r="228" spans="43:43">
+      <c r="AQ228" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="249" spans="33:33">
-      <c r="AG249" t="s">
+    <row r="229" spans="43:43">
+      <c r="AQ229" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="250" spans="33:33">
-      <c r="AG250" t="s">
+    <row r="230" spans="43:43">
+      <c r="AQ230" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="251" spans="33:33">
-      <c r="AG251" t="s">
+    <row r="231" spans="43:43">
+      <c r="AQ231" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="252" spans="33:33">
-      <c r="AG252" t="s">
+    <row r="232" spans="43:43">
+      <c r="AQ232" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="253" spans="33:33">
-      <c r="AG253" t="s">
+    <row r="233" spans="43:43">
+      <c r="AQ233" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="254" spans="33:33">
-      <c r="AG254" t="s">
+    <row r="234" spans="43:43">
+      <c r="AQ234" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="255" spans="33:33">
-      <c r="AG255" t="s">
+    <row r="235" spans="43:43">
+      <c r="AQ235" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="256" spans="33:33">
-      <c r="AG256" t="s">
+    <row r="236" spans="43:43">
+      <c r="AQ236" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="257" spans="33:33">
-      <c r="AG257" t="s">
+    <row r="237" spans="43:43">
+      <c r="AQ237" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="258" spans="33:33">
-      <c r="AG258" t="s">
+    <row r="238" spans="43:43">
+      <c r="AQ238" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="259" spans="33:33">
-      <c r="AG259" t="s">
+    <row r="239" spans="43:43">
+      <c r="AQ239" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="260" spans="33:33">
-      <c r="AG260" t="s">
+    <row r="240" spans="43:43">
+      <c r="AQ240" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="261" spans="33:33">
-      <c r="AG261" t="s">
+    <row r="241" spans="43:43">
+      <c r="AQ241" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="262" spans="33:33">
-      <c r="AG262" t="s">
+    <row r="242" spans="43:43">
+      <c r="AQ242" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="263" spans="33:33">
-      <c r="AG263" t="s">
+    <row r="243" spans="43:43">
+      <c r="AQ243" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="264" spans="33:33">
-      <c r="AG264" t="s">
+    <row r="244" spans="43:43">
+      <c r="AQ244" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="265" spans="33:33">
-      <c r="AG265" t="s">
+    <row r="245" spans="43:43">
+      <c r="AQ245" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="266" spans="33:33">
-      <c r="AG266" t="s">
+    <row r="246" spans="43:43">
+      <c r="AQ246" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="267" spans="33:33">
-      <c r="AG267" t="s">
+    <row r="247" spans="43:43">
+      <c r="AQ247" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="268" spans="33:33">
-      <c r="AG268" t="s">
+    <row r="248" spans="43:43">
+      <c r="AQ248" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="269" spans="33:33">
-      <c r="AG269" t="s">
+    <row r="249" spans="43:43">
+      <c r="AQ249" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="270" spans="33:33">
-      <c r="AG270" t="s">
+    <row r="250" spans="43:43">
+      <c r="AQ250" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="33:33">
-      <c r="AG271" t="s">
+    <row r="251" spans="43:43">
+      <c r="AQ251" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="272" spans="33:33">
-      <c r="AG272" t="s">
+    <row r="252" spans="43:43">
+      <c r="AQ252" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="273" spans="33:33">
-      <c r="AG273" t="s">
+    <row r="253" spans="43:43">
+      <c r="AQ253" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="274" spans="33:33">
-      <c r="AG274" t="s">
+    <row r="254" spans="43:43">
+      <c r="AQ254" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="275" spans="33:33">
-      <c r="AG275" t="s">
+    <row r="255" spans="43:43">
+      <c r="AQ255" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="276" spans="33:33">
-      <c r="AG276" t="s">
+    <row r="256" spans="43:43">
+      <c r="AQ256" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="277" spans="33:33">
-      <c r="AG277" t="s">
+    <row r="257" spans="43:43">
+      <c r="AQ257" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="278" spans="33:33">
-      <c r="AG278" t="s">
+    <row r="258" spans="43:43">
+      <c r="AQ258" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="279" spans="33:33">
-      <c r="AG279" t="s">
+    <row r="259" spans="43:43">
+      <c r="AQ259" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="280" spans="33:33">
-      <c r="AG280" t="s">
+    <row r="260" spans="43:43">
+      <c r="AQ260" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="281" spans="33:33">
-      <c r="AG281" t="s">
+    <row r="261" spans="43:43">
+      <c r="AQ261" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="282" spans="33:33">
-      <c r="AG282" t="s">
+    <row r="262" spans="43:43">
+      <c r="AQ262" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="283" spans="33:33">
-      <c r="AG283" t="s">
+    <row r="263" spans="43:43">
+      <c r="AQ263" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="284" spans="33:33">
-      <c r="AG284" t="s">
+    <row r="264" spans="43:43">
+      <c r="AQ264" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="285" spans="33:33">
-      <c r="AG285" t="s">
+    <row r="265" spans="43:43">
+      <c r="AQ265" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="286" spans="33:33">
-      <c r="AG286" t="s">
+    <row r="266" spans="43:43">
+      <c r="AQ266" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="287" spans="33:33">
-      <c r="AG287" t="s">
+    <row r="267" spans="43:43">
+      <c r="AQ267" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="288" spans="33:33">
-      <c r="AG288" t="s">
+    <row r="268" spans="43:43">
+      <c r="AQ268" t="s">
         <v>664</v>
+      </c>
+    </row>
+    <row r="269" spans="43:43">
+      <c r="AQ269" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="270" spans="43:43">
+      <c r="AQ270" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="271" spans="43:43">
+      <c r="AQ271" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="272" spans="43:43">
+      <c r="AQ272" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="273" spans="43:43">
+      <c r="AQ273" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="274" spans="43:43">
+      <c r="AQ274" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="275" spans="43:43">
+      <c r="AQ275" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="276" spans="43:43">
+      <c r="AQ276" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="277" spans="43:43">
+      <c r="AQ277" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="278" spans="43:43">
+      <c r="AQ278" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="279" spans="43:43">
+      <c r="AQ279" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="280" spans="43:43">
+      <c r="AQ280" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="281" spans="43:43">
+      <c r="AQ281" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="282" spans="43:43">
+      <c r="AQ282" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="283" spans="43:43">
+      <c r="AQ283" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="284" spans="43:43">
+      <c r="AQ284" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="285" spans="43:43">
+      <c r="AQ285" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="286" spans="43:43">
+      <c r="AQ286" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="287" spans="43:43">
+      <c r="AQ287" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="288" spans="43:43">
+      <c r="AQ288" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="289" spans="43:43">
+      <c r="AQ289" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -23,7 +23,7 @@
     <definedName name="hostoccupation">'cv_sample'!$BH$1:$BH$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BL$1:$BL$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="893">
   <si>
     <t>alias</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3258,7 +3261,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3302,7 +3305,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3329,7 +3332,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4041,6 +4044,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4065,27 +4073,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4108,122 +4116,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4250,642 +4258,642 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -4947,364 +4955,364 @@
   <sheetData>
     <row r="1" spans="5:70">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AA1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AQ1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AS1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BA1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BH1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BL1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BR1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="5:70">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AQ2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AS2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BA2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BH2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BL2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BR2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="3" spans="5:70">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AQ3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="BA3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BL3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BR3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="5:70">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AQ4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BA4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BL4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="5:70">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BA5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH5" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BL5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="5:70">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AQ6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BA6" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH6" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BL6" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="5:70">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BA7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BL7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="5:70">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AQ8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BA8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BL8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="5:70">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AQ9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BA9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH9" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BL9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="5:70">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BA10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BL10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="5:70">
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BA11" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BL11" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="5:70">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BA12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BH12" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BL12" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13" spans="5:70">
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BA13" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BH13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BL13" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="5:70">
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BA14" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BH14" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BL14" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="5:70">
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BA15" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BH15" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BL15" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="5:70">
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA16" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BH16" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BL16" t="s">
         <v>116</v>
@@ -5312,1526 +5320,1526 @@
     </row>
     <row r="17" spans="5:64">
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BA17" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BH17" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BL17" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="5:64">
       <c r="E18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BA18" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH18" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="5:64">
       <c r="E19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BA19" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH19" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="5:64">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BA20" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH20" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" spans="5:64">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BA21" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH21" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="5:64">
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BA22" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BH22" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="23" spans="5:64">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ23" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BH23" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="5:64">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BH24" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="5:64">
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ25" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BH25" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="5:64">
       <c r="E26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ26" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BH26" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="5:64">
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BH27" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="5:64">
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BH28" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="29" spans="5:64">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ29" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="BH29" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="30" spans="5:64">
       <c r="E30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ30" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="BH30" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="31" spans="5:64">
       <c r="AQ31" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BH31" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="32" spans="5:64">
       <c r="AQ32" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BH32" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="43:60">
       <c r="AQ33" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BH33" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="34" spans="43:60">
       <c r="AQ34" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BH34" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="35" spans="43:60">
       <c r="AQ35" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BH35" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="36" spans="43:60">
       <c r="AQ36" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BH36" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="37" spans="43:60">
       <c r="AQ37" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BH37" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="38" spans="43:60">
       <c r="AQ38" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BH38" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="39" spans="43:60">
       <c r="AQ39" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BH39" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="40" spans="43:60">
       <c r="AQ40" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BH40" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="43:60">
       <c r="AQ41" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BH41" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="42" spans="43:60">
       <c r="AQ42" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BH42" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="43:60">
       <c r="AQ43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BH43" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="44" spans="43:60">
       <c r="AQ44" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BH44" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" spans="43:60">
       <c r="AQ45" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BH45" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="46" spans="43:60">
       <c r="AQ46" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BH46" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="47" spans="43:60">
       <c r="AQ47" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BH47" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="43:60">
       <c r="AQ48" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BH48" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="49" spans="43:43">
       <c r="AQ49" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="43:43">
       <c r="AQ50" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="43:43">
       <c r="AQ51" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="43:43">
       <c r="AQ52" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="43:43">
       <c r="AQ53" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="43:43">
       <c r="AQ54" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="43:43">
       <c r="AQ55" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="43:43">
       <c r="AQ56" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="43:43">
       <c r="AQ57" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="43:43">
       <c r="AQ58" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="43:43">
       <c r="AQ59" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="43:43">
       <c r="AQ60" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="43:43">
       <c r="AQ61" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="43:43">
       <c r="AQ62" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="43:43">
       <c r="AQ63" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="43:43">
       <c r="AQ64" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="43:43">
       <c r="AQ65" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" spans="43:43">
       <c r="AQ66" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="43:43">
       <c r="AQ67" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="43:43">
       <c r="AQ68" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="43:43">
       <c r="AQ69" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="43:43">
       <c r="AQ70" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="43:43">
       <c r="AQ71" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="43:43">
       <c r="AQ72" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="43:43">
       <c r="AQ73" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="74" spans="43:43">
       <c r="AQ74" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="43:43">
       <c r="AQ75" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="43:43">
       <c r="AQ76" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="43:43">
       <c r="AQ77" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="43:43">
       <c r="AQ78" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="43:43">
       <c r="AQ79" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="43:43">
       <c r="AQ80" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="43:43">
       <c r="AQ81" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="43:43">
       <c r="AQ82" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="43:43">
       <c r="AQ83" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="43:43">
       <c r="AQ84" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="43:43">
       <c r="AQ85" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="43:43">
       <c r="AQ86" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87" spans="43:43">
       <c r="AQ87" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="43:43">
       <c r="AQ88" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="43:43">
       <c r="AQ89" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90" spans="43:43">
       <c r="AQ90" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91" spans="43:43">
       <c r="AQ91" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="43:43">
       <c r="AQ92" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="43:43">
       <c r="AQ93" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="43:43">
       <c r="AQ94" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="43:43">
       <c r="AQ95" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96" spans="43:43">
       <c r="AQ96" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="43:43">
       <c r="AQ97" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="43:43">
       <c r="AQ98" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="99" spans="43:43">
       <c r="AQ99" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="43:43">
       <c r="AQ100" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="43:43">
       <c r="AQ101" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="43:43">
       <c r="AQ102" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="43:43">
       <c r="AQ103" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="43:43">
       <c r="AQ104" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" spans="43:43">
       <c r="AQ105" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="43:43">
       <c r="AQ106" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="43:43">
       <c r="AQ107" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="108" spans="43:43">
       <c r="AQ108" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="43:43">
       <c r="AQ109" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="110" spans="43:43">
       <c r="AQ110" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="111" spans="43:43">
       <c r="AQ111" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="112" spans="43:43">
       <c r="AQ112" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="113" spans="43:43">
       <c r="AQ113" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="114" spans="43:43">
       <c r="AQ114" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="115" spans="43:43">
       <c r="AQ115" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="116" spans="43:43">
       <c r="AQ116" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="117" spans="43:43">
       <c r="AQ117" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="118" spans="43:43">
       <c r="AQ118" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="119" spans="43:43">
       <c r="AQ119" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="120" spans="43:43">
       <c r="AQ120" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121" spans="43:43">
       <c r="AQ121" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="43:43">
       <c r="AQ122" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123" spans="43:43">
       <c r="AQ123" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="124" spans="43:43">
       <c r="AQ124" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="43:43">
       <c r="AQ125" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" spans="43:43">
       <c r="AQ126" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="127" spans="43:43">
       <c r="AQ127" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="43:43">
       <c r="AQ128" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="129" spans="43:43">
       <c r="AQ129" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" spans="43:43">
       <c r="AQ130" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="43:43">
       <c r="AQ131" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="43:43">
       <c r="AQ132" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="43:43">
       <c r="AQ133" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="134" spans="43:43">
       <c r="AQ134" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="135" spans="43:43">
       <c r="AQ135" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="43:43">
       <c r="AQ136" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="137" spans="43:43">
       <c r="AQ137" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="43:43">
       <c r="AQ138" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="139" spans="43:43">
       <c r="AQ139" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="140" spans="43:43">
       <c r="AQ140" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="141" spans="43:43">
       <c r="AQ141" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="142" spans="43:43">
       <c r="AQ142" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="43:43">
       <c r="AQ143" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="144" spans="43:43">
       <c r="AQ144" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="145" spans="43:43">
       <c r="AQ145" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="146" spans="43:43">
       <c r="AQ146" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="147" spans="43:43">
       <c r="AQ147" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="148" spans="43:43">
       <c r="AQ148" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="149" spans="43:43">
       <c r="AQ149" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="150" spans="43:43">
       <c r="AQ150" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="151" spans="43:43">
       <c r="AQ151" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="152" spans="43:43">
       <c r="AQ152" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="153" spans="43:43">
       <c r="AQ153" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="43:43">
       <c r="AQ154" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="155" spans="43:43">
       <c r="AQ155" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="156" spans="43:43">
       <c r="AQ156" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="43:43">
       <c r="AQ157" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="158" spans="43:43">
       <c r="AQ158" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="159" spans="43:43">
       <c r="AQ159" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="160" spans="43:43">
       <c r="AQ160" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="43:43">
       <c r="AQ161" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="162" spans="43:43">
       <c r="AQ162" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="163" spans="43:43">
       <c r="AQ163" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="164" spans="43:43">
       <c r="AQ164" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="165" spans="43:43">
       <c r="AQ165" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="166" spans="43:43">
       <c r="AQ166" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="167" spans="43:43">
       <c r="AQ167" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="168" spans="43:43">
       <c r="AQ168" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="169" spans="43:43">
       <c r="AQ169" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="43:43">
       <c r="AQ170" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="43:43">
       <c r="AQ171" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="172" spans="43:43">
       <c r="AQ172" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="43:43">
       <c r="AQ173" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="43:43">
       <c r="AQ174" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="43:43">
       <c r="AQ175" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="43:43">
       <c r="AQ176" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="177" spans="43:43">
       <c r="AQ177" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="178" spans="43:43">
       <c r="AQ178" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="180" spans="43:43">
       <c r="AQ180" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="182" spans="43:43">
       <c r="AQ182" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="43:43">
       <c r="AQ183" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="43:43">
       <c r="AQ185" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="188" spans="43:43">
       <c r="AQ188" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="190" spans="43:43">
       <c r="AQ190" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="43:43">
       <c r="AQ192" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="194" spans="43:43">
       <c r="AQ194" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="196" spans="43:43">
       <c r="AQ196" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="198" spans="43:43">
       <c r="AQ198" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="200" spans="43:43">
       <c r="AQ200" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="202" spans="43:43">
       <c r="AQ202" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="204" spans="43:43">
       <c r="AQ204" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="206" spans="43:43">
       <c r="AQ206" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="208" spans="43:43">
       <c r="AQ208" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="210" spans="43:43">
       <c r="AQ210" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="212" spans="43:43">
       <c r="AQ212" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="214" spans="43:43">
       <c r="AQ214" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="216" spans="43:43">
       <c r="AQ216" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="218" spans="43:43">
       <c r="AQ218" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="219" spans="43:43">
       <c r="AQ219" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="220" spans="43:43">
       <c r="AQ220" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="221" spans="43:43">
       <c r="AQ221" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="222" spans="43:43">
       <c r="AQ222" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="223" spans="43:43">
       <c r="AQ223" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="224" spans="43:43">
       <c r="AQ224" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="225" spans="43:43">
       <c r="AQ225" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="226" spans="43:43">
       <c r="AQ226" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="227" spans="43:43">
       <c r="AQ227" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="228" spans="43:43">
       <c r="AQ228" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="229" spans="43:43">
       <c r="AQ229" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="230" spans="43:43">
       <c r="AQ230" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="231" spans="43:43">
       <c r="AQ231" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="232" spans="43:43">
       <c r="AQ232" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="233" spans="43:43">
       <c r="AQ233" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="234" spans="43:43">
       <c r="AQ234" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="235" spans="43:43">
       <c r="AQ235" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="236" spans="43:43">
       <c r="AQ236" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="237" spans="43:43">
       <c r="AQ237" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="238" spans="43:43">
       <c r="AQ238" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="239" spans="43:43">
       <c r="AQ239" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="240" spans="43:43">
       <c r="AQ240" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="241" spans="43:43">
       <c r="AQ241" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="242" spans="43:43">
       <c r="AQ242" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="243" spans="43:43">
       <c r="AQ243" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="244" spans="43:43">
       <c r="AQ244" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="245" spans="43:43">
       <c r="AQ245" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="246" spans="43:43">
       <c r="AQ246" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="247" spans="43:43">
       <c r="AQ247" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="248" spans="43:43">
       <c r="AQ248" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="249" spans="43:43">
       <c r="AQ249" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="250" spans="43:43">
       <c r="AQ250" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="251" spans="43:43">
       <c r="AQ251" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="252" spans="43:43">
       <c r="AQ252" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="253" spans="43:43">
       <c r="AQ253" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="254" spans="43:43">
       <c r="AQ254" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="255" spans="43:43">
       <c r="AQ255" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="256" spans="43:43">
       <c r="AQ256" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="257" spans="43:43">
       <c r="AQ257" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="258" spans="43:43">
       <c r="AQ258" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="259" spans="43:43">
       <c r="AQ259" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="260" spans="43:43">
       <c r="AQ260" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="261" spans="43:43">
       <c r="AQ261" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="262" spans="43:43">
       <c r="AQ262" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="263" spans="43:43">
       <c r="AQ263" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="264" spans="43:43">
       <c r="AQ264" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="265" spans="43:43">
       <c r="AQ265" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="266" spans="43:43">
       <c r="AQ266" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="267" spans="43:43">
       <c r="AQ267" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="268" spans="43:43">
       <c r="AQ268" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="269" spans="43:43">
       <c r="AQ269" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="270" spans="43:43">
       <c r="AQ270" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="271" spans="43:43">
       <c r="AQ271" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="272" spans="43:43">
       <c r="AQ272" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="273" spans="43:43">
       <c r="AQ273" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="274" spans="43:43">
       <c r="AQ274" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="275" spans="43:43">
       <c r="AQ275" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="276" spans="43:43">
       <c r="AQ276" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="277" spans="43:43">
       <c r="AQ277" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="278" spans="43:43">
       <c r="AQ278" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="279" spans="43:43">
       <c r="AQ279" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="280" spans="43:43">
       <c r="AQ280" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="281" spans="43:43">
       <c r="AQ281" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="282" spans="43:43">
       <c r="AQ282" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="283" spans="43:43">
       <c r="AQ283" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="284" spans="43:43">
       <c r="AQ284" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="285" spans="43:43">
       <c r="AQ285" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="286" spans="43:43">
       <c r="AQ286" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="287" spans="43:43">
       <c r="AQ287" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="288" spans="43:43">
       <c r="AQ288" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -23,7 +23,7 @@
     <definedName name="hostoccupation">'cv_sample'!$BH$1:$BH$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BL$1:$BL$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="894">
   <si>
     <t>alias</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3261,7 +3264,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3305,7 +3308,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3332,7 +3335,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4049,6 +4052,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4073,27 +4081,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4116,122 +4124,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4258,642 +4266,642 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -4955,364 +4963,364 @@
   <sheetData>
     <row r="1" spans="5:70">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AQ1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AS1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BA1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BH1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BL1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BR1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="5:70">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AQ2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AS2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BA2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BL2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BR2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="3" spans="5:70">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="R3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="BA3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH3" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BL3" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BR3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="5:70">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BA4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BL4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" spans="5:70">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AQ5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BA5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BL5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="5:70">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BA6" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH6" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BL6" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="5:70">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BA7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BL7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="5:70">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AQ8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BA8" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BL8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="5:70">
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BA9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BL9" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="5:70">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BA10" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BL10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="11" spans="5:70">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BA11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BH11" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BL11" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="5:70">
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BA12" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BH12" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BL12" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="13" spans="5:70">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ13" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BA13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BH13" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BL13" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="5:70">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BA14" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BH14" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BL14" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="5:70">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA15" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BH15" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BL15" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="5:70">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BA16" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BH16" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BL16" t="s">
         <v>116</v>
@@ -5320,1526 +5328,1526 @@
     </row>
     <row r="17" spans="5:64">
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BA17" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BL17" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="18" spans="5:64">
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BA18" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH18" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="5:64">
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BA19" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH19" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="20" spans="5:64">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BA20" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH20" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="21" spans="5:64">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BA21" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BH21" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="22" spans="5:64">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BA22" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BH22" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="5:64">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BH23" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="5:64">
       <c r="E24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BH24" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="5:64">
       <c r="E25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BH25" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="5:64">
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ26" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BH26" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="5:64">
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BH27" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="5:64">
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="BH28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="5:64">
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ29" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="BH29" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="5:64">
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BH30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="31" spans="5:64">
       <c r="AQ31" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BH31" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="5:64">
       <c r="AQ32" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BH32" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="43:60">
       <c r="AQ33" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BH33" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="43:60">
       <c r="AQ34" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BH34" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="43:60">
       <c r="AQ35" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BH35" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="43:60">
       <c r="AQ36" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BH36" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="43:60">
       <c r="AQ37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BH37" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="38" spans="43:60">
       <c r="AQ38" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BH38" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="39" spans="43:60">
       <c r="AQ39" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BH39" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="40" spans="43:60">
       <c r="AQ40" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BH40" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="43:60">
       <c r="AQ41" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BH41" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="42" spans="43:60">
       <c r="AQ42" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BH42" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="43" spans="43:60">
       <c r="AQ43" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BH43" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="43:60">
       <c r="AQ44" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BH44" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="45" spans="43:60">
       <c r="AQ45" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BH45" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="43:60">
       <c r="AQ46" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BH46" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="43:60">
       <c r="AQ47" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BH47" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="43:60">
       <c r="AQ48" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BH48" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="49" spans="43:43">
       <c r="AQ49" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="43:43">
       <c r="AQ50" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="43:43">
       <c r="AQ51" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="43:43">
       <c r="AQ52" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="43:43">
       <c r="AQ53" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="43:43">
       <c r="AQ54" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="43:43">
       <c r="AQ55" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="43:43">
       <c r="AQ56" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="43:43">
       <c r="AQ57" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="43:43">
       <c r="AQ58" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="43:43">
       <c r="AQ59" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="43:43">
       <c r="AQ60" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="43:43">
       <c r="AQ61" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="43:43">
       <c r="AQ62" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="43:43">
       <c r="AQ63" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="43:43">
       <c r="AQ64" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="43:43">
       <c r="AQ65" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="43:43">
       <c r="AQ66" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="43:43">
       <c r="AQ67" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="43:43">
       <c r="AQ68" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="43:43">
       <c r="AQ69" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="43:43">
       <c r="AQ70" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="43:43">
       <c r="AQ71" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="43:43">
       <c r="AQ72" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="43:43">
       <c r="AQ73" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="43:43">
       <c r="AQ74" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="43:43">
       <c r="AQ75" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="43:43">
       <c r="AQ76" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="43:43">
       <c r="AQ77" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="43:43">
       <c r="AQ78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="43:43">
       <c r="AQ79" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="43:43">
       <c r="AQ80" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="43:43">
       <c r="AQ81" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="43:43">
       <c r="AQ82" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="43:43">
       <c r="AQ83" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="43:43">
       <c r="AQ84" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="43:43">
       <c r="AQ85" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="43:43">
       <c r="AQ86" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="43:43">
       <c r="AQ87" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="43:43">
       <c r="AQ88" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="43:43">
       <c r="AQ89" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="43:43">
       <c r="AQ90" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="43:43">
       <c r="AQ91" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="43:43">
       <c r="AQ92" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="43:43">
       <c r="AQ93" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="43:43">
       <c r="AQ94" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="43:43">
       <c r="AQ95" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="43:43">
       <c r="AQ96" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="43:43">
       <c r="AQ97" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="43:43">
       <c r="AQ98" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="43:43">
       <c r="AQ99" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="43:43">
       <c r="AQ100" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="43:43">
       <c r="AQ101" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="43:43">
       <c r="AQ102" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="43:43">
       <c r="AQ103" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="43:43">
       <c r="AQ104" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="43:43">
       <c r="AQ105" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="43:43">
       <c r="AQ106" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="43:43">
       <c r="AQ107" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="43:43">
       <c r="AQ108" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="43:43">
       <c r="AQ109" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="43:43">
       <c r="AQ110" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="43:43">
       <c r="AQ111" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="43:43">
       <c r="AQ112" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="43:43">
       <c r="AQ113" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="43:43">
       <c r="AQ114" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="43:43">
       <c r="AQ115" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="43:43">
       <c r="AQ116" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="43:43">
       <c r="AQ117" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="43:43">
       <c r="AQ118" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="119" spans="43:43">
       <c r="AQ119" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="43:43">
       <c r="AQ120" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="43:43">
       <c r="AQ121" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="122" spans="43:43">
       <c r="AQ122" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="43:43">
       <c r="AQ123" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="43:43">
       <c r="AQ124" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="43:43">
       <c r="AQ125" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="126" spans="43:43">
       <c r="AQ126" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="43:43">
       <c r="AQ127" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="43:43">
       <c r="AQ128" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="129" spans="43:43">
       <c r="AQ129" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="130" spans="43:43">
       <c r="AQ130" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="131" spans="43:43">
       <c r="AQ131" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="43:43">
       <c r="AQ132" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" spans="43:43">
       <c r="AQ133" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="43:43">
       <c r="AQ134" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="43:43">
       <c r="AQ135" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="136" spans="43:43">
       <c r="AQ136" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="43:43">
       <c r="AQ137" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="138" spans="43:43">
       <c r="AQ138" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="43:43">
       <c r="AQ139" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="140" spans="43:43">
       <c r="AQ140" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="43:43">
       <c r="AQ141" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="43:43">
       <c r="AQ142" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="143" spans="43:43">
       <c r="AQ143" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="43:43">
       <c r="AQ144" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="145" spans="43:43">
       <c r="AQ145" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="146" spans="43:43">
       <c r="AQ146" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="147" spans="43:43">
       <c r="AQ147" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="148" spans="43:43">
       <c r="AQ148" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="43:43">
       <c r="AQ149" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="150" spans="43:43">
       <c r="AQ150" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="43:43">
       <c r="AQ151" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="152" spans="43:43">
       <c r="AQ152" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="43:43">
       <c r="AQ153" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="154" spans="43:43">
       <c r="AQ154" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="43:43">
       <c r="AQ155" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="43:43">
       <c r="AQ156" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="43:43">
       <c r="AQ157" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="43:43">
       <c r="AQ158" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="159" spans="43:43">
       <c r="AQ159" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="160" spans="43:43">
       <c r="AQ160" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="161" spans="43:43">
       <c r="AQ161" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="162" spans="43:43">
       <c r="AQ162" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="163" spans="43:43">
       <c r="AQ163" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="164" spans="43:43">
       <c r="AQ164" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="43:43">
       <c r="AQ165" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="166" spans="43:43">
       <c r="AQ166" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="167" spans="43:43">
       <c r="AQ167" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="168" spans="43:43">
       <c r="AQ168" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="43:43">
       <c r="AQ169" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="43:43">
       <c r="AQ170" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="43:43">
       <c r="AQ171" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="43:43">
       <c r="AQ172" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="173" spans="43:43">
       <c r="AQ173" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="43:43">
       <c r="AQ174" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="175" spans="43:43">
       <c r="AQ175" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="43:43">
       <c r="AQ176" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="177" spans="43:43">
       <c r="AQ177" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="178" spans="43:43">
       <c r="AQ178" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="180" spans="43:43">
       <c r="AQ180" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="43:43">
       <c r="AQ182" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" spans="43:43">
       <c r="AQ183" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="185" spans="43:43">
       <c r="AQ185" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="188" spans="43:43">
       <c r="AQ188" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="190" spans="43:43">
       <c r="AQ190" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="192" spans="43:43">
       <c r="AQ192" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="194" spans="43:43">
       <c r="AQ194" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" spans="43:43">
       <c r="AQ196" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="198" spans="43:43">
       <c r="AQ198" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="200" spans="43:43">
       <c r="AQ200" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="202" spans="43:43">
       <c r="AQ202" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="204" spans="43:43">
       <c r="AQ204" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="206" spans="43:43">
       <c r="AQ206" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="208" spans="43:43">
       <c r="AQ208" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="210" spans="43:43">
       <c r="AQ210" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="212" spans="43:43">
       <c r="AQ212" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214" spans="43:43">
       <c r="AQ214" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="43:43">
       <c r="AQ216" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="218" spans="43:43">
       <c r="AQ218" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="219" spans="43:43">
       <c r="AQ219" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="220" spans="43:43">
       <c r="AQ220" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="221" spans="43:43">
       <c r="AQ221" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="222" spans="43:43">
       <c r="AQ222" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="43:43">
       <c r="AQ223" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="224" spans="43:43">
       <c r="AQ224" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="225" spans="43:43">
       <c r="AQ225" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="226" spans="43:43">
       <c r="AQ226" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="227" spans="43:43">
       <c r="AQ227" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="228" spans="43:43">
       <c r="AQ228" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="229" spans="43:43">
       <c r="AQ229" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="230" spans="43:43">
       <c r="AQ230" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="231" spans="43:43">
       <c r="AQ231" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="232" spans="43:43">
       <c r="AQ232" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="233" spans="43:43">
       <c r="AQ233" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="234" spans="43:43">
       <c r="AQ234" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="235" spans="43:43">
       <c r="AQ235" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="236" spans="43:43">
       <c r="AQ236" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="237" spans="43:43">
       <c r="AQ237" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="238" spans="43:43">
       <c r="AQ238" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="239" spans="43:43">
       <c r="AQ239" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="240" spans="43:43">
       <c r="AQ240" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="241" spans="43:43">
       <c r="AQ241" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="242" spans="43:43">
       <c r="AQ242" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="243" spans="43:43">
       <c r="AQ243" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="244" spans="43:43">
       <c r="AQ244" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="245" spans="43:43">
       <c r="AQ245" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="246" spans="43:43">
       <c r="AQ246" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="247" spans="43:43">
       <c r="AQ247" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="248" spans="43:43">
       <c r="AQ248" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="249" spans="43:43">
       <c r="AQ249" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="250" spans="43:43">
       <c r="AQ250" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="251" spans="43:43">
       <c r="AQ251" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="252" spans="43:43">
       <c r="AQ252" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="253" spans="43:43">
       <c r="AQ253" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="254" spans="43:43">
       <c r="AQ254" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="255" spans="43:43">
       <c r="AQ255" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="256" spans="43:43">
       <c r="AQ256" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="257" spans="43:43">
       <c r="AQ257" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="258" spans="43:43">
       <c r="AQ258" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="259" spans="43:43">
       <c r="AQ259" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="260" spans="43:43">
       <c r="AQ260" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="261" spans="43:43">
       <c r="AQ261" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="262" spans="43:43">
       <c r="AQ262" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="263" spans="43:43">
       <c r="AQ263" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="264" spans="43:43">
       <c r="AQ264" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="265" spans="43:43">
       <c r="AQ265" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="266" spans="43:43">
       <c r="AQ266" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="267" spans="43:43">
       <c r="AQ267" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="268" spans="43:43">
       <c r="AQ268" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="269" spans="43:43">
       <c r="AQ269" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="270" spans="43:43">
       <c r="AQ270" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="271" spans="43:43">
       <c r="AQ271" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="43:43">
       <c r="AQ272" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="273" spans="43:43">
       <c r="AQ273" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="274" spans="43:43">
       <c r="AQ274" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="275" spans="43:43">
       <c r="AQ275" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="276" spans="43:43">
       <c r="AQ276" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="277" spans="43:43">
       <c r="AQ277" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="278" spans="43:43">
       <c r="AQ278" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="279" spans="43:43">
       <c r="AQ279" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="280" spans="43:43">
       <c r="AQ280" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="281" spans="43:43">
       <c r="AQ281" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="282" spans="43:43">
       <c r="AQ282" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="283" spans="43:43">
       <c r="AQ283" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="284" spans="43:43">
       <c r="AQ284" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="285" spans="43:43">
       <c r="AQ285" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="286" spans="43:43">
       <c r="AQ286" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="287" spans="43:43">
       <c r="AQ287" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="288" spans="43:43">
       <c r="AQ288" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -23,7 +23,7 @@
     <definedName name="hostoccupation">'cv_sample'!$BH$1:$BH$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BL$1:$BL$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="895">
   <si>
     <t>alias</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3264,7 +3267,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3308,7 +3311,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3338,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4057,6 +4060,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4081,27 +4089,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4124,122 +4132,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4266,642 +4274,642 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -4963,364 +4971,364 @@
   <sheetData>
     <row r="1" spans="5:70">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AQ1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AS1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BA1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BL1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BR1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="5:70">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AS2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BA2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BL2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BR2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="5:70">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="R3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="BA3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BL3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BR3" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="5:70">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AQ4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BA4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BL4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="5:70">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AQ5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BA5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BL5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="5:70">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AQ6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BA6" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BL6" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="5:70">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AQ7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BA7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BL7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="5:70">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BA8" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BL8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="5:70">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BA9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BL9" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="5:70">
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BA10" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BH10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BL10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="5:70">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BA11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BH11" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BL11" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="5:70">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BA12" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BH12" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BL12" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="5:70">
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BA13" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BH13" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BL13" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="5:70">
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA14" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BH14" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BL14" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="5:70">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BA15" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BH15" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BL15" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="5:70">
       <c r="E16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BA16" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH16" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BL16" t="s">
         <v>116</v>
@@ -5328,1526 +5336,1526 @@
     </row>
     <row r="17" spans="5:64">
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BA17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH17" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BL17" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="5:64">
       <c r="E18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BA18" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH18" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="5:64">
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BA19" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH19" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="5:64">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BA20" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BH20" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="5:64">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BA21" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BH21" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="5:64">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BA22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BH22" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="5:64">
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BH23" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="5:64">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BH24" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="5:64">
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ25" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BH25" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="5:64">
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BH26" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="5:64">
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="BH27" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" spans="5:64">
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="BH28" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="5:64">
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ29" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BH29" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="5:64">
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AQ30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BH30" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="5:64">
       <c r="AQ31" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BH31" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="32" spans="5:64">
       <c r="AQ32" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BH32" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="43:60">
       <c r="AQ33" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BH33" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="43:60">
       <c r="AQ34" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BH34" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="35" spans="43:60">
       <c r="AQ35" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BH35" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36" spans="43:60">
       <c r="AQ36" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BH36" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" spans="43:60">
       <c r="AQ37" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BH37" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="38" spans="43:60">
       <c r="AQ38" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BH38" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="39" spans="43:60">
       <c r="AQ39" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BH39" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="40" spans="43:60">
       <c r="AQ40" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BH40" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="43:60">
       <c r="AQ41" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BH41" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="43:60">
       <c r="AQ42" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BH42" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="43:60">
       <c r="AQ43" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BH43" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="44" spans="43:60">
       <c r="AQ44" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BH44" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="43:60">
       <c r="AQ45" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BH45" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="43:60">
       <c r="AQ46" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BH46" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="47" spans="43:60">
       <c r="AQ47" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BH47" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="48" spans="43:60">
       <c r="AQ48" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BH48" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="49" spans="43:43">
       <c r="AQ49" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="43:43">
       <c r="AQ50" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="43:43">
       <c r="AQ51" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="43:43">
       <c r="AQ52" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="43:43">
       <c r="AQ53" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" spans="43:43">
       <c r="AQ54" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="43:43">
       <c r="AQ55" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="43:43">
       <c r="AQ56" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="57" spans="43:43">
       <c r="AQ57" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="43:43">
       <c r="AQ58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="43:43">
       <c r="AQ59" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="43:43">
       <c r="AQ60" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="43:43">
       <c r="AQ61" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="43:43">
       <c r="AQ62" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="43:43">
       <c r="AQ63" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="43:43">
       <c r="AQ64" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="43:43">
       <c r="AQ65" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="43:43">
       <c r="AQ66" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="43:43">
       <c r="AQ67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="43:43">
       <c r="AQ68" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="43:43">
       <c r="AQ69" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="43:43">
       <c r="AQ70" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="43:43">
       <c r="AQ71" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="43:43">
       <c r="AQ72" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="43:43">
       <c r="AQ73" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="43:43">
       <c r="AQ74" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="43:43">
       <c r="AQ75" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="43:43">
       <c r="AQ76" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="43:43">
       <c r="AQ77" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="43:43">
       <c r="AQ78" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="43:43">
       <c r="AQ79" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="43:43">
       <c r="AQ80" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="43:43">
       <c r="AQ81" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="43:43">
       <c r="AQ82" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="43:43">
       <c r="AQ83" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="84" spans="43:43">
       <c r="AQ84" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="43:43">
       <c r="AQ85" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="43:43">
       <c r="AQ86" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="43:43">
       <c r="AQ87" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="43:43">
       <c r="AQ88" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="43:43">
       <c r="AQ89" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="43:43">
       <c r="AQ90" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="43:43">
       <c r="AQ91" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="43:43">
       <c r="AQ92" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="43:43">
       <c r="AQ93" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="94" spans="43:43">
       <c r="AQ94" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="43:43">
       <c r="AQ95" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="43:43">
       <c r="AQ96" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="43:43">
       <c r="AQ97" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="43:43">
       <c r="AQ98" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="43:43">
       <c r="AQ99" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="43:43">
       <c r="AQ100" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="43:43">
       <c r="AQ101" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="43:43">
       <c r="AQ102" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="43:43">
       <c r="AQ103" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="43:43">
       <c r="AQ104" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="105" spans="43:43">
       <c r="AQ105" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="43:43">
       <c r="AQ106" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" spans="43:43">
       <c r="AQ107" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108" spans="43:43">
       <c r="AQ108" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="43:43">
       <c r="AQ109" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="43:43">
       <c r="AQ110" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="111" spans="43:43">
       <c r="AQ111" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="112" spans="43:43">
       <c r="AQ112" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="113" spans="43:43">
       <c r="AQ113" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="114" spans="43:43">
       <c r="AQ114" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115" spans="43:43">
       <c r="AQ115" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116" spans="43:43">
       <c r="AQ116" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" spans="43:43">
       <c r="AQ117" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="43:43">
       <c r="AQ118" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" spans="43:43">
       <c r="AQ119" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="120" spans="43:43">
       <c r="AQ120" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" spans="43:43">
       <c r="AQ121" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" spans="43:43">
       <c r="AQ122" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="43:43">
       <c r="AQ123" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="43:43">
       <c r="AQ124" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="125" spans="43:43">
       <c r="AQ125" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="43:43">
       <c r="AQ126" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="127" spans="43:43">
       <c r="AQ127" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="43:43">
       <c r="AQ128" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="129" spans="43:43">
       <c r="AQ129" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="130" spans="43:43">
       <c r="AQ130" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="131" spans="43:43">
       <c r="AQ131" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="43:43">
       <c r="AQ132" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="133" spans="43:43">
       <c r="AQ133" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="43:43">
       <c r="AQ134" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="135" spans="43:43">
       <c r="AQ135" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="43:43">
       <c r="AQ136" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="137" spans="43:43">
       <c r="AQ137" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="43:43">
       <c r="AQ138" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="139" spans="43:43">
       <c r="AQ139" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="140" spans="43:43">
       <c r="AQ140" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="43:43">
       <c r="AQ141" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="142" spans="43:43">
       <c r="AQ142" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="143" spans="43:43">
       <c r="AQ143" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144" spans="43:43">
       <c r="AQ144" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" spans="43:43">
       <c r="AQ145" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="43:43">
       <c r="AQ146" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="43:43">
       <c r="AQ147" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="148" spans="43:43">
       <c r="AQ148" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" spans="43:43">
       <c r="AQ149" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="43:43">
       <c r="AQ150" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="151" spans="43:43">
       <c r="AQ151" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="43:43">
       <c r="AQ152" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="153" spans="43:43">
       <c r="AQ153" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="154" spans="43:43">
       <c r="AQ154" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="43:43">
       <c r="AQ155" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="156" spans="43:43">
       <c r="AQ156" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="157" spans="43:43">
       <c r="AQ157" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="158" spans="43:43">
       <c r="AQ158" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="159" spans="43:43">
       <c r="AQ159" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="160" spans="43:43">
       <c r="AQ160" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161" spans="43:43">
       <c r="AQ161" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="162" spans="43:43">
       <c r="AQ162" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="163" spans="43:43">
       <c r="AQ163" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="43:43">
       <c r="AQ164" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="43:43">
       <c r="AQ165" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="166" spans="43:43">
       <c r="AQ166" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="167" spans="43:43">
       <c r="AQ167" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="43:43">
       <c r="AQ168" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="169" spans="43:43">
       <c r="AQ169" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="43:43">
       <c r="AQ170" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="43:43">
       <c r="AQ171" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="172" spans="43:43">
       <c r="AQ172" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="43:43">
       <c r="AQ173" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="174" spans="43:43">
       <c r="AQ174" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="43:43">
       <c r="AQ175" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="176" spans="43:43">
       <c r="AQ176" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="177" spans="43:43">
       <c r="AQ177" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="178" spans="43:43">
       <c r="AQ178" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="180" spans="43:43">
       <c r="AQ180" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182" spans="43:43">
       <c r="AQ182" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="43:43">
       <c r="AQ183" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="185" spans="43:43">
       <c r="AQ185" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" spans="43:43">
       <c r="AQ188" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="190" spans="43:43">
       <c r="AQ190" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="192" spans="43:43">
       <c r="AQ192" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="194" spans="43:43">
       <c r="AQ194" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" spans="43:43">
       <c r="AQ196" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="198" spans="43:43">
       <c r="AQ198" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="200" spans="43:43">
       <c r="AQ200" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="202" spans="43:43">
       <c r="AQ202" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="204" spans="43:43">
       <c r="AQ204" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="43:43">
       <c r="AQ206" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="208" spans="43:43">
       <c r="AQ208" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="210" spans="43:43">
       <c r="AQ210" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="212" spans="43:43">
       <c r="AQ212" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="214" spans="43:43">
       <c r="AQ214" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="216" spans="43:43">
       <c r="AQ216" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="218" spans="43:43">
       <c r="AQ218" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="43:43">
       <c r="AQ219" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="220" spans="43:43">
       <c r="AQ220" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="221" spans="43:43">
       <c r="AQ221" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="222" spans="43:43">
       <c r="AQ222" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="223" spans="43:43">
       <c r="AQ223" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="224" spans="43:43">
       <c r="AQ224" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="225" spans="43:43">
       <c r="AQ225" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="226" spans="43:43">
       <c r="AQ226" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="227" spans="43:43">
       <c r="AQ227" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="228" spans="43:43">
       <c r="AQ228" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="229" spans="43:43">
       <c r="AQ229" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="230" spans="43:43">
       <c r="AQ230" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="231" spans="43:43">
       <c r="AQ231" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="232" spans="43:43">
       <c r="AQ232" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="233" spans="43:43">
       <c r="AQ233" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="234" spans="43:43">
       <c r="AQ234" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="235" spans="43:43">
       <c r="AQ235" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="236" spans="43:43">
       <c r="AQ236" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="237" spans="43:43">
       <c r="AQ237" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="238" spans="43:43">
       <c r="AQ238" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="239" spans="43:43">
       <c r="AQ239" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="240" spans="43:43">
       <c r="AQ240" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="241" spans="43:43">
       <c r="AQ241" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="242" spans="43:43">
       <c r="AQ242" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="243" spans="43:43">
       <c r="AQ243" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="244" spans="43:43">
       <c r="AQ244" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="245" spans="43:43">
       <c r="AQ245" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="246" spans="43:43">
       <c r="AQ246" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="247" spans="43:43">
       <c r="AQ247" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="248" spans="43:43">
       <c r="AQ248" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="249" spans="43:43">
       <c r="AQ249" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="250" spans="43:43">
       <c r="AQ250" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="251" spans="43:43">
       <c r="AQ251" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" spans="43:43">
       <c r="AQ252" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="253" spans="43:43">
       <c r="AQ253" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="254" spans="43:43">
       <c r="AQ254" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="255" spans="43:43">
       <c r="AQ255" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="256" spans="43:43">
       <c r="AQ256" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="257" spans="43:43">
       <c r="AQ257" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="258" spans="43:43">
       <c r="AQ258" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="259" spans="43:43">
       <c r="AQ259" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="260" spans="43:43">
       <c r="AQ260" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="261" spans="43:43">
       <c r="AQ261" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="262" spans="43:43">
       <c r="AQ262" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="263" spans="43:43">
       <c r="AQ263" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="264" spans="43:43">
       <c r="AQ264" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="265" spans="43:43">
       <c r="AQ265" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="266" spans="43:43">
       <c r="AQ266" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="267" spans="43:43">
       <c r="AQ267" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="268" spans="43:43">
       <c r="AQ268" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="269" spans="43:43">
       <c r="AQ269" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="270" spans="43:43">
       <c r="AQ270" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="271" spans="43:43">
       <c r="AQ271" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="272" spans="43:43">
       <c r="AQ272" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="273" spans="43:43">
       <c r="AQ273" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="274" spans="43:43">
       <c r="AQ274" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="275" spans="43:43">
       <c r="AQ275" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="276" spans="43:43">
       <c r="AQ276" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="277" spans="43:43">
       <c r="AQ277" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="278" spans="43:43">
       <c r="AQ278" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="279" spans="43:43">
       <c r="AQ279" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="280" spans="43:43">
       <c r="AQ280" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="281" spans="43:43">
       <c r="AQ281" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="282" spans="43:43">
       <c r="AQ282" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="283" spans="43:43">
       <c r="AQ283" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="284" spans="43:43">
       <c r="AQ284" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="285" spans="43:43">
       <c r="AQ285" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="286" spans="43:43">
       <c r="AQ286" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="287" spans="43:43">
       <c r="AQ287" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="288" spans="43:43">
       <c r="AQ288" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -23,7 +23,7 @@
     <definedName name="hostoccupation">'cv_sample'!$BH$1:$BH$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BL$1:$BL$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="896">
   <si>
     <t>alias</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3267,7 +3270,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3311,7 +3314,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3338,7 +3341,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4065,6 +4068,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4089,27 +4097,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4132,122 +4140,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4274,642 +4282,642 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -4971,364 +4979,364 @@
   <sheetData>
     <row r="1" spans="5:70">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AS1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="BA1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BL1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BR1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="5:70">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AS2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BA2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BL2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BR2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="5:70">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="R3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AQ3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="BA3" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BL3" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BR3" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="5:70">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AQ4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BA4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BL4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="5:70">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AQ5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BA5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH5" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BL5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="5:70">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AQ6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BA6" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH6" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BL6" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="5:70">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AQ7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BA7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BH7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BL7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="5:70">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AQ8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BA8" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BH8" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="BL8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="5:70">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AQ9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BA9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BH9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="BL9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="5:70">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AQ10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BA10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BH10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BL10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="5:70">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AQ11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="BA11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BH11" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BL11" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="5:70">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AQ12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="BA12" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BH12" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BL12" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="5:70">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AQ13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="BA13" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BH13" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="BL13" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="5:70">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BA14" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BH14" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="BL14" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="5:70">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AQ15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="BA15" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BH15" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="BL15" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="5:70">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="BA16" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BH16" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BL16" t="s">
         <v>116</v>
@@ -5336,1526 +5344,1526 @@
     </row>
     <row r="17" spans="5:64">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="BA17" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BH17" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BL17" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="5:64">
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AQ18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="BA18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BH18" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="5:64">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ19" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="BA19" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BH19" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="5:64">
       <c r="E20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AQ20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="BA20" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BH20" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="5:64">
       <c r="E21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AQ21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="BA21" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BH21" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="5:64">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AQ22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="BA22" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BH22" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="5:64">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AQ23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="BH23" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24" spans="5:64">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="BH24" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="5:64">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AQ25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BH25" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="5:64">
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="BH26" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="5:64">
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="BH27" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="5:64">
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BH28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29" spans="5:64">
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AQ29" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BH29" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="5:64">
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AQ30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="BH30" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="5:64">
       <c r="AQ31" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BH31" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="5:64">
       <c r="AQ32" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="BH32" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33" spans="43:60">
       <c r="AQ33" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BH33" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" spans="43:60">
       <c r="AQ34" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="BH34" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="43:60">
       <c r="AQ35" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BH35" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="43:60">
       <c r="AQ36" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="BH36" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="43:60">
       <c r="AQ37" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BH37" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="43:60">
       <c r="AQ38" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BH38" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="43:60">
       <c r="AQ39" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BH39" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="40" spans="43:60">
       <c r="AQ40" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BH40" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="43:60">
       <c r="AQ41" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BH41" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="42" spans="43:60">
       <c r="AQ42" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BH42" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="43" spans="43:60">
       <c r="AQ43" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BH43" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="43:60">
       <c r="AQ44" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="BH44" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="45" spans="43:60">
       <c r="AQ45" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="BH45" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46" spans="43:60">
       <c r="AQ46" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="BH46" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47" spans="43:60">
       <c r="AQ47" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="BH47" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="48" spans="43:60">
       <c r="AQ48" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="BH48" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="43:43">
       <c r="AQ49" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="43:43">
       <c r="AQ50" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="43:43">
       <c r="AQ51" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="43:43">
       <c r="AQ52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="43:43">
       <c r="AQ53" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="43:43">
       <c r="AQ54" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="43:43">
       <c r="AQ55" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="43:43">
       <c r="AQ56" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="43:43">
       <c r="AQ57" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="43:43">
       <c r="AQ58" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="43:43">
       <c r="AQ59" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="43:43">
       <c r="AQ60" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="43:43">
       <c r="AQ61" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="43:43">
       <c r="AQ62" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="43:43">
       <c r="AQ63" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="43:43">
       <c r="AQ64" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="43:43">
       <c r="AQ65" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="43:43">
       <c r="AQ66" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="43:43">
       <c r="AQ67" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="43:43">
       <c r="AQ68" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="43:43">
       <c r="AQ69" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="43:43">
       <c r="AQ70" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="43:43">
       <c r="AQ71" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="43:43">
       <c r="AQ72" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="43:43">
       <c r="AQ73" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="43:43">
       <c r="AQ74" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="43:43">
       <c r="AQ75" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="43:43">
       <c r="AQ76" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="43:43">
       <c r="AQ77" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="43:43">
       <c r="AQ78" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="43:43">
       <c r="AQ79" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="43:43">
       <c r="AQ80" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="43:43">
       <c r="AQ81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="43:43">
       <c r="AQ82" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="43:43">
       <c r="AQ83" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="43:43">
       <c r="AQ84" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="43:43">
       <c r="AQ85" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="43:43">
       <c r="AQ86" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="43:43">
       <c r="AQ87" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="43:43">
       <c r="AQ88" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="43:43">
       <c r="AQ89" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="43:43">
       <c r="AQ90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="43:43">
       <c r="AQ91" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="43:43">
       <c r="AQ92" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="43:43">
       <c r="AQ93" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="43:43">
       <c r="AQ94" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="43:43">
       <c r="AQ95" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="43:43">
       <c r="AQ96" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="43:43">
       <c r="AQ97" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="43:43">
       <c r="AQ98" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="43:43">
       <c r="AQ99" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="43:43">
       <c r="AQ100" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="43:43">
       <c r="AQ101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="43:43">
       <c r="AQ102" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="43:43">
       <c r="AQ103" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="43:43">
       <c r="AQ104" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="43:43">
       <c r="AQ105" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="43:43">
       <c r="AQ106" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="43:43">
       <c r="AQ107" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="43:43">
       <c r="AQ108" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" spans="43:43">
       <c r="AQ109" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110" spans="43:43">
       <c r="AQ110" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111" spans="43:43">
       <c r="AQ111" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="112" spans="43:43">
       <c r="AQ112" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="43:43">
       <c r="AQ113" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114" spans="43:43">
       <c r="AQ114" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115" spans="43:43">
       <c r="AQ115" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="43:43">
       <c r="AQ116" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="43:43">
       <c r="AQ117" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="43:43">
       <c r="AQ118" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="43:43">
       <c r="AQ119" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120" spans="43:43">
       <c r="AQ120" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="43:43">
       <c r="AQ121" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="43:43">
       <c r="AQ122" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="43:43">
       <c r="AQ123" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" spans="43:43">
       <c r="AQ124" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="43:43">
       <c r="AQ125" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="43:43">
       <c r="AQ126" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="43:43">
       <c r="AQ127" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="43:43">
       <c r="AQ128" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="43:43">
       <c r="AQ129" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="43:43">
       <c r="AQ130" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="131" spans="43:43">
       <c r="AQ131" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="132" spans="43:43">
       <c r="AQ132" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="43:43">
       <c r="AQ133" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="134" spans="43:43">
       <c r="AQ134" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" spans="43:43">
       <c r="AQ135" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="43:43">
       <c r="AQ136" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="43:43">
       <c r="AQ137" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="138" spans="43:43">
       <c r="AQ138" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139" spans="43:43">
       <c r="AQ139" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="140" spans="43:43">
       <c r="AQ140" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141" spans="43:43">
       <c r="AQ141" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="43:43">
       <c r="AQ142" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="143" spans="43:43">
       <c r="AQ143" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="43:43">
       <c r="AQ144" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="43:43">
       <c r="AQ145" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="43:43">
       <c r="AQ146" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="147" spans="43:43">
       <c r="AQ147" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="148" spans="43:43">
       <c r="AQ148" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="43:43">
       <c r="AQ149" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="150" spans="43:43">
       <c r="AQ150" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151" spans="43:43">
       <c r="AQ151" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="152" spans="43:43">
       <c r="AQ152" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="153" spans="43:43">
       <c r="AQ153" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="43:43">
       <c r="AQ154" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="155" spans="43:43">
       <c r="AQ155" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="156" spans="43:43">
       <c r="AQ156" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" spans="43:43">
       <c r="AQ157" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="158" spans="43:43">
       <c r="AQ158" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="159" spans="43:43">
       <c r="AQ159" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="160" spans="43:43">
       <c r="AQ160" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161" spans="43:43">
       <c r="AQ161" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="162" spans="43:43">
       <c r="AQ162" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="43:43">
       <c r="AQ163" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="164" spans="43:43">
       <c r="AQ164" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="43:43">
       <c r="AQ165" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166" spans="43:43">
       <c r="AQ166" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="167" spans="43:43">
       <c r="AQ167" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="43:43">
       <c r="AQ168" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="169" spans="43:43">
       <c r="AQ169" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="43:43">
       <c r="AQ170" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" spans="43:43">
       <c r="AQ171" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="43:43">
       <c r="AQ172" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="173" spans="43:43">
       <c r="AQ173" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="43:43">
       <c r="AQ174" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="175" spans="43:43">
       <c r="AQ175" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="176" spans="43:43">
       <c r="AQ176" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="177" spans="43:43">
       <c r="AQ177" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="178" spans="43:43">
       <c r="AQ178" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179" spans="43:43">
       <c r="AQ179" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" spans="43:43">
       <c r="AQ180" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="181" spans="43:43">
       <c r="AQ181" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="43:43">
       <c r="AQ182" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="183" spans="43:43">
       <c r="AQ183" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="184" spans="43:43">
       <c r="AQ184" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="185" spans="43:43">
       <c r="AQ185" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="186" spans="43:43">
       <c r="AQ186" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="187" spans="43:43">
       <c r="AQ187" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="188" spans="43:43">
       <c r="AQ188" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="189" spans="43:43">
       <c r="AQ189" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="190" spans="43:43">
       <c r="AQ190" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="191" spans="43:43">
       <c r="AQ191" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="192" spans="43:43">
       <c r="AQ192" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="193" spans="43:43">
       <c r="AQ193" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="194" spans="43:43">
       <c r="AQ194" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="195" spans="43:43">
       <c r="AQ195" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="196" spans="43:43">
       <c r="AQ196" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="197" spans="43:43">
       <c r="AQ197" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" spans="43:43">
       <c r="AQ198" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="199" spans="43:43">
       <c r="AQ199" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="200" spans="43:43">
       <c r="AQ200" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201" spans="43:43">
       <c r="AQ201" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="202" spans="43:43">
       <c r="AQ202" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="203" spans="43:43">
       <c r="AQ203" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="204" spans="43:43">
       <c r="AQ204" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="43:43">
       <c r="AQ205" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="206" spans="43:43">
       <c r="AQ206" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="43:43">
       <c r="AQ207" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="208" spans="43:43">
       <c r="AQ208" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="209" spans="43:43">
       <c r="AQ209" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="210" spans="43:43">
       <c r="AQ210" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="211" spans="43:43">
       <c r="AQ211" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" spans="43:43">
       <c r="AQ212" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="213" spans="43:43">
       <c r="AQ213" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="43:43">
       <c r="AQ214" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="215" spans="43:43">
       <c r="AQ215" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="216" spans="43:43">
       <c r="AQ216" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="217" spans="43:43">
       <c r="AQ217" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="218" spans="43:43">
       <c r="AQ218" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="219" spans="43:43">
       <c r="AQ219" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="220" spans="43:43">
       <c r="AQ220" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="221" spans="43:43">
       <c r="AQ221" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="222" spans="43:43">
       <c r="AQ222" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="223" spans="43:43">
       <c r="AQ223" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="224" spans="43:43">
       <c r="AQ224" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="225" spans="43:43">
       <c r="AQ225" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="226" spans="43:43">
       <c r="AQ226" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="227" spans="43:43">
       <c r="AQ227" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="228" spans="43:43">
       <c r="AQ228" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="229" spans="43:43">
       <c r="AQ229" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="230" spans="43:43">
       <c r="AQ230" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="231" spans="43:43">
       <c r="AQ231" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="232" spans="43:43">
       <c r="AQ232" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="233" spans="43:43">
       <c r="AQ233" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="234" spans="43:43">
       <c r="AQ234" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="235" spans="43:43">
       <c r="AQ235" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="236" spans="43:43">
       <c r="AQ236" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="237" spans="43:43">
       <c r="AQ237" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="238" spans="43:43">
       <c r="AQ238" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="239" spans="43:43">
       <c r="AQ239" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="240" spans="43:43">
       <c r="AQ240" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="241" spans="43:43">
       <c r="AQ241" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="242" spans="43:43">
       <c r="AQ242" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="243" spans="43:43">
       <c r="AQ243" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="244" spans="43:43">
       <c r="AQ244" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="245" spans="43:43">
       <c r="AQ245" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="246" spans="43:43">
       <c r="AQ246" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="247" spans="43:43">
       <c r="AQ247" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="248" spans="43:43">
       <c r="AQ248" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="249" spans="43:43">
       <c r="AQ249" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="250" spans="43:43">
       <c r="AQ250" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="251" spans="43:43">
       <c r="AQ251" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="252" spans="43:43">
       <c r="AQ252" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="253" spans="43:43">
       <c r="AQ253" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="254" spans="43:43">
       <c r="AQ254" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="255" spans="43:43">
       <c r="AQ255" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="256" spans="43:43">
       <c r="AQ256" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="257" spans="43:43">
       <c r="AQ257" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="258" spans="43:43">
       <c r="AQ258" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="259" spans="43:43">
       <c r="AQ259" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="260" spans="43:43">
       <c r="AQ260" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="261" spans="43:43">
       <c r="AQ261" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="262" spans="43:43">
       <c r="AQ262" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="263" spans="43:43">
       <c r="AQ263" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="264" spans="43:43">
       <c r="AQ264" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="265" spans="43:43">
       <c r="AQ265" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="266" spans="43:43">
       <c r="AQ266" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="267" spans="43:43">
       <c r="AQ267" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="268" spans="43:43">
       <c r="AQ268" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="269" spans="43:43">
       <c r="AQ269" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="270" spans="43:43">
       <c r="AQ270" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="271" spans="43:43">
       <c r="AQ271" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="272" spans="43:43">
       <c r="AQ272" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="273" spans="43:43">
       <c r="AQ273" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="274" spans="43:43">
       <c r="AQ274" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="275" spans="43:43">
       <c r="AQ275" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="276" spans="43:43">
       <c r="AQ276" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="277" spans="43:43">
       <c r="AQ277" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="278" spans="43:43">
       <c r="AQ278" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="279" spans="43:43">
       <c r="AQ279" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="280" spans="43:43">
       <c r="AQ280" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="281" spans="43:43">
       <c r="AQ281" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="282" spans="43:43">
       <c r="AQ282" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="283" spans="43:43">
       <c r="AQ283" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="284" spans="43:43">
       <c r="AQ284" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="285" spans="43:43">
       <c r="AQ285" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="286" spans="43:43">
       <c r="AQ286" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="287" spans="43:43">
       <c r="AQ287" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="288" spans="43:43">
       <c r="AQ288" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -18,11 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
-    <definedName name="hostHIVstatus">'cv_sample'!$AS$1:$AS$2</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$294</definedName>
+    <definedName name="hosthivstatus">'cv_sample'!$AS$1:$AS$2</definedName>
     <definedName name="hostoccupation">'cv_sample'!$BH$1:$BH$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BL$1:$BL$17</definedName>
-    <definedName name="IHMCmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
+    <definedName name="ihmcmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="901">
   <si>
     <t>alias</t>
   </si>
@@ -946,7 +946,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -967,13 +967,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -1000,7 +1000,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1012,19 +1012,19 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>observed host symbionts</t>
+    <t>observed_host_symbionts</t>
   </si>
   <si>
     <t>(Optional) The taxonomic name of the organism(s) found living in mutualistic, commensalistic, or parasitic symbiosis with the specific host.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
@@ -1036,19 +1036,19 @@
     <t>clean catch</t>
   </si>
   <si>
-    <t>urine/collection method</t>
+    <t>urinecollection_method</t>
   </si>
   <si>
     <t>(Optional) Specification of urine collection method</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1060,7 +1060,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1072,7 +1072,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>medical history performed</t>
+    <t>medical_history_performed</t>
   </si>
   <si>
     <t>(Optional) Whether full medical history was collected</t>
@@ -1090,13 +1090,13 @@
     <t>No - other</t>
   </si>
   <si>
-    <t>study completion status</t>
+    <t>study_completion_status</t>
   </si>
   <si>
     <t>(Optional) Specification of study completion status, if no the reason should be specified</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1108,37 +1108,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1153,31 +1153,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1189,37 +1189,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1231,19 +1231,19 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1462,9 +1462,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1483,6 +1480,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1684,6 +1684,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1693,9 +1696,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1735,7 +1735,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1804,6 +1804,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1879,6 +1882,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1900,6 +1906,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1945,6 +1954,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1957,6 +1969,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1966,9 +1981,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1993,6 +2005,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2053,12 +2068,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2116,61 +2131,61 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>nose/mouth/teeth/throat disorder</t>
+    <t>nosemouthteeththroat_disorder</t>
   </si>
   <si>
     <t>(Optional) History of nose/mouth/teeth/throat disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, nose disease (https://disease-ontology.org/?id=doid:2825), mouth disease (https://disease-ontology.org/?id=doid:403), tooth disease (https://disease-ontology.org/?id=doid:1091), or upper respiratory tract disease (https://disease-ontology.org/?id=doid:974).</t>
   </si>
   <si>
-    <t>host HIV status</t>
+    <t>host_hiv_status</t>
   </si>
   <si>
     <t>(Optional) Hiv status of subject, if yes haart initiation status should also be indicated as [yes or no]</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>lung/pulmonary disorder</t>
+    <t>lungpulmonary_disorder</t>
   </si>
   <si>
     <t>(Optional) History of pulmonary disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, lung disease (https://disease-ontology.org/?id=doid:850).</t>
   </si>
   <si>
-    <t>lung/nose-throat disorder</t>
+    <t>lungnosethroat_disorder</t>
   </si>
   <si>
     <t>(Optional) History of nose-throat disorders; can include multiple disorders, the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, lung disease (https://disease-ontology.org/?id=doid:850), upper respiratory tract disease (https://disease-ontology.org/?id=doid:974).</t>
   </si>
   <si>
-    <t>blood/blood disorder</t>
+    <t>bloodblood_disorder</t>
   </si>
   <si>
     <t>(Optional) History of blood disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, hematopoietic system disease (https://disease-ontology.org/?id=doid:74).</t>
   </si>
   <si>
-    <t>urine/kidney disorder</t>
+    <t>urinekidney_disorder</t>
   </si>
   <si>
     <t>(Optional) History of kidney disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, kidney disease (https://disease-ontology.org/?id=doid:557).</t>
   </si>
   <si>
-    <t>urine/urogenital tract disorder</t>
+    <t>urineurogenital_tract_disorder</t>
   </si>
   <si>
     <t>(Optional) History of urogenital tract disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, urinary system disease (https://disease-ontology.org/?id=doid:18).</t>
   </si>
   <si>
-    <t>host subject id</t>
+    <t>host_subject_id</t>
   </si>
   <si>
     <t>(Optional) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
@@ -2242,37 +2257,37 @@
     <t>99=99=Other</t>
   </si>
   <si>
-    <t>IHMC medication code</t>
+    <t>ihmc_medication_code</t>
   </si>
   <si>
     <t>(Optional) Can include multiple medication codes</t>
   </si>
   <si>
-    <t>host age</t>
+    <t>host_age</t>
   </si>
   <si>
     <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
-    <t>host body site</t>
+    <t>host_body_site</t>
   </si>
   <si>
     <t>(Optional) Name of body site where the sample was obtained from, such as a specific organ or tissue (tongue, lung etc...). for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
   </si>
   <si>
-    <t>drug usage</t>
+    <t>drug_usage</t>
   </si>
   <si>
     <t>(Optional) Any drug used by subject and the frequency of usage; can include multiple drugs used</t>
   </si>
   <si>
-    <t>host height</t>
-  </si>
-  <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
-  </si>
-  <si>
-    <t>host body-mass index</t>
+    <t>host_height</t>
+  </si>
+  <si>
+    <t>(Optional) The height of subject (Units: m)</t>
+  </si>
+  <si>
+    <t>host_bodymass_index</t>
   </si>
   <si>
     <t>(Optional) Body mass index, calculated as weight/(height)squared (Units: kg/m2)</t>
@@ -2428,25 +2443,25 @@
     <t>99=99 Unknown/Refused</t>
   </si>
   <si>
-    <t>host occupation</t>
+    <t>host_occupation</t>
   </si>
   <si>
     <t>(Optional) Most frequent job performed by subject</t>
   </si>
   <si>
-    <t>host total mass</t>
+    <t>host_total_mass</t>
   </si>
   <si>
     <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
-    <t>host phenotype</t>
+    <t>host_phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of host. for phenotypic quality ontology (pato) (v 2013-10-28) terms, please see http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>host body temperature</t>
+    <t>host_body_temperature</t>
   </si>
   <si>
     <t>(Optional) Core body temperature of the host when sample was collected (Units: ºC)</t>
@@ -2464,19 +2479,19 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host sex</t>
+    <t>host_sex</t>
   </si>
   <si>
     <t>(Optional) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>presence of pets, animals, or insects</t>
+    <t>presence_of_pets_animals_or_insects</t>
   </si>
   <si>
     <t>(Optional) The type and number of animals or insects present in the sampling space.</t>
@@ -2494,7 +2509,7 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2512,85 +2527,85 @@
     <t>(Optional) Specification of smoking status</t>
   </si>
   <si>
-    <t>major diet change in last six months</t>
+    <t>major_diet_change_in_last_six_months</t>
   </si>
   <si>
     <t>(Optional) Specification of major diet changes in the last six months, if yes the change should be specified</t>
   </si>
   <si>
-    <t>weight loss in last three months</t>
+    <t>weight_loss_in_last_three_months</t>
   </si>
   <si>
     <t>(Optional) Specification of weight loss in the last three months, if yes should be further specified to include amount of weight loss (Units: kg)</t>
   </si>
   <si>
-    <t>travel outside the country in last six months</t>
+    <t>travel_outside_the_country_in_last_six_months</t>
   </si>
   <si>
     <t>(Optional) Specification of the countries travelled in the last six months; can include multiple travels</t>
   </si>
   <si>
-    <t>host diet</t>
+    <t>host_diet</t>
   </si>
   <si>
     <t>(Optional) Type of diet depending on the host, for animals omnivore, herbivore etc., for humans high-fat, mediterranean etc.; can include multiple diet types</t>
   </si>
   <si>
-    <t>twin sibling presence</t>
+    <t>twin_sibling_presence</t>
   </si>
   <si>
     <t>(Optional) Specification of twin sibling presence</t>
   </si>
   <si>
-    <t>host last meal</t>
+    <t>host_last_meal</t>
   </si>
   <si>
     <t>(Optional) Content of last meal and time since feeding; can include multiple values</t>
   </si>
   <si>
-    <t>amniotic fluid/gestation state</t>
+    <t>amniotic_fluidgestation_state</t>
   </si>
   <si>
     <t>(Optional) Specification of the gestation state</t>
   </si>
   <si>
-    <t>host family relationship</t>
+    <t>host_family_relationship</t>
   </si>
   <si>
     <t>(Optional) Familial relationships to other hosts in the same study; can include multiple relationships</t>
   </si>
   <si>
-    <t>amniotic fluid/maternal health status</t>
+    <t>amniotic_fluidmaternal_health_status</t>
   </si>
   <si>
     <t>(Optional) Specification of the maternal health status</t>
   </si>
   <si>
-    <t>host genotype</t>
+    <t>host_genotype</t>
   </si>
   <si>
     <t>(Optional) Observed genotype</t>
   </si>
   <si>
-    <t>amniotic fluid/foetal health status</t>
+    <t>amniotic_fluidfoetal_health_status</t>
   </si>
   <si>
     <t>(Optional) Specification of foetal health status, should also include abortion</t>
   </si>
   <si>
-    <t>host pulse</t>
+    <t>host_pulse</t>
   </si>
   <si>
     <t>(Optional) Resting pulse, measured as beats per minute (Units: bpm)</t>
   </si>
   <si>
-    <t>amniotic fluid/color</t>
+    <t>amniotic_fluidcolor</t>
   </si>
   <si>
     <t>(Optional) Specification of the color of the amniotic fluid sample</t>
   </si>
   <si>
-    <t>host body product</t>
+    <t>host_body_product</t>
   </si>
   <si>
     <t>(Optional) Substance produced by the body, e.g. stool, mucus, where the sample was obtained from. for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
@@ -2602,121 +2617,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2728,7 +2743,7 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>chemical administration</t>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4402,199 +4417,199 @@
         <v>399</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="150" customHeight="1">
@@ -4725,199 +4740,199 @@
         <v>400</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -4950,10 +4965,10 @@
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
-      <formula1>hostHIVstatus</formula1>
+      <formula1>hosthivstatus</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA3:BA101">
-      <formula1>IHMCmedicationcode</formula1>
+      <formula1>ihmcmedicationcode</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
       <formula1>hostoccupation</formula1>
@@ -4971,7 +4986,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BR289"/>
+  <dimension ref="E1:BR294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5009,16 +5024,16 @@
         <v>340</v>
       </c>
       <c r="BA1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BH1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BL1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="BR1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="5:70">
@@ -5053,16 +5068,16 @@
         <v>341</v>
       </c>
       <c r="BA2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BH2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BL2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="BR2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="5:70">
@@ -5085,16 +5100,16 @@
         <v>403</v>
       </c>
       <c r="BA3" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BH3" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BL3" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="BR3" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="5:70">
@@ -5114,13 +5129,13 @@
         <v>404</v>
       </c>
       <c r="BA4" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BH4" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BL4" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5" spans="5:70">
@@ -5140,13 +5155,13 @@
         <v>405</v>
       </c>
       <c r="BA5" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH5" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BL5" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="5:70">
@@ -5160,13 +5175,13 @@
         <v>406</v>
       </c>
       <c r="BA6" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH6" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BL6" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="5:70">
@@ -5180,13 +5195,13 @@
         <v>407</v>
       </c>
       <c r="BA7" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BH7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BL7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="5:70">
@@ -5197,13 +5212,13 @@
         <v>408</v>
       </c>
       <c r="BA8" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BH8" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BL8" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="5:70">
@@ -5214,13 +5229,13 @@
         <v>409</v>
       </c>
       <c r="BA9" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BH9" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BL9" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="5:70">
@@ -5231,13 +5246,13 @@
         <v>410</v>
       </c>
       <c r="BA10" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BH10" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BL10" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" spans="5:70">
@@ -5248,13 +5263,13 @@
         <v>411</v>
       </c>
       <c r="BA11" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BH11" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BL11" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="5:70">
@@ -5265,13 +5280,13 @@
         <v>412</v>
       </c>
       <c r="BA12" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BH12" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BL12" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="5:70">
@@ -5282,13 +5297,13 @@
         <v>413</v>
       </c>
       <c r="BA13" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BH13" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BL13" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="5:70">
@@ -5299,13 +5314,13 @@
         <v>414</v>
       </c>
       <c r="BA14" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BH14" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BL14" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="5:70">
@@ -5316,13 +5331,13 @@
         <v>415</v>
       </c>
       <c r="BA15" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BH15" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BL15" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="5:70">
@@ -5333,10 +5348,10 @@
         <v>416</v>
       </c>
       <c r="BA16" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BH16" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BL16" t="s">
         <v>116</v>
@@ -5350,13 +5365,13 @@
         <v>417</v>
       </c>
       <c r="BA17" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BH17" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BL17" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="5:64">
@@ -5367,10 +5382,10 @@
         <v>418</v>
       </c>
       <c r="BA18" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BH18" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="5:64">
@@ -5381,10 +5396,10 @@
         <v>419</v>
       </c>
       <c r="BA19" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BH19" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="5:64">
@@ -5395,10 +5410,10 @@
         <v>420</v>
       </c>
       <c r="BA20" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BH20" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="5:64">
@@ -5409,10 +5424,10 @@
         <v>421</v>
       </c>
       <c r="BA21" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BH21" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="5:64">
@@ -5423,10 +5438,10 @@
         <v>422</v>
       </c>
       <c r="BA22" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BH22" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="5:64">
@@ -5437,7 +5452,7 @@
         <v>423</v>
       </c>
       <c r="BH23" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="24" spans="5:64">
@@ -5448,7 +5463,7 @@
         <v>424</v>
       </c>
       <c r="BH24" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="5:64">
@@ -5459,7 +5474,7 @@
         <v>425</v>
       </c>
       <c r="BH25" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="26" spans="5:64">
@@ -5470,7 +5485,7 @@
         <v>426</v>
       </c>
       <c r="BH26" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="5:64">
@@ -5481,7 +5496,7 @@
         <v>427</v>
       </c>
       <c r="BH27" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28" spans="5:64">
@@ -5492,7 +5507,7 @@
         <v>428</v>
       </c>
       <c r="BH28" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29" spans="5:64">
@@ -5503,7 +5518,7 @@
         <v>429</v>
       </c>
       <c r="BH29" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="5:64">
@@ -5514,7 +5529,7 @@
         <v>430</v>
       </c>
       <c r="BH30" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" spans="5:64">
@@ -5522,7 +5537,7 @@
         <v>431</v>
       </c>
       <c r="BH31" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32" spans="5:64">
@@ -5530,7 +5545,7 @@
         <v>432</v>
       </c>
       <c r="BH32" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="43:60">
@@ -5538,7 +5553,7 @@
         <v>433</v>
       </c>
       <c r="BH33" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="43:60">
@@ -5546,7 +5561,7 @@
         <v>434</v>
       </c>
       <c r="BH34" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="43:60">
@@ -5554,7 +5569,7 @@
         <v>435</v>
       </c>
       <c r="BH35" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="36" spans="43:60">
@@ -5562,7 +5577,7 @@
         <v>436</v>
       </c>
       <c r="BH36" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="37" spans="43:60">
@@ -5570,7 +5585,7 @@
         <v>437</v>
       </c>
       <c r="BH37" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="38" spans="43:60">
@@ -5578,7 +5593,7 @@
         <v>438</v>
       </c>
       <c r="BH38" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="39" spans="43:60">
@@ -5586,7 +5601,7 @@
         <v>439</v>
       </c>
       <c r="BH39" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="40" spans="43:60">
@@ -5594,7 +5609,7 @@
         <v>440</v>
       </c>
       <c r="BH40" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="41" spans="43:60">
@@ -5602,7 +5617,7 @@
         <v>441</v>
       </c>
       <c r="BH41" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="42" spans="43:60">
@@ -5610,7 +5625,7 @@
         <v>442</v>
       </c>
       <c r="BH42" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="43" spans="43:60">
@@ -5618,7 +5633,7 @@
         <v>443</v>
       </c>
       <c r="BH43" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="44" spans="43:60">
@@ -5626,7 +5641,7 @@
         <v>444</v>
       </c>
       <c r="BH44" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="45" spans="43:60">
@@ -5634,7 +5649,7 @@
         <v>445</v>
       </c>
       <c r="BH45" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="46" spans="43:60">
@@ -5642,7 +5657,7 @@
         <v>446</v>
       </c>
       <c r="BH46" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="47" spans="43:60">
@@ -5650,7 +5665,7 @@
         <v>447</v>
       </c>
       <c r="BH47" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="48" spans="43:60">
@@ -5658,7 +5673,7 @@
         <v>448</v>
       </c>
       <c r="BH48" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="49" spans="43:43">
@@ -6864,6 +6879,31 @@
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
         <v>689</v>
+      </c>
+    </row>
+    <row r="290" spans="43:43">
+      <c r="AQ290" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="291" spans="43:43">
+      <c r="AQ291" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="292" spans="43:43">
+      <c r="AQ292" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="293" spans="43:43">
+      <c r="AQ293" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="294" spans="43:43">
+      <c r="AQ294" t="s">
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -18,11 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$294</definedName>
-    <definedName name="hosthivstatus">'cv_sample'!$AS$1:$AS$2</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
+    <definedName name="hostHIVstatus">'cv_sample'!$AS$1:$AS$2</definedName>
     <definedName name="hostoccupation">'cv_sample'!$BH$1:$BH$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BL$1:$BL$17</definedName>
-    <definedName name="ihmcmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
+    <definedName name="IHMCmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="896">
   <si>
     <t>alias</t>
   </si>
@@ -946,7 +946,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -967,13 +967,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -1000,7 +1000,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1012,19 +1012,19 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>observed_host_symbionts</t>
+    <t>observed host symbionts</t>
   </si>
   <si>
     <t>(Optional) The taxonomic name of the organism(s) found living in mutualistic, commensalistic, or parasitic symbiosis with the specific host.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
@@ -1036,19 +1036,19 @@
     <t>clean catch</t>
   </si>
   <si>
-    <t>urinecollection_method</t>
+    <t>urine/collection method</t>
   </si>
   <si>
     <t>(Optional) Specification of urine collection method</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1060,7 +1060,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1072,7 +1072,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>medical_history_performed</t>
+    <t>medical history performed</t>
   </si>
   <si>
     <t>(Optional) Whether full medical history was collected</t>
@@ -1090,13 +1090,13 @@
     <t>No - other</t>
   </si>
   <si>
-    <t>study_completion_status</t>
+    <t>study completion status</t>
   </si>
   <si>
     <t>(Optional) Specification of study completion status, if no the reason should be specified</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1108,37 +1108,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1153,31 +1153,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1189,37 +1189,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1231,19 +1231,19 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1462,6 +1462,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1480,9 +1483,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1684,9 +1684,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1696,6 +1693,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1735,7 +1735,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1804,9 +1804,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1882,9 +1879,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1906,9 +1900,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1954,9 +1945,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1969,9 +1957,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1981,6 +1966,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2005,9 +1993,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2068,12 +2053,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2131,61 +2116,61 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>nosemouthteeththroat_disorder</t>
+    <t>nose/mouth/teeth/throat disorder</t>
   </si>
   <si>
     <t>(Optional) History of nose/mouth/teeth/throat disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, nose disease (https://disease-ontology.org/?id=doid:2825), mouth disease (https://disease-ontology.org/?id=doid:403), tooth disease (https://disease-ontology.org/?id=doid:1091), or upper respiratory tract disease (https://disease-ontology.org/?id=doid:974).</t>
   </si>
   <si>
-    <t>host_hiv_status</t>
+    <t>host HIV status</t>
   </si>
   <si>
     <t>(Optional) Hiv status of subject, if yes haart initiation status should also be indicated as [yes or no]</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>lungpulmonary_disorder</t>
+    <t>lung/pulmonary disorder</t>
   </si>
   <si>
     <t>(Optional) History of pulmonary disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, lung disease (https://disease-ontology.org/?id=doid:850).</t>
   </si>
   <si>
-    <t>lungnosethroat_disorder</t>
+    <t>lung/nose-throat disorder</t>
   </si>
   <si>
     <t>(Optional) History of nose-throat disorders; can include multiple disorders, the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, lung disease (https://disease-ontology.org/?id=doid:850), upper respiratory tract disease (https://disease-ontology.org/?id=doid:974).</t>
   </si>
   <si>
-    <t>bloodblood_disorder</t>
+    <t>blood/blood disorder</t>
   </si>
   <si>
     <t>(Optional) History of blood disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, hematopoietic system disease (https://disease-ontology.org/?id=doid:74).</t>
   </si>
   <si>
-    <t>urinekidney_disorder</t>
+    <t>urine/kidney disorder</t>
   </si>
   <si>
     <t>(Optional) History of kidney disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, kidney disease (https://disease-ontology.org/?id=doid:557).</t>
   </si>
   <si>
-    <t>urineurogenital_tract_disorder</t>
+    <t>urine/urogenital tract disorder</t>
   </si>
   <si>
     <t>(Optional) History of urogenital tract disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, urinary system disease (https://disease-ontology.org/?id=doid:18).</t>
   </si>
   <si>
-    <t>host_subject_id</t>
+    <t>host subject id</t>
   </si>
   <si>
     <t>(Optional) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
@@ -2257,37 +2242,37 @@
     <t>99=99=Other</t>
   </si>
   <si>
-    <t>ihmc_medication_code</t>
+    <t>IHMC medication code</t>
   </si>
   <si>
     <t>(Optional) Can include multiple medication codes</t>
   </si>
   <si>
-    <t>host_age</t>
+    <t>host age</t>
   </si>
   <si>
     <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
-    <t>host_body_site</t>
+    <t>host body site</t>
   </si>
   <si>
     <t>(Optional) Name of body site where the sample was obtained from, such as a specific organ or tissue (tongue, lung etc...). for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
   </si>
   <si>
-    <t>drug_usage</t>
+    <t>drug usage</t>
   </si>
   <si>
     <t>(Optional) Any drug used by subject and the frequency of usage; can include multiple drugs used</t>
   </si>
   <si>
-    <t>host_height</t>
-  </si>
-  <si>
-    <t>(Optional) The height of subject (Units: m)</t>
-  </si>
-  <si>
-    <t>host_bodymass_index</t>
+    <t>host height</t>
+  </si>
+  <si>
+    <t>(Optional) The height of subject (Units: mm)</t>
+  </si>
+  <si>
+    <t>host body-mass index</t>
   </si>
   <si>
     <t>(Optional) Body mass index, calculated as weight/(height)squared (Units: kg/m2)</t>
@@ -2443,25 +2428,25 @@
     <t>99=99 Unknown/Refused</t>
   </si>
   <si>
-    <t>host_occupation</t>
+    <t>host occupation</t>
   </si>
   <si>
     <t>(Optional) Most frequent job performed by subject</t>
   </si>
   <si>
-    <t>host_total_mass</t>
+    <t>host total mass</t>
   </si>
   <si>
     <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
-    <t>host_phenotype</t>
+    <t>host phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of host. for phenotypic quality ontology (pato) (v 2013-10-28) terms, please see http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>host_body_temperature</t>
+    <t>host body temperature</t>
   </si>
   <si>
     <t>(Optional) Core body temperature of the host when sample was collected (Units: ºC)</t>
@@ -2479,19 +2464,19 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host_sex</t>
+    <t>host sex</t>
   </si>
   <si>
     <t>(Optional) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>presence_of_pets_animals_or_insects</t>
+    <t>presence of pets, animals, or insects</t>
   </si>
   <si>
     <t>(Optional) The type and number of animals or insects present in the sampling space.</t>
@@ -2509,7 +2494,7 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2527,85 +2512,85 @@
     <t>(Optional) Specification of smoking status</t>
   </si>
   <si>
-    <t>major_diet_change_in_last_six_months</t>
+    <t>major diet change in last six months</t>
   </si>
   <si>
     <t>(Optional) Specification of major diet changes in the last six months, if yes the change should be specified</t>
   </si>
   <si>
-    <t>weight_loss_in_last_three_months</t>
+    <t>weight loss in last three months</t>
   </si>
   <si>
     <t>(Optional) Specification of weight loss in the last three months, if yes should be further specified to include amount of weight loss (Units: kg)</t>
   </si>
   <si>
-    <t>travel_outside_the_country_in_last_six_months</t>
+    <t>travel outside the country in last six months</t>
   </si>
   <si>
     <t>(Optional) Specification of the countries travelled in the last six months; can include multiple travels</t>
   </si>
   <si>
-    <t>host_diet</t>
+    <t>host diet</t>
   </si>
   <si>
     <t>(Optional) Type of diet depending on the host, for animals omnivore, herbivore etc., for humans high-fat, mediterranean etc.; can include multiple diet types</t>
   </si>
   <si>
-    <t>twin_sibling_presence</t>
+    <t>twin sibling presence</t>
   </si>
   <si>
     <t>(Optional) Specification of twin sibling presence</t>
   </si>
   <si>
-    <t>host_last_meal</t>
+    <t>host last meal</t>
   </si>
   <si>
     <t>(Optional) Content of last meal and time since feeding; can include multiple values</t>
   </si>
   <si>
-    <t>amniotic_fluidgestation_state</t>
+    <t>amniotic fluid/gestation state</t>
   </si>
   <si>
     <t>(Optional) Specification of the gestation state</t>
   </si>
   <si>
-    <t>host_family_relationship</t>
+    <t>host family relationship</t>
   </si>
   <si>
     <t>(Optional) Familial relationships to other hosts in the same study; can include multiple relationships</t>
   </si>
   <si>
-    <t>amniotic_fluidmaternal_health_status</t>
+    <t>amniotic fluid/maternal health status</t>
   </si>
   <si>
     <t>(Optional) Specification of the maternal health status</t>
   </si>
   <si>
-    <t>host_genotype</t>
+    <t>host genotype</t>
   </si>
   <si>
     <t>(Optional) Observed genotype</t>
   </si>
   <si>
-    <t>amniotic_fluidfoetal_health_status</t>
+    <t>amniotic fluid/foetal health status</t>
   </si>
   <si>
     <t>(Optional) Specification of foetal health status, should also include abortion</t>
   </si>
   <si>
-    <t>host_pulse</t>
+    <t>host pulse</t>
   </si>
   <si>
     <t>(Optional) Resting pulse, measured as beats per minute (Units: bpm)</t>
   </si>
   <si>
-    <t>amniotic_fluidcolor</t>
+    <t>amniotic fluid/color</t>
   </si>
   <si>
     <t>(Optional) Specification of the color of the amniotic fluid sample</t>
   </si>
   <si>
-    <t>host_body_product</t>
+    <t>host body product</t>
   </si>
   <si>
     <t>(Optional) Substance produced by the body, e.g. stool, mucus, where the sample was obtained from. for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
@@ -2617,121 +2602,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2743,7 +2728,7 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>chemical_administration</t>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4417,199 +4402,199 @@
         <v>399</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" spans="1:107" ht="150" customHeight="1">
@@ -4740,199 +4725,199 @@
         <v>400</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -4965,10 +4950,10 @@
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
-      <formula1>hosthivstatus</formula1>
+      <formula1>hostHIVstatus</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA3:BA101">
-      <formula1>ihmcmedicationcode</formula1>
+      <formula1>IHMCmedicationcode</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
       <formula1>hostoccupation</formula1>
@@ -4986,7 +4971,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BR294"/>
+  <dimension ref="E1:BR289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5024,16 +5009,16 @@
         <v>340</v>
       </c>
       <c r="BA1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="BH1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BL1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="BR1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="5:70">
@@ -5068,16 +5053,16 @@
         <v>341</v>
       </c>
       <c r="BA2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="BH2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BL2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="BR2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="5:70">
@@ -5100,16 +5085,16 @@
         <v>403</v>
       </c>
       <c r="BA3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BH3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BL3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="BR3" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="5:70">
@@ -5129,13 +5114,13 @@
         <v>404</v>
       </c>
       <c r="BA4" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BH4" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BL4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="5:70">
@@ -5155,13 +5140,13 @@
         <v>405</v>
       </c>
       <c r="BA5" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BH5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BL5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="5:70">
@@ -5175,13 +5160,13 @@
         <v>406</v>
       </c>
       <c r="BA6" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BH6" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BL6" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="5:70">
@@ -5195,13 +5180,13 @@
         <v>407</v>
       </c>
       <c r="BA7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BH7" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="BL7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="5:70">
@@ -5212,13 +5197,13 @@
         <v>408</v>
       </c>
       <c r="BA8" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="BH8" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="BL8" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="5:70">
@@ -5229,13 +5214,13 @@
         <v>409</v>
       </c>
       <c r="BA9" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="BH9" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="BL9" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="5:70">
@@ -5246,13 +5231,13 @@
         <v>410</v>
       </c>
       <c r="BA10" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BH10" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="BL10" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="5:70">
@@ -5263,13 +5248,13 @@
         <v>411</v>
       </c>
       <c r="BA11" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BH11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="BL11" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="5:70">
@@ -5280,13 +5265,13 @@
         <v>412</v>
       </c>
       <c r="BA12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BH12" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="BL12" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="13" spans="5:70">
@@ -5297,13 +5282,13 @@
         <v>413</v>
       </c>
       <c r="BA13" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BH13" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="BL13" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="5:70">
@@ -5314,13 +5299,13 @@
         <v>414</v>
       </c>
       <c r="BA14" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BH14" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="BL14" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="5:70">
@@ -5331,13 +5316,13 @@
         <v>415</v>
       </c>
       <c r="BA15" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BH15" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="BL15" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="5:70">
@@ -5348,10 +5333,10 @@
         <v>416</v>
       </c>
       <c r="BA16" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BH16" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="BL16" t="s">
         <v>116</v>
@@ -5365,13 +5350,13 @@
         <v>417</v>
       </c>
       <c r="BA17" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BH17" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="BL17" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="5:64">
@@ -5382,10 +5367,10 @@
         <v>418</v>
       </c>
       <c r="BA18" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BH18" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="5:64">
@@ -5396,10 +5381,10 @@
         <v>419</v>
       </c>
       <c r="BA19" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BH19" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="5:64">
@@ -5410,10 +5395,10 @@
         <v>420</v>
       </c>
       <c r="BA20" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BH20" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="5:64">
@@ -5424,10 +5409,10 @@
         <v>421</v>
       </c>
       <c r="BA21" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BH21" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="5:64">
@@ -5438,10 +5423,10 @@
         <v>422</v>
       </c>
       <c r="BA22" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BH22" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="5:64">
@@ -5452,7 +5437,7 @@
         <v>423</v>
       </c>
       <c r="BH23" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24" spans="5:64">
@@ -5463,7 +5448,7 @@
         <v>424</v>
       </c>
       <c r="BH24" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="5:64">
@@ -5474,7 +5459,7 @@
         <v>425</v>
       </c>
       <c r="BH25" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="5:64">
@@ -5485,7 +5470,7 @@
         <v>426</v>
       </c>
       <c r="BH26" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="5:64">
@@ -5496,7 +5481,7 @@
         <v>427</v>
       </c>
       <c r="BH27" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="5:64">
@@ -5507,7 +5492,7 @@
         <v>428</v>
       </c>
       <c r="BH28" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29" spans="5:64">
@@ -5518,7 +5503,7 @@
         <v>429</v>
       </c>
       <c r="BH29" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="5:64">
@@ -5529,7 +5514,7 @@
         <v>430</v>
       </c>
       <c r="BH30" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="5:64">
@@ -5537,7 +5522,7 @@
         <v>431</v>
       </c>
       <c r="BH31" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="5:64">
@@ -5545,7 +5530,7 @@
         <v>432</v>
       </c>
       <c r="BH32" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33" spans="43:60">
@@ -5553,7 +5538,7 @@
         <v>433</v>
       </c>
       <c r="BH33" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" spans="43:60">
@@ -5561,7 +5546,7 @@
         <v>434</v>
       </c>
       <c r="BH34" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="43:60">
@@ -5569,7 +5554,7 @@
         <v>435</v>
       </c>
       <c r="BH35" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="43:60">
@@ -5577,7 +5562,7 @@
         <v>436</v>
       </c>
       <c r="BH36" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="43:60">
@@ -5585,7 +5570,7 @@
         <v>437</v>
       </c>
       <c r="BH37" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="43:60">
@@ -5593,7 +5578,7 @@
         <v>438</v>
       </c>
       <c r="BH38" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="43:60">
@@ -5601,7 +5586,7 @@
         <v>439</v>
       </c>
       <c r="BH39" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="40" spans="43:60">
@@ -5609,7 +5594,7 @@
         <v>440</v>
       </c>
       <c r="BH40" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="43:60">
@@ -5617,7 +5602,7 @@
         <v>441</v>
       </c>
       <c r="BH41" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="42" spans="43:60">
@@ -5625,7 +5610,7 @@
         <v>442</v>
       </c>
       <c r="BH42" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="43" spans="43:60">
@@ -5633,7 +5618,7 @@
         <v>443</v>
       </c>
       <c r="BH43" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="44" spans="43:60">
@@ -5641,7 +5626,7 @@
         <v>444</v>
       </c>
       <c r="BH44" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="45" spans="43:60">
@@ -5649,7 +5634,7 @@
         <v>445</v>
       </c>
       <c r="BH45" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46" spans="43:60">
@@ -5657,7 +5642,7 @@
         <v>446</v>
       </c>
       <c r="BH46" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47" spans="43:60">
@@ -5665,7 +5650,7 @@
         <v>447</v>
       </c>
       <c r="BH47" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="48" spans="43:60">
@@ -5673,7 +5658,7 @@
         <v>448</v>
       </c>
       <c r="BH48" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="43:43">
@@ -6879,31 +6864,6 @@
     <row r="289" spans="43:43">
       <c r="AQ289" t="s">
         <v>689</v>
-      </c>
-    </row>
-    <row r="290" spans="43:43">
-      <c r="AQ290" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="291" spans="43:43">
-      <c r="AQ291" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="292" spans="43:43">
-      <c r="AQ292" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="293" spans="43:43">
-      <c r="AQ293" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="294" spans="43:43">
-      <c r="AQ294" t="s">
-        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -18,33 +18,33 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AQ$1:$AQ$289</definedName>
-    <definedName name="hostHIVstatus">'cv_sample'!$AS$1:$AS$2</definedName>
-    <definedName name="hostoccupation">'cv_sample'!$BH$1:$BH$48</definedName>
-    <definedName name="hostsex">'cv_sample'!$BL$1:$BL$17</definedName>
-    <definedName name="IHMCmedicationcode">'cv_sample'!$BA$1:$BA$22</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
+    <definedName name="hostHIVstatus">'cv_sample'!$AU$1:$AU$2</definedName>
+    <definedName name="hostoccupation">'cv_sample'!$BJ$1:$BJ$48</definedName>
+    <definedName name="hostsex">'cv_sample'!$BN$1:$BN$17</definedName>
+    <definedName name="IHMCmedicationcode">'cv_sample'!$BC$1:$BC$22</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="medicalhistoryperformed">'cv_sample'!$Q$1:$Q$2</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$P$1:$P$2</definedName>
+    <definedName name="medicalhistoryperformed">'cv_sample'!$S$1:$S$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$H$1:$H$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$R$1:$R$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$AA$1:$AA$3</definedName>
-    <definedName name="smoker">'cv_sample'!$BR$1:$BR$3</definedName>
-    <definedName name="studycompletionstatus">'cv_sample'!$R$1:$R$5</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$J$1:$J$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$AC$1:$AC$3</definedName>
+    <definedName name="smoker">'cv_sample'!$BT$1:$BT$3</definedName>
+    <definedName name="studycompletionstatus">'cv_sample'!$T$1:$T$5</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
-    <definedName name="urinecollectionmethod">'cv_sample'!$M$1:$M$2</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$G$1:$G$30</definedName>
+    <definedName name="urinecollectionmethod">'cv_sample'!$O$1:$O$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="900">
   <si>
     <t>alias</t>
   </si>
@@ -848,6 +848,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4265,7 +4277,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DC2"/>
+  <dimension ref="A1:DE2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4274,7 +4286,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:109">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4288,19 +4300,19 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>322</v>
@@ -4312,25 +4324,25 @@
         <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>352</v>
@@ -4354,10 +4366,10 @@
         <v>364</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>373</v>
@@ -4402,10 +4414,10 @@
         <v>399</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>690</v>
+        <v>401</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>692</v>
+        <v>403</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>694</v>
@@ -4432,10 +4444,10 @@
         <v>708</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>736</v>
@@ -4453,10 +4465,10 @@
         <v>744</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>794</v>
+        <v>746</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>798</v>
@@ -4465,10 +4477,10 @@
         <v>800</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>810</v>
@@ -4483,10 +4495,10 @@
         <v>816</v>
       </c>
       <c r="BR1" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>824</v>
@@ -4596,8 +4608,14 @@
       <c r="DC1" s="1" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="2" spans="1:107" ht="150" customHeight="1">
+      <c r="DD1" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="2" spans="1:109" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4611,19 +4629,19 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>323</v>
@@ -4635,25 +4653,25 @@
         <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>353</v>
@@ -4677,10 +4695,10 @@
         <v>365</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>374</v>
@@ -4725,10 +4743,10 @@
         <v>400</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>691</v>
+        <v>402</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>693</v>
+        <v>404</v>
       </c>
       <c r="AS2" s="2" t="s">
         <v>695</v>
@@ -4755,10 +4773,10 @@
         <v>709</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="BC2" s="2" t="s">
         <v>737</v>
@@ -4776,10 +4794,10 @@
         <v>745</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>795</v>
+        <v>747</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="BJ2" s="2" t="s">
         <v>799</v>
@@ -4788,10 +4806,10 @@
         <v>801</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="BN2" s="2" t="s">
         <v>811</v>
@@ -4806,10 +4824,10 @@
         <v>817</v>
       </c>
       <c r="BR2" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="BS2" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="BT2" s="2" t="s">
         <v>825</v>
@@ -4919,49 +4937,55 @@
       <c r="DC2" s="2" t="s">
         <v>895</v>
       </c>
+      <c r="DD2" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>899</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>urinecollectionmethod</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>medicalhistoryperformed</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>studycompletionstatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU3:AU101">
       <formula1>hostHIVstatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA3:BA101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BC3:BC101">
       <formula1>IHMCmedicationcode</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ3:BJ101">
       <formula1>hostoccupation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL3:BL101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN3:BN101">
       <formula1>hostsex</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR3:BR101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT3:BT101">
       <formula1>smoker</formula1>
     </dataValidation>
   </dataValidations>
@@ -4971,1899 +4995,1899 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BR289"/>
+  <dimension ref="G1:BT289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:70">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:72">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S1" t="s">
+        <v>344</v>
+      </c>
+      <c r="T1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>344</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>714</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>750</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>806</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" spans="7:72">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="O2" t="s">
+        <v>333</v>
+      </c>
+      <c r="R2" t="s">
+        <v>341</v>
+      </c>
+      <c r="S2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T2" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>345</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>715</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>751</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>807</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="3" spans="7:72">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="T3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>407</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>716</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>752</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>808</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4" spans="7:72">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="T4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>408</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>717</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>753</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" spans="7:72">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="T5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>409</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>718</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>754</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="6" spans="7:72">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>719</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>755</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="7" spans="7:72">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>411</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>720</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>756</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="7:72">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>412</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>721</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>757</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="9" spans="7:72">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>413</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>722</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>758</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10" spans="7:72">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>414</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>723</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>759</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="11" spans="7:72">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>415</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>724</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>760</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="12" spans="7:72">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>416</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>725</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>761</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="7:72">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>417</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>726</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>762</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14" spans="7:72">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>418</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>727</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>763</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="15" spans="7:72">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>728</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>764</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="7:72">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>729</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>765</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="7:66">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>421</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>730</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>766</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="18" spans="7:66">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>422</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>731</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19" spans="7:66">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>423</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>732</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="20" spans="7:66">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>424</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>733</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="7:66">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>425</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>734</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="22" spans="7:66">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>426</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>735</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="23" spans="7:66">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>427</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="24" spans="7:66">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>428</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="25" spans="7:66">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>429</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="26" spans="7:66">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>430</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" spans="7:66">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>431</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="28" spans="7:66">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>432</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="29" spans="7:66">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M1" t="s">
-        <v>328</v>
-      </c>
-      <c r="P1" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>340</v>
-      </c>
-      <c r="R1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>340</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>710</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>746</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>802</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="2" spans="5:70">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AS29" t="s">
+        <v>433</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="30" spans="7:66">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="M2" t="s">
-        <v>329</v>
-      </c>
-      <c r="P2" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>341</v>
-      </c>
-      <c r="R2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>402</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>711</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>747</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>803</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="3" spans="5:70">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="R3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>368</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>403</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>712</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>748</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>804</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="4" spans="5:70">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="R4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>404</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>713</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>749</v>
-      </c>
-      <c r="BL4" t="s">
+      <c r="AS30" t="s">
+        <v>434</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="31" spans="7:66">
+      <c r="AS31" t="s">
+        <v>435</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="32" spans="7:66">
+      <c r="AS32" t="s">
+        <v>436</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="33" spans="45:62">
+      <c r="AS33" t="s">
+        <v>437</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="34" spans="45:62">
+      <c r="AS34" t="s">
+        <v>438</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="35" spans="45:62">
+      <c r="AS35" t="s">
+        <v>439</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="36" spans="45:62">
+      <c r="AS36" t="s">
+        <v>440</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="37" spans="45:62">
+      <c r="AS37" t="s">
+        <v>441</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="38" spans="45:62">
+      <c r="AS38" t="s">
+        <v>442</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="39" spans="45:62">
+      <c r="AS39" t="s">
+        <v>443</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="40" spans="45:62">
+      <c r="AS40" t="s">
+        <v>444</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="41" spans="45:62">
+      <c r="AS41" t="s">
+        <v>445</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="42" spans="45:62">
+      <c r="AS42" t="s">
+        <v>446</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="43" spans="45:62">
+      <c r="AS43" t="s">
+        <v>447</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="44" spans="45:62">
+      <c r="AS44" t="s">
+        <v>448</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="45" spans="45:62">
+      <c r="AS45" t="s">
+        <v>449</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="46" spans="45:62">
+      <c r="AS46" t="s">
+        <v>450</v>
+      </c>
+      <c r="BJ46" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="47" spans="45:62">
+      <c r="AS47" t="s">
+        <v>451</v>
+      </c>
+      <c r="BJ47" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="48" spans="45:62">
+      <c r="AS48" t="s">
+        <v>452</v>
+      </c>
+      <c r="BJ48" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="49" spans="45:45">
+      <c r="AS49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50" spans="45:45">
+      <c r="AS50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" spans="45:45">
+      <c r="AS51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="45:45">
+      <c r="AS52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="45:45">
+      <c r="AS53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="45:45">
+      <c r="AS54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="45:45">
+      <c r="AS55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="45:45">
+      <c r="AS56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="45:45">
+      <c r="AS57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="45:45">
+      <c r="AS58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="45:45">
+      <c r="AS59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="45:45">
+      <c r="AS60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="45:45">
+      <c r="AS61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="45:45">
+      <c r="AS62" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="45:45">
+      <c r="AS63" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="64" spans="45:45">
+      <c r="AS64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="65" spans="45:45">
+      <c r="AS65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="45:45">
+      <c r="AS66" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="67" spans="45:45">
+      <c r="AS67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="45:45">
+      <c r="AS68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="45:45">
+      <c r="AS69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="45:45">
+      <c r="AS70" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="45:45">
+      <c r="AS71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="45:45">
+      <c r="AS72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="45:45">
+      <c r="AS73" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="74" spans="45:45">
+      <c r="AS74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="45:45">
+      <c r="AS75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="45:45">
+      <c r="AS76" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="77" spans="45:45">
+      <c r="AS77" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="45:45">
+      <c r="AS78" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="45:45">
+      <c r="AS79" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="80" spans="45:45">
+      <c r="AS80" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81" spans="45:45">
+      <c r="AS81" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="45:45">
+      <c r="AS82" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83" spans="45:45">
+      <c r="AS83" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="84" spans="45:45">
+      <c r="AS84" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="85" spans="45:45">
+      <c r="AS85" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="86" spans="45:45">
+      <c r="AS86" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="87" spans="45:45">
+      <c r="AS87" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="88" spans="45:45">
+      <c r="AS88" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="45:45">
+      <c r="AS89" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="45:45">
+      <c r="AS90" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="91" spans="45:45">
+      <c r="AS91" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="45:45">
+      <c r="AS92" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="93" spans="45:45">
+      <c r="AS93" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="94" spans="45:45">
+      <c r="AS94" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="95" spans="45:45">
+      <c r="AS95" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="45:45">
+      <c r="AS96" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="45:45">
+      <c r="AS97" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="45:45">
+      <c r="AS98" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="45:45">
+      <c r="AS99" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="100" spans="45:45">
+      <c r="AS100" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="45:45">
+      <c r="AS101" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="45:45">
+      <c r="AS102" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="103" spans="45:45">
+      <c r="AS103" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="104" spans="45:45">
+      <c r="AS104" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="105" spans="45:45">
+      <c r="AS105" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="106" spans="45:45">
+      <c r="AS106" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="107" spans="45:45">
+      <c r="AS107" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="108" spans="45:45">
+      <c r="AS108" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="109" spans="45:45">
+      <c r="AS109" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="45:45">
+      <c r="AS110" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="111" spans="45:45">
+      <c r="AS111" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="45:45">
+      <c r="AS112" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="45:45">
+      <c r="AS113" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="114" spans="45:45">
+      <c r="AS114" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="115" spans="45:45">
+      <c r="AS115" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="116" spans="45:45">
+      <c r="AS116" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="117" spans="45:45">
+      <c r="AS117" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="118" spans="45:45">
+      <c r="AS118" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="119" spans="45:45">
+      <c r="AS119" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="120" spans="45:45">
+      <c r="AS120" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="121" spans="45:45">
+      <c r="AS121" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="122" spans="45:45">
+      <c r="AS122" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="45:45">
+      <c r="AS123" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="45:45">
+      <c r="AS124" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="125" spans="45:45">
+      <c r="AS125" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="126" spans="45:45">
+      <c r="AS126" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="127" spans="45:45">
+      <c r="AS127" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="128" spans="45:45">
+      <c r="AS128" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="129" spans="45:45">
+      <c r="AS129" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="130" spans="45:45">
+      <c r="AS130" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="131" spans="45:45">
+      <c r="AS131" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="132" spans="45:45">
+      <c r="AS132" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="133" spans="45:45">
+      <c r="AS133" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="134" spans="45:45">
+      <c r="AS134" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="135" spans="45:45">
+      <c r="AS135" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="136" spans="45:45">
+      <c r="AS136" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="137" spans="45:45">
+      <c r="AS137" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="138" spans="45:45">
+      <c r="AS138" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="139" spans="45:45">
+      <c r="AS139" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="140" spans="45:45">
+      <c r="AS140" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="141" spans="45:45">
+      <c r="AS141" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="142" spans="45:45">
+      <c r="AS142" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="143" spans="45:45">
+      <c r="AS143" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="144" spans="45:45">
+      <c r="AS144" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="145" spans="45:45">
+      <c r="AS145" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="146" spans="45:45">
+      <c r="AS146" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="147" spans="45:45">
+      <c r="AS147" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="148" spans="45:45">
+      <c r="AS148" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="149" spans="45:45">
+      <c r="AS149" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="150" spans="45:45">
+      <c r="AS150" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="151" spans="45:45">
+      <c r="AS151" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="152" spans="45:45">
+      <c r="AS152" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="153" spans="45:45">
+      <c r="AS153" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="154" spans="45:45">
+      <c r="AS154" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="155" spans="45:45">
+      <c r="AS155" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="156" spans="45:45">
+      <c r="AS156" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="157" spans="45:45">
+      <c r="AS157" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="158" spans="45:45">
+      <c r="AS158" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="159" spans="45:45">
+      <c r="AS159" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="160" spans="45:45">
+      <c r="AS160" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="161" spans="45:45">
+      <c r="AS161" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="162" spans="45:45">
+      <c r="AS162" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="163" spans="45:45">
+      <c r="AS163" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="164" spans="45:45">
+      <c r="AS164" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="165" spans="45:45">
+      <c r="AS165" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="166" spans="45:45">
+      <c r="AS166" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="167" spans="45:45">
+      <c r="AS167" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="168" spans="45:45">
+      <c r="AS168" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="169" spans="45:45">
+      <c r="AS169" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="170" spans="45:45">
+      <c r="AS170" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="171" spans="45:45">
+      <c r="AS171" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="172" spans="45:45">
+      <c r="AS172" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173" spans="45:45">
+      <c r="AS173" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="174" spans="45:45">
+      <c r="AS174" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="175" spans="45:45">
+      <c r="AS175" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="176" spans="45:45">
+      <c r="AS176" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="177" spans="45:45">
+      <c r="AS177" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="178" spans="45:45">
+      <c r="AS178" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="179" spans="45:45">
+      <c r="AS179" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="180" spans="45:45">
+      <c r="AS180" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="181" spans="45:45">
+      <c r="AS181" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="182" spans="45:45">
+      <c r="AS182" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="183" spans="45:45">
+      <c r="AS183" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="184" spans="45:45">
+      <c r="AS184" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="185" spans="45:45">
+      <c r="AS185" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="186" spans="45:45">
+      <c r="AS186" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="187" spans="45:45">
+      <c r="AS187" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="188" spans="45:45">
+      <c r="AS188" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="189" spans="45:45">
+      <c r="AS189" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="190" spans="45:45">
+      <c r="AS190" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="191" spans="45:45">
+      <c r="AS191" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="192" spans="45:45">
+      <c r="AS192" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="193" spans="45:45">
+      <c r="AS193" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="194" spans="45:45">
+      <c r="AS194" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="195" spans="45:45">
+      <c r="AS195" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="196" spans="45:45">
+      <c r="AS196" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="197" spans="45:45">
+      <c r="AS197" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="198" spans="45:45">
+      <c r="AS198" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="199" spans="45:45">
+      <c r="AS199" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="200" spans="45:45">
+      <c r="AS200" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="201" spans="45:45">
+      <c r="AS201" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="202" spans="45:45">
+      <c r="AS202" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="203" spans="45:45">
+      <c r="AS203" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="204" spans="45:45">
+      <c r="AS204" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="205" spans="45:45">
+      <c r="AS205" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="206" spans="45:45">
+      <c r="AS206" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="207" spans="45:45">
+      <c r="AS207" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="208" spans="45:45">
+      <c r="AS208" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="209" spans="45:45">
+      <c r="AS209" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="210" spans="45:45">
+      <c r="AS210" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="211" spans="45:45">
+      <c r="AS211" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="212" spans="45:45">
+      <c r="AS212" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="213" spans="45:45">
+      <c r="AS213" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="214" spans="45:45">
+      <c r="AS214" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="215" spans="45:45">
+      <c r="AS215" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="216" spans="45:45">
+      <c r="AS216" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="217" spans="45:45">
+      <c r="AS217" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="218" spans="45:45">
+      <c r="AS218" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="219" spans="45:45">
+      <c r="AS219" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="220" spans="45:45">
+      <c r="AS220" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="221" spans="45:45">
+      <c r="AS221" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="222" spans="45:45">
+      <c r="AS222" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="223" spans="45:45">
+      <c r="AS223" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="224" spans="45:45">
+      <c r="AS224" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="225" spans="45:45">
+      <c r="AS225" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="226" spans="45:45">
+      <c r="AS226" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="227" spans="45:45">
+      <c r="AS227" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="228" spans="45:45">
+      <c r="AS228" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="229" spans="45:45">
+      <c r="AS229" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="230" spans="45:45">
+      <c r="AS230" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="231" spans="45:45">
+      <c r="AS231" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="232" spans="45:45">
+      <c r="AS232" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="233" spans="45:45">
+      <c r="AS233" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="234" spans="45:45">
+      <c r="AS234" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="235" spans="45:45">
+      <c r="AS235" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="236" spans="45:45">
+      <c r="AS236" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="237" spans="45:45">
+      <c r="AS237" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="238" spans="45:45">
+      <c r="AS238" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="239" spans="45:45">
+      <c r="AS239" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="240" spans="45:45">
+      <c r="AS240" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="241" spans="45:45">
+      <c r="AS241" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="242" spans="45:45">
+      <c r="AS242" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="243" spans="45:45">
+      <c r="AS243" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="244" spans="45:45">
+      <c r="AS244" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="245" spans="45:45">
+      <c r="AS245" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="246" spans="45:45">
+      <c r="AS246" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="247" spans="45:45">
+      <c r="AS247" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="248" spans="45:45">
+      <c r="AS248" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="249" spans="45:45">
+      <c r="AS249" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="250" spans="45:45">
+      <c r="AS250" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="251" spans="45:45">
+      <c r="AS251" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="252" spans="45:45">
+      <c r="AS252" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="253" spans="45:45">
+      <c r="AS253" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="254" spans="45:45">
+      <c r="AS254" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="255" spans="45:45">
+      <c r="AS255" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="256" spans="45:45">
+      <c r="AS256" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="257" spans="45:45">
+      <c r="AS257" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="258" spans="45:45">
+      <c r="AS258" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="259" spans="45:45">
+      <c r="AS259" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="260" spans="45:45">
+      <c r="AS260" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="261" spans="45:45">
+      <c r="AS261" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="262" spans="45:45">
+      <c r="AS262" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="263" spans="45:45">
+      <c r="AS263" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="264" spans="45:45">
+      <c r="AS264" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="265" spans="45:45">
+      <c r="AS265" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="266" spans="45:45">
+      <c r="AS266" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="267" spans="45:45">
+      <c r="AS267" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="268" spans="45:45">
+      <c r="AS268" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="269" spans="45:45">
+      <c r="AS269" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="270" spans="45:45">
+      <c r="AS270" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="271" spans="45:45">
+      <c r="AS271" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="272" spans="45:45">
+      <c r="AS272" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="273" spans="45:45">
+      <c r="AS273" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="274" spans="45:45">
+      <c r="AS274" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="5" spans="5:70">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="R5" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>405</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>714</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>750</v>
-      </c>
-      <c r="BL5" t="s">
+    <row r="275" spans="45:45">
+      <c r="AS275" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="5:70">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>406</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>715</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>751</v>
-      </c>
-      <c r="BL6" t="s">
+    <row r="276" spans="45:45">
+      <c r="AS276" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="5:70">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>407</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>716</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>752</v>
-      </c>
-      <c r="BL7" t="s">
+    <row r="277" spans="45:45">
+      <c r="AS277" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="5:70">
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>408</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>717</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>753</v>
-      </c>
-      <c r="BL8" t="s">
+    <row r="278" spans="45:45">
+      <c r="AS278" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="5:70">
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>409</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>718</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>754</v>
-      </c>
-      <c r="BL9" t="s">
+    <row r="279" spans="45:45">
+      <c r="AS279" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="5:70">
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>410</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>719</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>755</v>
-      </c>
-      <c r="BL10" t="s">
+    <row r="280" spans="45:45">
+      <c r="AS280" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="5:70">
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>411</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>720</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>756</v>
-      </c>
-      <c r="BL11" t="s">
+    <row r="281" spans="45:45">
+      <c r="AS281" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="12" spans="5:70">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>412</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>721</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>757</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="13" spans="5:70">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>413</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>722</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>758</v>
-      </c>
-      <c r="BL13" t="s">
+    <row r="282" spans="45:45">
+      <c r="AS282" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="14" spans="5:70">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>414</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>723</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>759</v>
-      </c>
-      <c r="BL14" t="s">
+    <row r="283" spans="45:45">
+      <c r="AS283" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="15" spans="5:70">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>415</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>724</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>760</v>
-      </c>
-      <c r="BL15" t="s">
+    <row r="284" spans="45:45">
+      <c r="AS284" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="5:70">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>416</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>725</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>761</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="5:64">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>417</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>726</v>
-      </c>
-      <c r="BH17" t="s">
-        <v>762</v>
-      </c>
-      <c r="BL17" t="s">
+    <row r="285" spans="45:45">
+      <c r="AS285" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="18" spans="5:64">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>418</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>727</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="19" spans="5:64">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>728</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="20" spans="5:64">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>420</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>729</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="21" spans="5:64">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>421</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>730</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="22" spans="5:64">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>422</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>731</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="23" spans="5:64">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>423</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="24" spans="5:64">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>424</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="25" spans="5:64">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>425</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="26" spans="5:64">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>426</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="27" spans="5:64">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>427</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="28" spans="5:64">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>428</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="29" spans="5:64">
-      <c r="E29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>429</v>
-      </c>
-      <c r="BH29" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="30" spans="5:64">
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>430</v>
-      </c>
-      <c r="BH30" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="31" spans="5:64">
-      <c r="AQ31" t="s">
-        <v>431</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="32" spans="5:64">
-      <c r="AQ32" t="s">
-        <v>432</v>
-      </c>
-      <c r="BH32" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="33" spans="43:60">
-      <c r="AQ33" t="s">
-        <v>433</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="34" spans="43:60">
-      <c r="AQ34" t="s">
-        <v>434</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="35" spans="43:60">
-      <c r="AQ35" t="s">
-        <v>435</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="36" spans="43:60">
-      <c r="AQ36" t="s">
-        <v>436</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="37" spans="43:60">
-      <c r="AQ37" t="s">
-        <v>437</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="38" spans="43:60">
-      <c r="AQ38" t="s">
-        <v>438</v>
-      </c>
-      <c r="BH38" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="39" spans="43:60">
-      <c r="AQ39" t="s">
-        <v>439</v>
-      </c>
-      <c r="BH39" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="40" spans="43:60">
-      <c r="AQ40" t="s">
-        <v>440</v>
-      </c>
-      <c r="BH40" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="41" spans="43:60">
-      <c r="AQ41" t="s">
-        <v>441</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="42" spans="43:60">
-      <c r="AQ42" t="s">
-        <v>442</v>
-      </c>
-      <c r="BH42" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="43" spans="43:60">
-      <c r="AQ43" t="s">
-        <v>443</v>
-      </c>
-      <c r="BH43" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="44" spans="43:60">
-      <c r="AQ44" t="s">
-        <v>444</v>
-      </c>
-      <c r="BH44" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="45" spans="43:60">
-      <c r="AQ45" t="s">
-        <v>445</v>
-      </c>
-      <c r="BH45" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="46" spans="43:60">
-      <c r="AQ46" t="s">
-        <v>446</v>
-      </c>
-      <c r="BH46" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="47" spans="43:60">
-      <c r="AQ47" t="s">
-        <v>447</v>
-      </c>
-      <c r="BH47" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="48" spans="43:60">
-      <c r="AQ48" t="s">
-        <v>448</v>
-      </c>
-      <c r="BH48" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="49" spans="43:43">
-      <c r="AQ49" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="50" spans="43:43">
-      <c r="AQ50" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="43:43">
-      <c r="AQ51" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="52" spans="43:43">
-      <c r="AQ52" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="53" spans="43:43">
-      <c r="AQ53" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="54" spans="43:43">
-      <c r="AQ54" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="55" spans="43:43">
-      <c r="AQ55" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="56" spans="43:43">
-      <c r="AQ56" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="57" spans="43:43">
-      <c r="AQ57" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="58" spans="43:43">
-      <c r="AQ58" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="59" spans="43:43">
-      <c r="AQ59" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="60" spans="43:43">
-      <c r="AQ60" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="61" spans="43:43">
-      <c r="AQ61" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="62" spans="43:43">
-      <c r="AQ62" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="63" spans="43:43">
-      <c r="AQ63" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="64" spans="43:43">
-      <c r="AQ64" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="65" spans="43:43">
-      <c r="AQ65" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="66" spans="43:43">
-      <c r="AQ66" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="67" spans="43:43">
-      <c r="AQ67" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="68" spans="43:43">
-      <c r="AQ68" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" spans="43:43">
-      <c r="AQ69" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="70" spans="43:43">
-      <c r="AQ70" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" spans="43:43">
-      <c r="AQ71" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="72" spans="43:43">
-      <c r="AQ72" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="73" spans="43:43">
-      <c r="AQ73" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="74" spans="43:43">
-      <c r="AQ74" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="75" spans="43:43">
-      <c r="AQ75" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="76" spans="43:43">
-      <c r="AQ76" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="77" spans="43:43">
-      <c r="AQ77" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="78" spans="43:43">
-      <c r="AQ78" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="79" spans="43:43">
-      <c r="AQ79" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="80" spans="43:43">
-      <c r="AQ80" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="81" spans="43:43">
-      <c r="AQ81" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="82" spans="43:43">
-      <c r="AQ82" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="83" spans="43:43">
-      <c r="AQ83" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="84" spans="43:43">
-      <c r="AQ84" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="85" spans="43:43">
-      <c r="AQ85" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="86" spans="43:43">
-      <c r="AQ86" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="87" spans="43:43">
-      <c r="AQ87" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="88" spans="43:43">
-      <c r="AQ88" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="89" spans="43:43">
-      <c r="AQ89" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="90" spans="43:43">
-      <c r="AQ90" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="91" spans="43:43">
-      <c r="AQ91" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="92" spans="43:43">
-      <c r="AQ92" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="93" spans="43:43">
-      <c r="AQ93" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="94" spans="43:43">
-      <c r="AQ94" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="95" spans="43:43">
-      <c r="AQ95" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="96" spans="43:43">
-      <c r="AQ96" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="97" spans="43:43">
-      <c r="AQ97" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="98" spans="43:43">
-      <c r="AQ98" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="99" spans="43:43">
-      <c r="AQ99" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="100" spans="43:43">
-      <c r="AQ100" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="101" spans="43:43">
-      <c r="AQ101" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="102" spans="43:43">
-      <c r="AQ102" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="103" spans="43:43">
-      <c r="AQ103" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="104" spans="43:43">
-      <c r="AQ104" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="105" spans="43:43">
-      <c r="AQ105" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="106" spans="43:43">
-      <c r="AQ106" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="107" spans="43:43">
-      <c r="AQ107" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="108" spans="43:43">
-      <c r="AQ108" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="109" spans="43:43">
-      <c r="AQ109" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="110" spans="43:43">
-      <c r="AQ110" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="111" spans="43:43">
-      <c r="AQ111" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="112" spans="43:43">
-      <c r="AQ112" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="113" spans="43:43">
-      <c r="AQ113" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="114" spans="43:43">
-      <c r="AQ114" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="115" spans="43:43">
-      <c r="AQ115" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="116" spans="43:43">
-      <c r="AQ116" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="117" spans="43:43">
-      <c r="AQ117" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="118" spans="43:43">
-      <c r="AQ118" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="119" spans="43:43">
-      <c r="AQ119" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="120" spans="43:43">
-      <c r="AQ120" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="121" spans="43:43">
-      <c r="AQ121" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="122" spans="43:43">
-      <c r="AQ122" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="123" spans="43:43">
-      <c r="AQ123" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="124" spans="43:43">
-      <c r="AQ124" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="125" spans="43:43">
-      <c r="AQ125" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="126" spans="43:43">
-      <c r="AQ126" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="127" spans="43:43">
-      <c r="AQ127" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="128" spans="43:43">
-      <c r="AQ128" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="129" spans="43:43">
-      <c r="AQ129" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="130" spans="43:43">
-      <c r="AQ130" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="131" spans="43:43">
-      <c r="AQ131" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="132" spans="43:43">
-      <c r="AQ132" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="133" spans="43:43">
-      <c r="AQ133" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="134" spans="43:43">
-      <c r="AQ134" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="135" spans="43:43">
-      <c r="AQ135" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="136" spans="43:43">
-      <c r="AQ136" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="137" spans="43:43">
-      <c r="AQ137" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="138" spans="43:43">
-      <c r="AQ138" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="139" spans="43:43">
-      <c r="AQ139" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="140" spans="43:43">
-      <c r="AQ140" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="141" spans="43:43">
-      <c r="AQ141" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="142" spans="43:43">
-      <c r="AQ142" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="143" spans="43:43">
-      <c r="AQ143" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="144" spans="43:43">
-      <c r="AQ144" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="145" spans="43:43">
-      <c r="AQ145" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="146" spans="43:43">
-      <c r="AQ146" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="147" spans="43:43">
-      <c r="AQ147" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="148" spans="43:43">
-      <c r="AQ148" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="149" spans="43:43">
-      <c r="AQ149" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="150" spans="43:43">
-      <c r="AQ150" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="151" spans="43:43">
-      <c r="AQ151" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="152" spans="43:43">
-      <c r="AQ152" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="153" spans="43:43">
-      <c r="AQ153" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="154" spans="43:43">
-      <c r="AQ154" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="155" spans="43:43">
-      <c r="AQ155" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="156" spans="43:43">
-      <c r="AQ156" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="157" spans="43:43">
-      <c r="AQ157" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="158" spans="43:43">
-      <c r="AQ158" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="159" spans="43:43">
-      <c r="AQ159" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="160" spans="43:43">
-      <c r="AQ160" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="161" spans="43:43">
-      <c r="AQ161" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="162" spans="43:43">
-      <c r="AQ162" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="163" spans="43:43">
-      <c r="AQ163" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="164" spans="43:43">
-      <c r="AQ164" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="165" spans="43:43">
-      <c r="AQ165" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="166" spans="43:43">
-      <c r="AQ166" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="167" spans="43:43">
-      <c r="AQ167" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="168" spans="43:43">
-      <c r="AQ168" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="169" spans="43:43">
-      <c r="AQ169" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="170" spans="43:43">
-      <c r="AQ170" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="171" spans="43:43">
-      <c r="AQ171" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="172" spans="43:43">
-      <c r="AQ172" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="173" spans="43:43">
-      <c r="AQ173" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="174" spans="43:43">
-      <c r="AQ174" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="175" spans="43:43">
-      <c r="AQ175" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="176" spans="43:43">
-      <c r="AQ176" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="177" spans="43:43">
-      <c r="AQ177" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="178" spans="43:43">
-      <c r="AQ178" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="179" spans="43:43">
-      <c r="AQ179" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="180" spans="43:43">
-      <c r="AQ180" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="181" spans="43:43">
-      <c r="AQ181" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="182" spans="43:43">
-      <c r="AQ182" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="183" spans="43:43">
-      <c r="AQ183" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="184" spans="43:43">
-      <c r="AQ184" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="185" spans="43:43">
-      <c r="AQ185" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="186" spans="43:43">
-      <c r="AQ186" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="187" spans="43:43">
-      <c r="AQ187" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="188" spans="43:43">
-      <c r="AQ188" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="189" spans="43:43">
-      <c r="AQ189" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="190" spans="43:43">
-      <c r="AQ190" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="191" spans="43:43">
-      <c r="AQ191" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="192" spans="43:43">
-      <c r="AQ192" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="193" spans="43:43">
-      <c r="AQ193" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="194" spans="43:43">
-      <c r="AQ194" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="195" spans="43:43">
-      <c r="AQ195" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="196" spans="43:43">
-      <c r="AQ196" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="197" spans="43:43">
-      <c r="AQ197" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="198" spans="43:43">
-      <c r="AQ198" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="199" spans="43:43">
-      <c r="AQ199" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="200" spans="43:43">
-      <c r="AQ200" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="201" spans="43:43">
-      <c r="AQ201" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="202" spans="43:43">
-      <c r="AQ202" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="203" spans="43:43">
-      <c r="AQ203" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="204" spans="43:43">
-      <c r="AQ204" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="205" spans="43:43">
-      <c r="AQ205" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="206" spans="43:43">
-      <c r="AQ206" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="207" spans="43:43">
-      <c r="AQ207" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="208" spans="43:43">
-      <c r="AQ208" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="209" spans="43:43">
-      <c r="AQ209" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="210" spans="43:43">
-      <c r="AQ210" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="211" spans="43:43">
-      <c r="AQ211" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="212" spans="43:43">
-      <c r="AQ212" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="213" spans="43:43">
-      <c r="AQ213" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="214" spans="43:43">
-      <c r="AQ214" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="215" spans="43:43">
-      <c r="AQ215" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="216" spans="43:43">
-      <c r="AQ216" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="217" spans="43:43">
-      <c r="AQ217" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="218" spans="43:43">
-      <c r="AQ218" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="219" spans="43:43">
-      <c r="AQ219" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="220" spans="43:43">
-      <c r="AQ220" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="221" spans="43:43">
-      <c r="AQ221" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="222" spans="43:43">
-      <c r="AQ222" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="223" spans="43:43">
-      <c r="AQ223" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="224" spans="43:43">
-      <c r="AQ224" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="225" spans="43:43">
-      <c r="AQ225" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="226" spans="43:43">
-      <c r="AQ226" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="227" spans="43:43">
-      <c r="AQ227" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="228" spans="43:43">
-      <c r="AQ228" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="229" spans="43:43">
-      <c r="AQ229" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="230" spans="43:43">
-      <c r="AQ230" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="231" spans="43:43">
-      <c r="AQ231" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="232" spans="43:43">
-      <c r="AQ232" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="233" spans="43:43">
-      <c r="AQ233" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="234" spans="43:43">
-      <c r="AQ234" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="235" spans="43:43">
-      <c r="AQ235" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="236" spans="43:43">
-      <c r="AQ236" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="237" spans="43:43">
-      <c r="AQ237" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="238" spans="43:43">
-      <c r="AQ238" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="239" spans="43:43">
-      <c r="AQ239" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="240" spans="43:43">
-      <c r="AQ240" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="241" spans="43:43">
-      <c r="AQ241" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="242" spans="43:43">
-      <c r="AQ242" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="243" spans="43:43">
-      <c r="AQ243" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="244" spans="43:43">
-      <c r="AQ244" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="245" spans="43:43">
-      <c r="AQ245" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="246" spans="43:43">
-      <c r="AQ246" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="247" spans="43:43">
-      <c r="AQ247" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="248" spans="43:43">
-      <c r="AQ248" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="249" spans="43:43">
-      <c r="AQ249" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="250" spans="43:43">
-      <c r="AQ250" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="251" spans="43:43">
-      <c r="AQ251" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="252" spans="43:43">
-      <c r="AQ252" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="253" spans="43:43">
-      <c r="AQ253" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="254" spans="43:43">
-      <c r="AQ254" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="255" spans="43:43">
-      <c r="AQ255" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="256" spans="43:43">
-      <c r="AQ256" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="257" spans="43:43">
-      <c r="AQ257" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="258" spans="43:43">
-      <c r="AQ258" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="259" spans="43:43">
-      <c r="AQ259" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="260" spans="43:43">
-      <c r="AQ260" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="261" spans="43:43">
-      <c r="AQ261" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="262" spans="43:43">
-      <c r="AQ262" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="263" spans="43:43">
-      <c r="AQ263" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="264" spans="43:43">
-      <c r="AQ264" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="265" spans="43:43">
-      <c r="AQ265" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="266" spans="43:43">
-      <c r="AQ266" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="267" spans="43:43">
-      <c r="AQ267" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="268" spans="43:43">
-      <c r="AQ268" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="269" spans="43:43">
-      <c r="AQ269" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="270" spans="43:43">
-      <c r="AQ270" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="271" spans="43:43">
-      <c r="AQ271" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="272" spans="43:43">
-      <c r="AQ272" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="273" spans="43:43">
-      <c r="AQ273" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="274" spans="43:43">
-      <c r="AQ274" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="275" spans="43:43">
-      <c r="AQ275" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="276" spans="43:43">
-      <c r="AQ276" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="277" spans="43:43">
-      <c r="AQ277" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="278" spans="43:43">
-      <c r="AQ278" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="279" spans="43:43">
-      <c r="AQ279" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="280" spans="43:43">
-      <c r="AQ280" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="281" spans="43:43">
-      <c r="AQ281" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="282" spans="43:43">
-      <c r="AQ282" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="283" spans="43:43">
-      <c r="AQ283" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="284" spans="43:43">
-      <c r="AQ284" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="285" spans="43:43">
-      <c r="AQ285" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="286" spans="43:43">
-      <c r="AQ286" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="287" spans="43:43">
-      <c r="AQ287" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="288" spans="43:43">
-      <c r="AQ288" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="289" spans="43:43">
-      <c r="AQ289" t="s">
-        <v>689</v>
+    <row r="286" spans="45:45">
+      <c r="AS286" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="287" spans="45:45">
+      <c r="AS287" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="288" spans="45:45">
+      <c r="AS288" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="289" spans="45:45">
+      <c r="AS289" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$294</definedName>
     <definedName name="hostHIVstatus">'cv_sample'!$AU$1:$AU$2</definedName>
     <definedName name="hostoccupation">'cv_sample'!$BJ$1:$BJ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BN$1:$BN$17</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="905">
   <si>
     <t>alias</t>
   </si>
@@ -1246,7 +1246,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1474,9 +1474,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1495,6 +1492,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1696,6 +1696,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1705,9 +1708,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1747,7 +1747,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1816,6 +1816,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1891,6 +1894,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1912,6 +1918,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1957,6 +1966,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1969,6 +1981,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1978,9 +1993,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2005,6 +2017,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2065,12 +2080,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2263,7 +2278,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: centuries, hours, seconds, months, weeks, minutes, days, decades, years)</t>
   </si>
   <si>
     <t>host body site</t>
@@ -2281,7 +2296,7 @@
     <t>host height</t>
   </si>
   <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
+    <t>(Optional) The height of subject (Units: mm, cm, m)</t>
   </si>
   <si>
     <t>host body-mass index</t>
@@ -2449,7 +2464,7 @@
     <t>host total mass</t>
   </si>
   <si>
-    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
+    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: g, kg)</t>
   </si>
   <si>
     <t>host phenotype</t>
@@ -2533,7 +2548,7 @@
     <t>weight loss in last three months</t>
   </si>
   <si>
-    <t>(Optional) Specification of weight loss in the last three months, if yes should be further specified to include amount of weight loss (Units: kg)</t>
+    <t>(Optional) Specification of weight loss in the last three months, if yes should be further specified to include amount of weight loss (Units: g, kg)</t>
   </si>
   <si>
     <t>travel outside the country in last six months</t>
@@ -2677,7 +2692,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -4420,199 +4435,199 @@
         <v>403</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:109" ht="150" customHeight="1">
@@ -4749,199 +4764,199 @@
         <v>404</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +5010,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BT289"/>
+  <dimension ref="G1:BT294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5033,16 +5048,16 @@
         <v>344</v>
       </c>
       <c r="BC1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BJ1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BN1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="BT1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="7:72">
@@ -5077,16 +5092,16 @@
         <v>345</v>
       </c>
       <c r="BC2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BJ2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BN2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="BT2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="7:72">
@@ -5109,16 +5124,16 @@
         <v>407</v>
       </c>
       <c r="BC3" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BJ3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BN3" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="BT3" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="7:72">
@@ -5138,13 +5153,13 @@
         <v>408</v>
       </c>
       <c r="BC4" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BJ4" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BN4" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="7:72">
@@ -5164,13 +5179,13 @@
         <v>409</v>
       </c>
       <c r="BC5" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ5" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BN5" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="7:72">
@@ -5184,13 +5199,13 @@
         <v>410</v>
       </c>
       <c r="BC6" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ6" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BN6" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="7:72">
@@ -5204,13 +5219,13 @@
         <v>411</v>
       </c>
       <c r="BC7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BN7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="7:72">
@@ -5221,13 +5236,13 @@
         <v>412</v>
       </c>
       <c r="BC8" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ8" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BN8" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="7:72">
@@ -5238,13 +5253,13 @@
         <v>413</v>
       </c>
       <c r="BC9" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BJ9" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BN9" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="7:72">
@@ -5255,13 +5270,13 @@
         <v>414</v>
       </c>
       <c r="BC10" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BJ10" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BN10" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="7:72">
@@ -5272,13 +5287,13 @@
         <v>415</v>
       </c>
       <c r="BC11" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BJ11" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BN11" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="7:72">
@@ -5289,13 +5304,13 @@
         <v>416</v>
       </c>
       <c r="BC12" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BJ12" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BN12" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="7:72">
@@ -5306,13 +5321,13 @@
         <v>417</v>
       </c>
       <c r="BC13" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BJ13" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BN13" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="7:72">
@@ -5323,13 +5338,13 @@
         <v>418</v>
       </c>
       <c r="BC14" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BJ14" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BN14" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="7:72">
@@ -5340,13 +5355,13 @@
         <v>419</v>
       </c>
       <c r="BC15" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BJ15" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BN15" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="7:72">
@@ -5357,10 +5372,10 @@
         <v>420</v>
       </c>
       <c r="BC16" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BJ16" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="BN16" t="s">
         <v>116</v>
@@ -5374,13 +5389,13 @@
         <v>421</v>
       </c>
       <c r="BC17" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BJ17" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="BN17" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="7:66">
@@ -5391,10 +5406,10 @@
         <v>422</v>
       </c>
       <c r="BC18" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BJ18" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="7:66">
@@ -5405,10 +5420,10 @@
         <v>423</v>
       </c>
       <c r="BC19" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BJ19" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="7:66">
@@ -5419,10 +5434,10 @@
         <v>424</v>
       </c>
       <c r="BC20" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BJ20" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="7:66">
@@ -5433,10 +5448,10 @@
         <v>425</v>
       </c>
       <c r="BC21" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BJ21" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="7:66">
@@ -5447,10 +5462,10 @@
         <v>426</v>
       </c>
       <c r="BC22" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BJ22" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="7:66">
@@ -5461,7 +5476,7 @@
         <v>427</v>
       </c>
       <c r="BJ23" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="7:66">
@@ -5472,7 +5487,7 @@
         <v>428</v>
       </c>
       <c r="BJ24" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="7:66">
@@ -5483,7 +5498,7 @@
         <v>429</v>
       </c>
       <c r="BJ25" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="7:66">
@@ -5494,7 +5509,7 @@
         <v>430</v>
       </c>
       <c r="BJ26" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="7:66">
@@ -5505,7 +5520,7 @@
         <v>431</v>
       </c>
       <c r="BJ27" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="7:66">
@@ -5516,7 +5531,7 @@
         <v>432</v>
       </c>
       <c r="BJ28" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="7:66">
@@ -5527,7 +5542,7 @@
         <v>433</v>
       </c>
       <c r="BJ29" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="7:66">
@@ -5538,7 +5553,7 @@
         <v>434</v>
       </c>
       <c r="BJ30" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="7:66">
@@ -5546,7 +5561,7 @@
         <v>435</v>
       </c>
       <c r="BJ31" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="7:66">
@@ -5554,7 +5569,7 @@
         <v>436</v>
       </c>
       <c r="BJ32" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="45:62">
@@ -5562,7 +5577,7 @@
         <v>437</v>
       </c>
       <c r="BJ33" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="45:62">
@@ -5570,7 +5585,7 @@
         <v>438</v>
       </c>
       <c r="BJ34" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="45:62">
@@ -5578,7 +5593,7 @@
         <v>439</v>
       </c>
       <c r="BJ35" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="45:62">
@@ -5586,7 +5601,7 @@
         <v>440</v>
       </c>
       <c r="BJ36" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" spans="45:62">
@@ -5594,7 +5609,7 @@
         <v>441</v>
       </c>
       <c r="BJ37" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="45:62">
@@ -5602,7 +5617,7 @@
         <v>442</v>
       </c>
       <c r="BJ38" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="45:62">
@@ -5610,7 +5625,7 @@
         <v>443</v>
       </c>
       <c r="BJ39" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" spans="45:62">
@@ -5618,7 +5633,7 @@
         <v>444</v>
       </c>
       <c r="BJ40" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="45:62">
@@ -5626,7 +5641,7 @@
         <v>445</v>
       </c>
       <c r="BJ41" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="42" spans="45:62">
@@ -5634,7 +5649,7 @@
         <v>446</v>
       </c>
       <c r="BJ42" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="43" spans="45:62">
@@ -5642,7 +5657,7 @@
         <v>447</v>
       </c>
       <c r="BJ43" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="44" spans="45:62">
@@ -5650,7 +5665,7 @@
         <v>448</v>
       </c>
       <c r="BJ44" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="45" spans="45:62">
@@ -5658,7 +5673,7 @@
         <v>449</v>
       </c>
       <c r="BJ45" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
     <row r="46" spans="45:62">
@@ -5666,7 +5681,7 @@
         <v>450</v>
       </c>
       <c r="BJ46" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47" spans="45:62">
@@ -5674,7 +5689,7 @@
         <v>451</v>
       </c>
       <c r="BJ47" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="45:62">
@@ -5682,7 +5697,7 @@
         <v>452</v>
       </c>
       <c r="BJ48" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="49" spans="45:45">
@@ -6888,6 +6903,31 @@
     <row r="289" spans="45:45">
       <c r="AS289" t="s">
         <v>693</v>
+      </c>
+    </row>
+    <row r="290" spans="45:45">
+      <c r="AS290" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="291" spans="45:45">
+      <c r="AS291" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="292" spans="45:45">
+      <c r="AS292" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="293" spans="45:45">
+      <c r="AS293" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="294" spans="45:45">
+      <c r="AS294" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000014/metadata_template_ERC000014.xlsx
+++ b/templates/ERC000014/metadata_template_ERC000014.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AS$1:$AS$294</definedName>
     <definedName name="hostHIVstatus">'cv_sample'!$AU$1:$AU$2</definedName>
     <definedName name="hostoccupation">'cv_sample'!$BJ$1:$BJ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BN$1:$BN$17</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="905">
   <si>
     <t>alias</t>
   </si>
@@ -1246,7 +1246,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1474,9 +1474,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1495,6 +1492,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1696,6 +1696,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1705,9 +1708,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1747,7 +1747,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1816,6 +1816,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1891,6 +1894,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1912,6 +1918,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1957,6 +1966,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1969,6 +1981,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1978,9 +1993,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -2005,6 +2017,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2065,12 +2080,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2281,7 +2296,7 @@
     <t>host height</t>
   </si>
   <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
+    <t>(Optional) The height of subject (Units: m)</t>
   </si>
   <si>
     <t>host body-mass index</t>
@@ -2677,7 +2692,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -4420,199 +4435,199 @@
         <v>403</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:109" ht="150" customHeight="1">
@@ -4749,199 +4764,199 @@
         <v>404</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -4995,7 +5010,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BT289"/>
+  <dimension ref="G1:BT294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5033,16 +5048,16 @@
         <v>344</v>
       </c>
       <c r="BC1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BJ1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BN1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="BT1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="7:72">
@@ -5077,16 +5092,16 @@
         <v>345</v>
       </c>
       <c r="BC2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BJ2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BN2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="BT2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="7:72">
@@ -5109,16 +5124,16 @@
         <v>407</v>
       </c>
       <c r="BC3" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BJ3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="BN3" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="BT3" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="4" spans="7:72">
@@ -5138,13 +5153,13 @@
         <v>408</v>
       </c>
       <c r="BC4" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BJ4" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="BN4" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="7:72">
@@ -5164,13 +5179,13 @@
         <v>409</v>
       </c>
       <c r="BC5" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ5" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="BN5" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="7:72">
@@ -5184,13 +5199,13 @@
         <v>410</v>
       </c>
       <c r="BC6" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ6" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="BN6" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="7:72">
@@ -5204,13 +5219,13 @@
         <v>411</v>
       </c>
       <c r="BC7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BJ7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="BN7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="7:72">
@@ -5221,13 +5236,13 @@
         <v>412</v>
       </c>
       <c r="BC8" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BJ8" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="BN8" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="7:72">
@@ -5238,13 +5253,13 @@
         <v>413</v>
       </c>
       <c r="BC9" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BJ9" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="BN9" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="7:72">
@@ -5255,13 +5270,13 @@
         <v>414</v>
       </c>
       <c r="BC10" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BJ10" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="BN10" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="7:72">
@@ -5272,13 +5287,13 @@
         <v>415</v>
       </c>
       <c r="BC11" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BJ11" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="BN11" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="7:72">
@@ -5289,13 +5304,13 @@
         <v>416</v>
       </c>
       <c r="BC12" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BJ12" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="BN12" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="13" spans="7:72">
@@ -5306,13 +5321,13 @@
         <v>417</v>
       </c>
       <c r="BC13" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BJ13" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="BN13" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="7:72">
@@ -5323,13 +5338,13 @@
         <v>418</v>
       </c>
       <c r="BC14" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BJ14" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="BN14" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="7:72">
@@ -5340,13 +5355,13 @@
         <v>419</v>
       </c>
       <c r="BC15" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BJ15" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="BN15" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="7:72">
@@ -5357,10 +5372,10 @@
         <v>420</v>
       </c>
       <c r="BC16" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BJ16" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="BN16" t="s">
         <v>116</v>
@@ -5374,13 +5389,13 @@
         <v>421</v>
       </c>
       <c r="BC17" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BJ17" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="BN17" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="7:66">
@@ -5391,10 +5406,10 @@
         <v>422</v>
       </c>
       <c r="BC18" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BJ18" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="7:66">
@@ -5405,10 +5420,10 @@
         <v>423</v>
       </c>
       <c r="BC19" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BJ19" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="7:66">
@@ -5419,10 +5434,10 @@
         <v>424</v>
       </c>
       <c r="BC20" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BJ20" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="7:66">
@@ -5433,10 +5448,10 @@
         <v>425</v>
       </c>
       <c r="BC21" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BJ21" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="7:66">
@@ -5447,10 +5462,10 @@
         <v>426</v>
       </c>
       <c r="BC22" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BJ22" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="7:66">
@@ -5461,7 +5476,7 @@
         <v>427</v>
       </c>
       <c r="BJ23" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="7:66">
@@ -5472,7 +5487,7 @@
         <v>428</v>
       </c>
       <c r="BJ24" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="7:66">
@@ -5483,7 +5498,7 @@
         <v>429</v>
       </c>
       <c r="BJ25" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="7:66">
@@ -5494,7 +5509,7 @@
         <v>430</v>
       </c>
       <c r="BJ26" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="7:66">
@@ -5505,7 +5520,7 @@
         <v>431</v>
       </c>
       <c r="BJ27" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="7:66">
@@ -5516,7 +5531,7 @@
         <v>432</v>
       </c>
       <c r="BJ28" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="7:66">
@@ -5527,7 +5542,7 @@
         <v>433</v>
       </c>
       <c r="BJ29" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30" spans="7:66">
@@ -5538,7 +5553,7 @@
         <v>434</v>
       </c>
       <c r="BJ30" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="7:66">
@@ -5546,7 +5561,7 @@
         <v>435</v>
       </c>
       <c r="BJ31" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="7:66">
@@ -5554,7 +5569,7 @@
         <v>436</v>
       </c>
       <c r="BJ32" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="45:62">
@@ -5562,7 +5577,7 @@
         <v>437</v>
       </c>
       <c r="BJ33" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="45:62">
@@ -5570,7 +5585,7 @@
         <v>438</v>
       </c>
       <c r="BJ34" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="45:62">
@@ -5578,7 +5593,7 @@
         <v>439</v>
       </c>
       <c r="BJ35" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="45:62">
@@ -5586,7 +5601,7 @@
         <v>440</v>
       </c>
       <c r="BJ36" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" spans="45:62">
@@ -5594,7 +5609,7 @@
         <v>441</v>
       </c>
       <c r="BJ37" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="45:62">
@@ -5602,7 +5617,7 @@
         <v>442</v>
       </c>
       <c r="BJ38" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="45:62">
@@ -5610,7 +5625,7 @@
         <v>443</v>
       </c>
       <c r="BJ39" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" spans="45:62">
@@ -5618,7 +5633,7 @@
         <v>444</v>
       </c>
       <c r="BJ40" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="45:62">
@@ -5626,7 +5641,7 @@
         <v>445</v>
       </c>
       <c r="BJ41" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="42" spans="45:62">
@@ -5634,7 +5649,7 @@
         <v>446</v>
       </c>
       <c r="BJ42" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="43" spans="45:62">
@@ -5642,7 +5657,7 @@
         <v>447</v>
       </c>
       <c r="BJ43" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="44" spans="45:62">
@@ -5650,7 +5665,7 @@
         <v>448</v>
       </c>
       <c r="BJ44" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="45" spans="45:62">
@@ -5658,7 +5673,7 @@
         <v>449</v>
       </c>
       <c r="BJ45" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
     <row r="46" spans="45:62">
@@ -5666,7 +5681,7 @@
         <v>450</v>
       </c>
       <c r="BJ46" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47" spans="45:62">
@@ -5674,7 +5689,7 @@
         <v>451</v>
       </c>
       <c r="BJ47" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="45:62">
@@ -5682,7 +5697,7 @@
         <v>452</v>
       </c>
       <c r="BJ48" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="49" spans="45:45">
@@ -6888,6 +6903,31 @@
     <row r="289" spans="45:45">
       <c r="AS289" t="s">
         <v>693</v>
+      </c>
+    </row>
+    <row r="290" spans="45:45">
+      <c r="AS290" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="291" spans="45:45">
+      <c r="AS291" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="292" spans="45:45">
+      <c r="AS292" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="293" spans="45:45">
+      <c r="AS293" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="294" spans="45:45">
+      <c r="AS294" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
